--- a/doc/design/layout/EnglishSound_Design.xlsx
+++ b/doc/design/layout/EnglishSound_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Github\word-of-the-day\doc\design\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE611F7-6EFE-4884-A7AD-1CE539CFBCAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70053D5C-D3C2-4711-A402-F382663170F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <r>
       <t>*A - Add</t>
@@ -145,9 +145,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>Thach.N.Le</t>
-  </si>
-  <si>
     <t>Function code</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
   </si>
   <si>
     <t>VietNamese</t>
-  </si>
-  <si>
-    <t>This is the look uop screen</t>
-  </si>
-  <si>
-    <t>2.1 Look up Screen Image</t>
   </si>
   <si>
     <t>Sign in</t>
@@ -312,6 +303,30 @@
   <si>
     <t>09/12/2018</t>
   </si>
+  <si>
+    <t>(2.1)</t>
+  </si>
+  <si>
+    <t>(2.2)</t>
+  </si>
+  <si>
+    <t>2 links contain:</t>
+  </si>
+  <si>
+    <t>This is the look up screen</t>
+  </si>
+  <si>
+    <t>2.1 Welcome Screen Image</t>
+  </si>
+  <si>
+    <t>(2.1) Sign up will link to sign up screen</t>
+  </si>
+  <si>
+    <t>(2.2) Sign in will link to Sign in screen</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +337,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -717,6 +732,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -924,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -2035,36 +2057,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -2100,8 +2092,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2147,8 +2210,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="98" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="98" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="99" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="100" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="101" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,9 +2298,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="11" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="26" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2320,8 +2385,6 @@
     <xf numFmtId="0" fontId="56" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
@@ -2333,15 +2396,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="34" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="31" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2405,6 +2472,9 @@
     <xf numFmtId="0" fontId="51" fillId="31" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,11 +2715,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="11" xfId="37" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2676,6 +2746,7 @@
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Calculation 2" xfId="45" xr:uid="{E56317F5-9FB9-4F4E-B636-07E7DCAEECB2}"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
@@ -2684,6 +2755,7 @@
     <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input 2" xfId="46" xr:uid="{3FF24F64-31EC-44FB-A57F-C15BBB646984}"/>
     <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2691,9 +2763,12 @@
     <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Normal_RS-5_8_メニュー階層図_輸配送管理_20060926" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="47" xr:uid="{589423DE-CCA1-4787-B5D2-2FE54C14C962}"/>
     <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Output 2" xfId="48" xr:uid="{48D04344-6160-428F-975B-FD5234100FE5}"/>
     <cellStyle name="Title" xfId="41" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="49" xr:uid="{D80A6F5F-3AAA-4002-AF6E-F461E75ADACA}"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -2811,8 +2886,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3468,7 +3543,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -3507,8 +3582,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="49">
-        <v>42420</v>
+      <c r="A5" s="250" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -3536,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4:AN4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3:AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.8"/>
@@ -3556,241 +3631,239 @@
     <col min="36" max="36" width="2.44140625" customWidth="1"/>
     <col min="37" max="37" width="3.5546875" customWidth="1"/>
     <col min="40" max="40" width="2.33203125" customWidth="1"/>
-    <col min="41" max="41" width="2.44140625" customWidth="1"/>
+    <col min="41" max="41" width="3.109375" customWidth="1"/>
     <col min="44" max="44" width="2.88671875" customWidth="1"/>
     <col min="46" max="46" width="3.44140625" customWidth="1"/>
     <col min="47" max="47" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="12.15" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="183" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="147" t="s">
+      <c r="A1" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="148"/>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="149"/>
+      <c r="AV1" s="150"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="184"/>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="150" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="152"/>
+      <c r="AN2" s="152"/>
+      <c r="AO2" s="152"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="152"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="153"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="159" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="165" t="s">
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="159" t="s">
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="167" t="s">
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="248" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="167" t="s">
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="170"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="171" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="171"/>
+      <c r="AV3" s="172"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="156"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="171" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="171"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="171"/>
-      <c r="AJ4" s="171"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="168"/>
-      <c r="AN4" s="168"/>
-      <c r="AO4" s="171" t="s">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="171"/>
-      <c r="AQ4" s="171"/>
-      <c r="AR4" s="171"/>
-      <c r="AS4" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT4" s="172"/>
-      <c r="AU4" s="172"/>
-      <c r="AV4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="175"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="6"/>
@@ -3843,56 +3916,56 @@
       <c r="AV5" s="8"/>
     </row>
     <row r="6" spans="1:48">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="97"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="96"/>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="15"/>
@@ -3947,7 +4020,7 @@
     <row r="8" spans="1:48">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3999,7 +4072,7 @@
     <row r="9" spans="1:48">
       <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4051,7 +4124,7 @@
     <row r="10" spans="1:48">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="12"/>
@@ -4103,7 +4176,7 @@
     <row r="11" spans="1:48">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4145,9 +4218,9 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
       <c r="AV11" s="9"/>
     </row>
     <row r="12" spans="1:48">
@@ -4195,495 +4268,499 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
       <c r="AV12" s="9"/>
     </row>
     <row r="13" spans="1:48">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="98"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="98"/>
-      <c r="AR13" s="98"/>
-      <c r="AS13" s="98"/>
-      <c r="AT13" s="98"/>
-      <c r="AU13" s="98"/>
-      <c r="AV13" s="99"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="98"/>
     </row>
     <row r="14" spans="1:48">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="74"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="74"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
       <c r="AS14" s="42"/>
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
       <c r="AV14" s="8"/>
     </row>
     <row r="15" spans="1:48" ht="14.4" thickBot="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="71" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+    </row>
+    <row r="16" spans="1:48" ht="15" thickTop="1" thickBot="1">
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="75"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-    </row>
-    <row r="16" spans="1:48" ht="14.4" thickTop="1">
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="127" t="s">
+      <c r="AN16" s="144"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ16" s="144"/>
+      <c r="AR16" s="144"/>
+    </row>
+    <row r="17" spans="4:44" ht="15" thickTop="1" thickBot="1">
+      <c r="D17" s="79"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR17" s="110"/>
+    </row>
+    <row r="18" spans="4:44" ht="14.4" thickTop="1">
+      <c r="D18" s="109"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="110"/>
+    </row>
+    <row r="19" spans="4:44" ht="21" thickBot="1">
+      <c r="D19" s="109"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="121"/>
+      <c r="H19" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="123"/>
+      <c r="AJ19" s="123"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="125"/>
+      <c r="AR19" s="110"/>
+    </row>
+    <row r="20" spans="4:44" ht="14.4" thickTop="1">
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="119"/>
+    </row>
+    <row r="21" spans="4:44">
+      <c r="D21" s="80"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="81"/>
+    </row>
+    <row r="22" spans="4:44">
+      <c r="D22" s="80"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="101"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="102"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="81"/>
+    </row>
+    <row r="23" spans="4:44" ht="18" thickBot="1">
+      <c r="D23" s="80"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="AN16" s="127"/>
-      <c r="AO16" s="127"/>
-      <c r="AP16" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ16" s="127"/>
-      <c r="AR16" s="128"/>
-    </row>
-    <row r="17" spans="4:44" ht="14.4" thickBot="1">
-      <c r="D17" s="80"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="111"/>
-    </row>
-    <row r="18" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D18" s="110"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="111"/>
-    </row>
-    <row r="19" spans="4:44" ht="21" thickBot="1">
-      <c r="D19" s="110"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="124"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="124"/>
-      <c r="AM19" s="124"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="111"/>
-    </row>
-    <row r="20" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="119"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="119"/>
-      <c r="AQ20" s="119"/>
-      <c r="AR20" s="120"/>
-    </row>
-    <row r="21" spans="4:44">
-      <c r="D21" s="81"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="82"/>
-    </row>
-    <row r="22" spans="4:44">
-      <c r="D22" s="81"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="102"/>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="102"/>
-      <c r="AK22" s="102"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="102"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="60"/>
-      <c r="AP22" s="60"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="82"/>
-    </row>
-    <row r="23" spans="4:44" ht="18" thickBot="1">
-      <c r="D23" s="81"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="129" t="s">
-        <v>64</v>
+      <c r="K23" s="59"/>
+      <c r="L23" s="126" t="s">
+        <v>61</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -4705,245 +4782,245 @@
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="18"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="60"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="82"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="81"/>
     </row>
     <row r="24" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D24" s="81"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="107"/>
-      <c r="AK24" s="107"/>
-      <c r="AL24" s="107"/>
-      <c r="AM24" s="107"/>
-      <c r="AN24" s="108"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="82"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="106"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="81"/>
     </row>
     <row r="25" spans="4:44">
-      <c r="D25" s="81"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="82"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="81"/>
     </row>
     <row r="26" spans="4:44">
-      <c r="D26" s="81"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="60"/>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="82"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="81"/>
     </row>
     <row r="27" spans="4:44" ht="17.399999999999999">
-      <c r="D27" s="81"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="68" t="s">
+      <c r="D27" s="80"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="67" t="s">
         <v>40</v>
-      </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="68" t="s">
-        <v>41</v>
       </c>
       <c r="AL27" s="17"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="18"/>
-      <c r="AP27" s="60"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="82"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="81"/>
     </row>
     <row r="28" spans="4:44">
-      <c r="D28" s="81"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="60"/>
-      <c r="AQ28" s="60"/>
-      <c r="AR28" s="82"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="81"/>
     </row>
     <row r="29" spans="4:44">
-      <c r="D29" s="81"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -4951,86 +5028,86 @@
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="116"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="113"/>
-      <c r="AO29" s="114"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="82"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="112"/>
+      <c r="AK29" s="112"/>
+      <c r="AL29" s="112"/>
+      <c r="AM29" s="112"/>
+      <c r="AN29" s="112"/>
+      <c r="AO29" s="113"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="81"/>
     </row>
     <row r="30" spans="4:44">
-      <c r="D30" s="81"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="59"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="20"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
       <c r="AO30" s="9"/>
-      <c r="AP30" s="60"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="82"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="81"/>
     </row>
     <row r="31" spans="4:44">
-      <c r="D31" s="81"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="21"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -5039,21 +5116,21 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="117"/>
+      <c r="O31" s="116"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="22"/>
       <c r="AF31" s="22"/>
@@ -5066,738 +5143,751 @@
       <c r="AM31" s="22"/>
       <c r="AN31" s="22"/>
       <c r="AO31" s="23"/>
-      <c r="AP31" s="60"/>
-      <c r="AQ31" s="60"/>
-      <c r="AR31" s="82"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="81"/>
     </row>
     <row r="32" spans="4:44">
-      <c r="D32" s="81"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="82"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="81"/>
     </row>
     <row r="33" spans="3:44">
-      <c r="D33" s="81"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="60"/>
-      <c r="AQ33" s="60"/>
-      <c r="AR33" s="82"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="81"/>
     </row>
     <row r="34" spans="3:44">
-      <c r="D34" s="81"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="60"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="60"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="82"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="81"/>
     </row>
     <row r="35" spans="3:44">
-      <c r="D35" s="81"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="82"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="81"/>
     </row>
     <row r="36" spans="3:44">
-      <c r="D36" s="81"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="82"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="81"/>
     </row>
     <row r="37" spans="3:44">
-      <c r="D37" s="81"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-      <c r="AP37" s="60"/>
-      <c r="AQ37" s="60"/>
-      <c r="AR37" s="82"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="81"/>
     </row>
     <row r="38" spans="3:44" ht="14.4" thickBot="1">
-      <c r="D38" s="81"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="60"/>
-      <c r="AN38" s="60"/>
-      <c r="AO38" s="60"/>
-      <c r="AP38" s="60"/>
-      <c r="AQ38" s="60"/>
-      <c r="AR38" s="82"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="81"/>
     </row>
     <row r="39" spans="3:44" ht="14.4" thickTop="1">
-      <c r="D39" s="90"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="91"/>
-      <c r="AC39" s="91"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="91"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="91"/>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="91"/>
-      <c r="AJ39" s="91"/>
-      <c r="AK39" s="91"/>
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="91"/>
-      <c r="AN39" s="91"/>
-      <c r="AO39" s="91"/>
-      <c r="AP39" s="91"/>
-      <c r="AQ39" s="91"/>
-      <c r="AR39" s="92"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="90"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
+      <c r="AM39" s="90"/>
+      <c r="AN39" s="90"/>
+      <c r="AO39" s="90"/>
+      <c r="AP39" s="90"/>
+      <c r="AQ39" s="90"/>
+      <c r="AR39" s="91"/>
     </row>
     <row r="40" spans="3:44">
-      <c r="D40" s="81"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="60"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="60"/>
-      <c r="AL40" s="60"/>
-      <c r="AM40" s="60"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="60"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="60"/>
-      <c r="AR40" s="82"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="81"/>
     </row>
     <row r="41" spans="3:44">
-      <c r="D41" s="81"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60"/>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="60"/>
-      <c r="AN41" s="60"/>
-      <c r="AO41" s="60"/>
-      <c r="AP41" s="60"/>
-      <c r="AQ41" s="60"/>
-      <c r="AR41" s="82"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="81"/>
     </row>
     <row r="42" spans="3:44">
-      <c r="D42" s="81"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="60"/>
-      <c r="AL42" s="60"/>
-      <c r="AM42" s="60"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="60"/>
-      <c r="AP42" s="60"/>
-      <c r="AQ42" s="60"/>
-      <c r="AR42" s="82"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="81"/>
     </row>
     <row r="43" spans="3:44" ht="14.4" thickBot="1">
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="84"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
-      <c r="AC43" s="84"/>
-      <c r="AD43" s="84"/>
-      <c r="AE43" s="84"/>
-      <c r="AF43" s="84"/>
-      <c r="AG43" s="84"/>
-      <c r="AH43" s="84"/>
-      <c r="AI43" s="84"/>
-      <c r="AJ43" s="84"/>
-      <c r="AK43" s="84"/>
-      <c r="AL43" s="84"/>
-      <c r="AM43" s="84"/>
-      <c r="AN43" s="84"/>
-      <c r="AO43" s="84"/>
-      <c r="AP43" s="84"/>
-      <c r="AQ43" s="84"/>
-      <c r="AR43" s="85"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="83"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="83"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="83"/>
+      <c r="AN43" s="83"/>
+      <c r="AO43" s="83"/>
+      <c r="AP43" s="83"/>
+      <c r="AQ43" s="83"/>
+      <c r="AR43" s="84"/>
     </row>
     <row r="44" spans="3:44" ht="14.4" thickTop="1">
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="60"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="60"/>
-      <c r="AO44" s="60"/>
-      <c r="AP44" s="60"/>
-      <c r="AQ44" s="60"/>
-      <c r="AR44" s="60"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
     </row>
     <row r="45" spans="3:44">
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="46" spans="3:44">
-      <c r="C46" s="100"/>
+      <c r="C46" s="99"/>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="3:44">
-      <c r="C47" s="100"/>
+      <c r="C47" s="99"/>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="3:44">
-      <c r="C48" s="100"/>
+      <c r="C48" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="2:44">
-      <c r="C49" s="100"/>
+      <c r="C49" s="99"/>
+      <c r="E49" s="146" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:44">
+      <c r="E50" s="146" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="2:44">
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:44" ht="14.4" thickBot="1">
       <c r="C52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:44" ht="14.4" thickTop="1">
-      <c r="D53" s="90"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="91"/>
-      <c r="R53" s="91"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="91"/>
-      <c r="V53" s="91"/>
-      <c r="W53" s="91"/>
-      <c r="X53" s="91"/>
-      <c r="Y53" s="91"/>
-      <c r="Z53" s="91"/>
-      <c r="AA53" s="91"/>
-      <c r="AB53" s="91"/>
-      <c r="AC53" s="91"/>
-      <c r="AD53" s="91"/>
-      <c r="AE53" s="91"/>
-      <c r="AF53" s="91"/>
-      <c r="AG53" s="91"/>
-      <c r="AH53" s="91"/>
-      <c r="AI53" s="91"/>
-      <c r="AJ53" s="91"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="91"/>
-      <c r="AM53" s="91"/>
-      <c r="AN53" s="91"/>
-      <c r="AO53" s="91"/>
-      <c r="AP53" s="91"/>
-      <c r="AQ53" s="91"/>
-      <c r="AR53" s="92"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
+      <c r="AC53" s="90"/>
+      <c r="AD53" s="90"/>
+      <c r="AE53" s="90"/>
+      <c r="AF53" s="90"/>
+      <c r="AG53" s="90"/>
+      <c r="AH53" s="90"/>
+      <c r="AI53" s="90"/>
+      <c r="AJ53" s="90"/>
+      <c r="AK53" s="90"/>
+      <c r="AL53" s="90"/>
+      <c r="AM53" s="90"/>
+      <c r="AN53" s="90"/>
+      <c r="AO53" s="90"/>
+      <c r="AP53" s="90"/>
+      <c r="AQ53" s="90"/>
+      <c r="AR53" s="91"/>
     </row>
     <row r="54" spans="2:44" ht="13.8" customHeight="1">
-      <c r="D54" s="81"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="R54" s="178"/>
-      <c r="S54" s="178"/>
-      <c r="T54" s="178"/>
-      <c r="U54" s="178"/>
-      <c r="V54" s="178"/>
-      <c r="W54" s="178"/>
-      <c r="X54" s="178"/>
-      <c r="Y54" s="178"/>
-      <c r="Z54" s="178"/>
-      <c r="AA54" s="178"/>
-      <c r="AB54" s="178"/>
-      <c r="AC54" s="135"/>
-      <c r="AD54" s="60"/>
-      <c r="AE54" s="60"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="60"/>
-      <c r="AJ54" s="60"/>
-      <c r="AK54" s="60"/>
-      <c r="AL54" s="60"/>
-      <c r="AM54" s="60"/>
-      <c r="AN54" s="60"/>
-      <c r="AO54" s="60"/>
-      <c r="AP54" s="60"/>
-      <c r="AQ54" s="60"/>
-      <c r="AR54" s="82"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="R54" s="180"/>
+      <c r="S54" s="180"/>
+      <c r="T54" s="180"/>
+      <c r="U54" s="180"/>
+      <c r="V54" s="180"/>
+      <c r="W54" s="180"/>
+      <c r="X54" s="180"/>
+      <c r="Y54" s="180"/>
+      <c r="Z54" s="180"/>
+      <c r="AA54" s="180"/>
+      <c r="AB54" s="180"/>
+      <c r="AC54" s="132"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="59"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="59"/>
+      <c r="AP54" s="59"/>
+      <c r="AQ54" s="59"/>
+      <c r="AR54" s="81"/>
     </row>
     <row r="55" spans="2:44" ht="13.8" customHeight="1">
-      <c r="D55" s="81"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="178"/>
-      <c r="R55" s="178"/>
-      <c r="S55" s="178"/>
-      <c r="T55" s="178"/>
-      <c r="U55" s="178"/>
-      <c r="V55" s="178"/>
-      <c r="W55" s="178"/>
-      <c r="X55" s="178"/>
-      <c r="Y55" s="178"/>
-      <c r="Z55" s="178"/>
-      <c r="AA55" s="178"/>
-      <c r="AB55" s="178"/>
-      <c r="AC55" s="135"/>
-      <c r="AD55" s="60"/>
-      <c r="AE55" s="60"/>
-      <c r="AF55" s="60"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="60"/>
-      <c r="AJ55" s="60"/>
-      <c r="AK55" s="60"/>
-      <c r="AL55" s="60"/>
-      <c r="AM55" s="60"/>
-      <c r="AN55" s="60"/>
-      <c r="AO55" s="60"/>
-      <c r="AP55" s="60"/>
-      <c r="AQ55" s="60"/>
-      <c r="AR55" s="82"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="180"/>
+      <c r="R55" s="180"/>
+      <c r="S55" s="180"/>
+      <c r="T55" s="180"/>
+      <c r="U55" s="180"/>
+      <c r="V55" s="180"/>
+      <c r="W55" s="180"/>
+      <c r="X55" s="180"/>
+      <c r="Y55" s="180"/>
+      <c r="Z55" s="180"/>
+      <c r="AA55" s="180"/>
+      <c r="AB55" s="180"/>
+      <c r="AC55" s="132"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="59"/>
+      <c r="AN55" s="59"/>
+      <c r="AO55" s="59"/>
+      <c r="AP55" s="59"/>
+      <c r="AQ55" s="59"/>
+      <c r="AR55" s="81"/>
     </row>
     <row r="56" spans="2:44">
-      <c r="D56" s="130"/>
+      <c r="D56" s="127"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -5837,71 +5927,71 @@
       <c r="AO56" s="22"/>
       <c r="AP56" s="22"/>
       <c r="AQ56" s="22"/>
-      <c r="AR56" s="131"/>
+      <c r="AR56" s="128"/>
     </row>
     <row r="57" spans="2:44">
-      <c r="D57" s="81"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="60"/>
-      <c r="Z57" s="60"/>
-      <c r="AA57" s="60"/>
-      <c r="AB57" s="60"/>
-      <c r="AC57" s="60"/>
-      <c r="AD57" s="60"/>
-      <c r="AE57" s="60"/>
-      <c r="AF57" s="60"/>
-      <c r="AG57" s="60"/>
-      <c r="AH57" s="60"/>
-      <c r="AI57" s="60"/>
-      <c r="AJ57" s="60"/>
-      <c r="AK57" s="60"/>
-      <c r="AL57" s="60"/>
-      <c r="AM57" s="60"/>
-      <c r="AN57" s="60"/>
-      <c r="AO57" s="60"/>
-      <c r="AP57" s="60"/>
-      <c r="AQ57" s="60"/>
-      <c r="AR57" s="82"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="59"/>
+      <c r="AN57" s="59"/>
+      <c r="AO57" s="59"/>
+      <c r="AP57" s="59"/>
+      <c r="AQ57" s="59"/>
+      <c r="AR57" s="81"/>
     </row>
     <row r="58" spans="2:44">
-      <c r="D58" s="81"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="129" t="s">
-        <v>70</v>
+      <c r="D58" s="80"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="126" t="s">
+        <v>67</v>
       </c>
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
@@ -5916,82 +6006,82 @@
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
       <c r="AF58" s="18"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
-      <c r="AJ58" s="60"/>
-      <c r="AK58" s="60"/>
-      <c r="AL58" s="60"/>
-      <c r="AM58" s="60"/>
-      <c r="AN58" s="60"/>
-      <c r="AO58" s="60"/>
-      <c r="AP58" s="60"/>
-      <c r="AQ58" s="60"/>
-      <c r="AR58" s="82"/>
+      <c r="AG58" s="59"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="59"/>
+      <c r="AO58" s="59"/>
+      <c r="AP58" s="59"/>
+      <c r="AQ58" s="59"/>
+      <c r="AR58" s="81"/>
     </row>
     <row r="59" spans="2:44">
-      <c r="D59" s="81"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="60"/>
-      <c r="AB59" s="60"/>
-      <c r="AC59" s="60"/>
-      <c r="AD59" s="60"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="60"/>
-      <c r="AJ59" s="60"/>
-      <c r="AK59" s="60"/>
-      <c r="AL59" s="60"/>
-      <c r="AM59" s="60"/>
-      <c r="AN59" s="60"/>
-      <c r="AO59" s="60"/>
-      <c r="AP59" s="60"/>
-      <c r="AQ59" s="60"/>
-      <c r="AR59" s="82"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="59"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" s="59"/>
+      <c r="AJ59" s="59"/>
+      <c r="AK59" s="59"/>
+      <c r="AL59" s="59"/>
+      <c r="AM59" s="59"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="59"/>
+      <c r="AP59" s="59"/>
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="81"/>
     </row>
     <row r="60" spans="2:44">
-      <c r="D60" s="81"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="129" t="s">
-        <v>71</v>
+      <c r="D60" s="80"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="126" t="s">
+        <v>68</v>
       </c>
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
@@ -6006,82 +6096,82 @@
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
       <c r="AF60" s="18"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="60"/>
-      <c r="AM60" s="60"/>
-      <c r="AN60" s="60"/>
-      <c r="AO60" s="60"/>
-      <c r="AP60" s="60"/>
-      <c r="AQ60" s="60"/>
-      <c r="AR60" s="82"/>
+      <c r="AG60" s="59"/>
+      <c r="AH60" s="59"/>
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="59"/>
+      <c r="AK60" s="59"/>
+      <c r="AL60" s="59"/>
+      <c r="AM60" s="59"/>
+      <c r="AN60" s="59"/>
+      <c r="AO60" s="59"/>
+      <c r="AP60" s="59"/>
+      <c r="AQ60" s="59"/>
+      <c r="AR60" s="81"/>
     </row>
     <row r="61" spans="2:44">
-      <c r="D61" s="81"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="60"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="60"/>
-      <c r="AM61" s="60"/>
-      <c r="AN61" s="60"/>
-      <c r="AO61" s="60"/>
-      <c r="AP61" s="60"/>
-      <c r="AQ61" s="60"/>
-      <c r="AR61" s="82"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="59"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="59"/>
+      <c r="AH61" s="59"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="59"/>
+      <c r="AK61" s="59"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="59"/>
+      <c r="AN61" s="59"/>
+      <c r="AO61" s="59"/>
+      <c r="AP61" s="59"/>
+      <c r="AQ61" s="59"/>
+      <c r="AR61" s="81"/>
     </row>
     <row r="62" spans="2:44">
-      <c r="D62" s="81"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="O62" s="60"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="129" t="s">
-        <v>72</v>
+      <c r="D62" s="80"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="126" t="s">
+        <v>69</v>
       </c>
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
@@ -6096,82 +6186,82 @@
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
       <c r="AF62" s="18"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="60"/>
-      <c r="AJ62" s="60"/>
-      <c r="AK62" s="60"/>
-      <c r="AL62" s="60"/>
-      <c r="AM62" s="60"/>
-      <c r="AN62" s="60"/>
-      <c r="AO62" s="60"/>
-      <c r="AP62" s="60"/>
-      <c r="AQ62" s="60"/>
-      <c r="AR62" s="82"/>
+      <c r="AG62" s="59"/>
+      <c r="AH62" s="59"/>
+      <c r="AI62" s="59"/>
+      <c r="AJ62" s="59"/>
+      <c r="AK62" s="59"/>
+      <c r="AL62" s="59"/>
+      <c r="AM62" s="59"/>
+      <c r="AN62" s="59"/>
+      <c r="AO62" s="59"/>
+      <c r="AP62" s="59"/>
+      <c r="AQ62" s="59"/>
+      <c r="AR62" s="81"/>
     </row>
     <row r="63" spans="2:44">
-      <c r="D63" s="81"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
-      <c r="AJ63" s="60"/>
-      <c r="AK63" s="60"/>
-      <c r="AL63" s="60"/>
-      <c r="AM63" s="60"/>
-      <c r="AN63" s="60"/>
-      <c r="AO63" s="60"/>
-      <c r="AP63" s="60"/>
-      <c r="AQ63" s="60"/>
-      <c r="AR63" s="82"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="59"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="59"/>
+      <c r="AI63" s="59"/>
+      <c r="AJ63" s="59"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="59"/>
+      <c r="AM63" s="59"/>
+      <c r="AN63" s="59"/>
+      <c r="AO63" s="59"/>
+      <c r="AP63" s="59"/>
+      <c r="AQ63" s="59"/>
+      <c r="AR63" s="81"/>
     </row>
     <row r="64" spans="2:44">
-      <c r="D64" s="81"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="129" t="s">
-        <v>73</v>
+      <c r="D64" s="80"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="126" t="s">
+        <v>70</v>
       </c>
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
@@ -6186,241 +6276,241 @@
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
       <c r="AF64" s="18"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="60"/>
-      <c r="AI64" s="60"/>
-      <c r="AJ64" s="60"/>
-      <c r="AK64" s="60"/>
-      <c r="AL64" s="60"/>
-      <c r="AM64" s="60"/>
-      <c r="AN64" s="60"/>
-      <c r="AO64" s="60"/>
-      <c r="AP64" s="60"/>
-      <c r="AQ64" s="60"/>
-      <c r="AR64" s="82"/>
+      <c r="AG64" s="59"/>
+      <c r="AH64" s="59"/>
+      <c r="AI64" s="59"/>
+      <c r="AJ64" s="59"/>
+      <c r="AK64" s="59"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="59"/>
+      <c r="AN64" s="59"/>
+      <c r="AO64" s="59"/>
+      <c r="AP64" s="59"/>
+      <c r="AQ64" s="59"/>
+      <c r="AR64" s="81"/>
     </row>
     <row r="65" spans="3:44">
-      <c r="D65" s="81"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="60"/>
-      <c r="V65" s="60"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="60"/>
-      <c r="Z65" s="60"/>
-      <c r="AA65" s="60"/>
-      <c r="AB65" s="60"/>
-      <c r="AC65" s="60"/>
-      <c r="AD65" s="60"/>
-      <c r="AE65" s="60"/>
-      <c r="AF65" s="60"/>
-      <c r="AG65" s="60"/>
-      <c r="AH65" s="60"/>
-      <c r="AI65" s="60"/>
-      <c r="AJ65" s="60"/>
-      <c r="AK65" s="60"/>
-      <c r="AL65" s="60"/>
-      <c r="AM65" s="60"/>
-      <c r="AN65" s="60"/>
-      <c r="AO65" s="60"/>
-      <c r="AP65" s="60"/>
-      <c r="AQ65" s="60"/>
-      <c r="AR65" s="82"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="59"/>
+      <c r="AE65" s="59"/>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="59"/>
+      <c r="AH65" s="59"/>
+      <c r="AI65" s="59"/>
+      <c r="AJ65" s="59"/>
+      <c r="AK65" s="59"/>
+      <c r="AL65" s="59"/>
+      <c r="AM65" s="59"/>
+      <c r="AN65" s="59"/>
+      <c r="AO65" s="59"/>
+      <c r="AP65" s="59"/>
+      <c r="AQ65" s="59"/>
+      <c r="AR65" s="81"/>
     </row>
     <row r="66" spans="3:44">
-      <c r="D66" s="81"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="O66" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="60"/>
-      <c r="AB66" s="60"/>
-      <c r="AC66" s="60"/>
-      <c r="AD66" s="60"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="60"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="60"/>
-      <c r="AJ66" s="60"/>
-      <c r="AK66" s="60"/>
-      <c r="AL66" s="60"/>
-      <c r="AM66" s="60"/>
-      <c r="AN66" s="60"/>
-      <c r="AO66" s="60"/>
-      <c r="AP66" s="60"/>
-      <c r="AQ66" s="60"/>
-      <c r="AR66" s="82"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="O66" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="59"/>
+      <c r="AE66" s="59"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="59"/>
+      <c r="AH66" s="59"/>
+      <c r="AI66" s="59"/>
+      <c r="AJ66" s="59"/>
+      <c r="AK66" s="59"/>
+      <c r="AL66" s="59"/>
+      <c r="AM66" s="59"/>
+      <c r="AN66" s="59"/>
+      <c r="AO66" s="59"/>
+      <c r="AP66" s="59"/>
+      <c r="AQ66" s="59"/>
+      <c r="AR66" s="81"/>
     </row>
     <row r="67" spans="3:44">
-      <c r="D67" s="81"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="60"/>
-      <c r="W67" s="60"/>
-      <c r="X67" s="60"/>
-      <c r="Y67" s="60"/>
-      <c r="Z67" s="60"/>
-      <c r="AA67" s="60"/>
-      <c r="AB67" s="60"/>
-      <c r="AC67" s="60"/>
-      <c r="AD67" s="60"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="60"/>
-      <c r="AG67" s="60"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="60"/>
-      <c r="AJ67" s="60"/>
-      <c r="AK67" s="60"/>
-      <c r="AL67" s="60"/>
-      <c r="AM67" s="60"/>
-      <c r="AN67" s="60"/>
-      <c r="AO67" s="60"/>
-      <c r="AP67" s="60"/>
-      <c r="AQ67" s="60"/>
-      <c r="AR67" s="82"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="59"/>
+      <c r="AH67" s="59"/>
+      <c r="AI67" s="59"/>
+      <c r="AJ67" s="59"/>
+      <c r="AK67" s="59"/>
+      <c r="AL67" s="59"/>
+      <c r="AM67" s="59"/>
+      <c r="AN67" s="59"/>
+      <c r="AO67" s="59"/>
+      <c r="AP67" s="59"/>
+      <c r="AQ67" s="59"/>
+      <c r="AR67" s="81"/>
     </row>
     <row r="68" spans="3:44" ht="14.4" thickBot="1">
-      <c r="D68" s="81"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="O68" s="133"/>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="60"/>
-      <c r="U68" s="60"/>
-      <c r="V68" s="60"/>
-      <c r="W68" s="60"/>
-      <c r="X68" s="60"/>
-      <c r="Y68" s="60"/>
-      <c r="Z68" s="60"/>
-      <c r="AA68" s="60"/>
-      <c r="AB68" s="60"/>
-      <c r="AC68" s="60"/>
-      <c r="AD68" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE68" s="133"/>
-      <c r="AF68" s="134"/>
-      <c r="AG68" s="60"/>
-      <c r="AH68" s="60"/>
-      <c r="AI68" s="60"/>
-      <c r="AJ68" s="60"/>
-      <c r="AK68" s="60"/>
-      <c r="AL68" s="60"/>
-      <c r="AM68" s="60"/>
-      <c r="AN68" s="60"/>
-      <c r="AO68" s="60"/>
-      <c r="AP68" s="60"/>
-      <c r="AQ68" s="60"/>
-      <c r="AR68" s="82"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="130"/>
+      <c r="P68" s="131"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="59"/>
+      <c r="AB68" s="59"/>
+      <c r="AC68" s="59"/>
+      <c r="AD68" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE68" s="130"/>
+      <c r="AF68" s="131"/>
+      <c r="AG68" s="59"/>
+      <c r="AH68" s="59"/>
+      <c r="AI68" s="59"/>
+      <c r="AJ68" s="59"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="59"/>
+      <c r="AN68" s="59"/>
+      <c r="AO68" s="59"/>
+      <c r="AP68" s="59"/>
+      <c r="AQ68" s="59"/>
+      <c r="AR68" s="81"/>
     </row>
     <row r="69" spans="3:44" ht="14.4" thickTop="1">
-      <c r="D69" s="81"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
-      <c r="Z69" s="60"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="60"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="60"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="60"/>
-      <c r="AI69" s="60"/>
-      <c r="AJ69" s="60"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="60"/>
-      <c r="AM69" s="60"/>
-      <c r="AN69" s="60"/>
-      <c r="AO69" s="60"/>
-      <c r="AP69" s="60"/>
-      <c r="AQ69" s="60"/>
-      <c r="AR69" s="82"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="59"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="59"/>
+      <c r="AH69" s="59"/>
+      <c r="AI69" s="59"/>
+      <c r="AJ69" s="59"/>
+      <c r="AK69" s="59"/>
+      <c r="AL69" s="59"/>
+      <c r="AM69" s="59"/>
+      <c r="AN69" s="59"/>
+      <c r="AO69" s="59"/>
+      <c r="AP69" s="59"/>
+      <c r="AQ69" s="59"/>
+      <c r="AR69" s="81"/>
     </row>
     <row r="70" spans="3:44">
-      <c r="D70" s="93"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -6460,276 +6550,276 @@
       <c r="AO70" s="42"/>
       <c r="AP70" s="42"/>
       <c r="AQ70" s="42"/>
-      <c r="AR70" s="67"/>
+      <c r="AR70" s="66"/>
     </row>
     <row r="71" spans="3:44">
-      <c r="D71" s="81"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="60"/>
-      <c r="U71" s="60"/>
-      <c r="V71" s="60"/>
-      <c r="W71" s="60"/>
-      <c r="X71" s="60"/>
-      <c r="Y71" s="60"/>
-      <c r="Z71" s="60"/>
-      <c r="AA71" s="60"/>
-      <c r="AB71" s="60"/>
-      <c r="AC71" s="60"/>
-      <c r="AD71" s="60"/>
-      <c r="AE71" s="60"/>
-      <c r="AF71" s="60"/>
-      <c r="AG71" s="60"/>
-      <c r="AH71" s="60"/>
-      <c r="AI71" s="60"/>
-      <c r="AJ71" s="60"/>
-      <c r="AK71" s="60"/>
-      <c r="AL71" s="60"/>
-      <c r="AM71" s="60"/>
-      <c r="AN71" s="60"/>
-      <c r="AO71" s="60"/>
-      <c r="AP71" s="60"/>
-      <c r="AQ71" s="60"/>
-      <c r="AR71" s="82"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="59"/>
+      <c r="AE71" s="59"/>
+      <c r="AF71" s="59"/>
+      <c r="AG71" s="59"/>
+      <c r="AH71" s="59"/>
+      <c r="AI71" s="59"/>
+      <c r="AJ71" s="59"/>
+      <c r="AK71" s="59"/>
+      <c r="AL71" s="59"/>
+      <c r="AM71" s="59"/>
+      <c r="AN71" s="59"/>
+      <c r="AO71" s="59"/>
+      <c r="AP71" s="59"/>
+      <c r="AQ71" s="59"/>
+      <c r="AR71" s="81"/>
     </row>
     <row r="72" spans="3:44">
-      <c r="D72" s="81"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="60"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="60"/>
-      <c r="AA72" s="60"/>
-      <c r="AB72" s="60"/>
-      <c r="AC72" s="60"/>
-      <c r="AD72" s="60"/>
-      <c r="AE72" s="60"/>
-      <c r="AF72" s="60"/>
-      <c r="AG72" s="60"/>
-      <c r="AH72" s="60"/>
-      <c r="AI72" s="60"/>
-      <c r="AJ72" s="60"/>
-      <c r="AK72" s="60"/>
-      <c r="AL72" s="60"/>
-      <c r="AM72" s="60"/>
-      <c r="AN72" s="60"/>
-      <c r="AO72" s="60"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="60"/>
-      <c r="AR72" s="82"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
+      <c r="AL72" s="59"/>
+      <c r="AM72" s="59"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="59"/>
+      <c r="AQ72" s="59"/>
+      <c r="AR72" s="81"/>
     </row>
     <row r="73" spans="3:44" ht="14.4" thickBot="1">
-      <c r="D73" s="83"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
-      <c r="W73" s="84"/>
-      <c r="X73" s="84"/>
-      <c r="Y73" s="84"/>
-      <c r="Z73" s="84"/>
-      <c r="AA73" s="84"/>
-      <c r="AB73" s="84"/>
-      <c r="AC73" s="84"/>
-      <c r="AD73" s="84"/>
-      <c r="AE73" s="84"/>
-      <c r="AF73" s="84"/>
-      <c r="AG73" s="84"/>
-      <c r="AH73" s="84"/>
-      <c r="AI73" s="84"/>
-      <c r="AJ73" s="84"/>
-      <c r="AK73" s="84"/>
-      <c r="AL73" s="84"/>
-      <c r="AM73" s="84"/>
-      <c r="AN73" s="84"/>
-      <c r="AO73" s="84"/>
-      <c r="AP73" s="84"/>
-      <c r="AQ73" s="84"/>
-      <c r="AR73" s="85"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="83"/>
+      <c r="R73" s="83"/>
+      <c r="S73" s="83"/>
+      <c r="T73" s="83"/>
+      <c r="U73" s="83"/>
+      <c r="V73" s="83"/>
+      <c r="W73" s="83"/>
+      <c r="X73" s="83"/>
+      <c r="Y73" s="83"/>
+      <c r="Z73" s="83"/>
+      <c r="AA73" s="83"/>
+      <c r="AB73" s="83"/>
+      <c r="AC73" s="83"/>
+      <c r="AD73" s="83"/>
+      <c r="AE73" s="83"/>
+      <c r="AF73" s="83"/>
+      <c r="AG73" s="83"/>
+      <c r="AH73" s="83"/>
+      <c r="AI73" s="83"/>
+      <c r="AJ73" s="83"/>
+      <c r="AK73" s="83"/>
+      <c r="AL73" s="83"/>
+      <c r="AM73" s="83"/>
+      <c r="AN73" s="83"/>
+      <c r="AO73" s="83"/>
+      <c r="AP73" s="83"/>
+      <c r="AQ73" s="83"/>
+      <c r="AR73" s="84"/>
     </row>
     <row r="74" spans="3:44" ht="14.4" thickTop="1"/>
     <row r="76" spans="3:44" ht="14.4" thickBot="1">
       <c r="C76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="3:44" ht="14.4" thickTop="1">
-      <c r="D77" s="90"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
-      <c r="O77" s="91"/>
-      <c r="P77" s="91"/>
-      <c r="Q77" s="91"/>
-      <c r="R77" s="91"/>
-      <c r="S77" s="91"/>
-      <c r="T77" s="91"/>
-      <c r="U77" s="91"/>
-      <c r="V77" s="91"/>
-      <c r="W77" s="91"/>
-      <c r="X77" s="91"/>
-      <c r="Y77" s="91"/>
-      <c r="Z77" s="91"/>
-      <c r="AA77" s="91"/>
-      <c r="AB77" s="91"/>
-      <c r="AC77" s="91"/>
-      <c r="AD77" s="91"/>
-      <c r="AE77" s="91"/>
-      <c r="AF77" s="91"/>
-      <c r="AG77" s="91"/>
-      <c r="AH77" s="91"/>
-      <c r="AI77" s="91"/>
-      <c r="AJ77" s="91"/>
-      <c r="AK77" s="91"/>
-      <c r="AL77" s="91"/>
-      <c r="AM77" s="91"/>
-      <c r="AN77" s="91"/>
-      <c r="AO77" s="91"/>
-      <c r="AP77" s="91"/>
-      <c r="AQ77" s="91"/>
-      <c r="AR77" s="92"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
+      <c r="W77" s="90"/>
+      <c r="X77" s="90"/>
+      <c r="Y77" s="90"/>
+      <c r="Z77" s="90"/>
+      <c r="AA77" s="90"/>
+      <c r="AB77" s="90"/>
+      <c r="AC77" s="90"/>
+      <c r="AD77" s="90"/>
+      <c r="AE77" s="90"/>
+      <c r="AF77" s="90"/>
+      <c r="AG77" s="90"/>
+      <c r="AH77" s="90"/>
+      <c r="AI77" s="90"/>
+      <c r="AJ77" s="90"/>
+      <c r="AK77" s="90"/>
+      <c r="AL77" s="90"/>
+      <c r="AM77" s="90"/>
+      <c r="AN77" s="90"/>
+      <c r="AO77" s="90"/>
+      <c r="AP77" s="90"/>
+      <c r="AQ77" s="90"/>
+      <c r="AR77" s="91"/>
     </row>
     <row r="78" spans="3:44">
-      <c r="D78" s="81"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="174" t="s">
-        <v>65</v>
-      </c>
-      <c r="R78" s="175"/>
-      <c r="S78" s="175"/>
-      <c r="T78" s="175"/>
-      <c r="U78" s="175"/>
-      <c r="V78" s="175"/>
-      <c r="W78" s="175"/>
-      <c r="X78" s="175"/>
-      <c r="Y78" s="175"/>
-      <c r="Z78" s="175"/>
-      <c r="AA78" s="175"/>
-      <c r="AB78" s="175"/>
-      <c r="AC78" s="60"/>
-      <c r="AD78" s="60"/>
-      <c r="AE78" s="60"/>
-      <c r="AF78" s="60"/>
-      <c r="AG78" s="60"/>
-      <c r="AH78" s="60"/>
-      <c r="AI78" s="60"/>
-      <c r="AJ78" s="60"/>
-      <c r="AK78" s="60"/>
-      <c r="AL78" s="60"/>
-      <c r="AM78" s="60"/>
-      <c r="AN78" s="60"/>
-      <c r="AO78" s="60"/>
-      <c r="AP78" s="60"/>
-      <c r="AQ78" s="60"/>
-      <c r="AR78" s="82"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="R78" s="177"/>
+      <c r="S78" s="177"/>
+      <c r="T78" s="177"/>
+      <c r="U78" s="177"/>
+      <c r="V78" s="177"/>
+      <c r="W78" s="177"/>
+      <c r="X78" s="177"/>
+      <c r="Y78" s="177"/>
+      <c r="Z78" s="177"/>
+      <c r="AA78" s="177"/>
+      <c r="AB78" s="177"/>
+      <c r="AC78" s="59"/>
+      <c r="AD78" s="59"/>
+      <c r="AE78" s="59"/>
+      <c r="AF78" s="59"/>
+      <c r="AG78" s="59"/>
+      <c r="AH78" s="59"/>
+      <c r="AI78" s="59"/>
+      <c r="AJ78" s="59"/>
+      <c r="AK78" s="59"/>
+      <c r="AL78" s="59"/>
+      <c r="AM78" s="59"/>
+      <c r="AN78" s="59"/>
+      <c r="AO78" s="59"/>
+      <c r="AP78" s="59"/>
+      <c r="AQ78" s="59"/>
+      <c r="AR78" s="81"/>
     </row>
     <row r="79" spans="3:44">
-      <c r="D79" s="81"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="175"/>
-      <c r="R79" s="175"/>
-      <c r="S79" s="175"/>
-      <c r="T79" s="175"/>
-      <c r="U79" s="175"/>
-      <c r="V79" s="175"/>
-      <c r="W79" s="175"/>
-      <c r="X79" s="175"/>
-      <c r="Y79" s="175"/>
-      <c r="Z79" s="175"/>
-      <c r="AA79" s="175"/>
-      <c r="AB79" s="175"/>
-      <c r="AC79" s="60"/>
-      <c r="AD79" s="60"/>
-      <c r="AE79" s="60"/>
-      <c r="AF79" s="60"/>
-      <c r="AG79" s="60"/>
-      <c r="AH79" s="60"/>
-      <c r="AI79" s="60"/>
-      <c r="AJ79" s="60"/>
-      <c r="AK79" s="60"/>
-      <c r="AL79" s="60"/>
-      <c r="AM79" s="60"/>
-      <c r="AN79" s="60"/>
-      <c r="AO79" s="60"/>
-      <c r="AP79" s="60"/>
-      <c r="AQ79" s="60"/>
-      <c r="AR79" s="82"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="177"/>
+      <c r="R79" s="177"/>
+      <c r="S79" s="177"/>
+      <c r="T79" s="177"/>
+      <c r="U79" s="177"/>
+      <c r="V79" s="177"/>
+      <c r="W79" s="177"/>
+      <c r="X79" s="177"/>
+      <c r="Y79" s="177"/>
+      <c r="Z79" s="177"/>
+      <c r="AA79" s="177"/>
+      <c r="AB79" s="177"/>
+      <c r="AC79" s="59"/>
+      <c r="AD79" s="59"/>
+      <c r="AE79" s="59"/>
+      <c r="AF79" s="59"/>
+      <c r="AG79" s="59"/>
+      <c r="AH79" s="59"/>
+      <c r="AI79" s="59"/>
+      <c r="AJ79" s="59"/>
+      <c r="AK79" s="59"/>
+      <c r="AL79" s="59"/>
+      <c r="AM79" s="59"/>
+      <c r="AN79" s="59"/>
+      <c r="AO79" s="59"/>
+      <c r="AP79" s="59"/>
+      <c r="AQ79" s="59"/>
+      <c r="AR79" s="81"/>
     </row>
     <row r="80" spans="3:44">
-      <c r="D80" s="130"/>
+      <c r="D80" s="127"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
@@ -6769,68 +6859,68 @@
       <c r="AO80" s="22"/>
       <c r="AP80" s="22"/>
       <c r="AQ80" s="22"/>
-      <c r="AR80" s="131"/>
+      <c r="AR80" s="128"/>
     </row>
     <row r="81" spans="4:44">
-      <c r="D81" s="81"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="60"/>
-      <c r="T81" s="60"/>
-      <c r="U81" s="60"/>
-      <c r="V81" s="60"/>
-      <c r="W81" s="60"/>
-      <c r="X81" s="60"/>
-      <c r="Y81" s="60"/>
-      <c r="Z81" s="60"/>
-      <c r="AA81" s="60"/>
-      <c r="AB81" s="60"/>
-      <c r="AC81" s="60"/>
-      <c r="AD81" s="60"/>
-      <c r="AE81" s="60"/>
-      <c r="AF81" s="60"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="60"/>
-      <c r="AI81" s="60"/>
-      <c r="AJ81" s="60"/>
-      <c r="AK81" s="60"/>
-      <c r="AL81" s="60"/>
-      <c r="AM81" s="60"/>
-      <c r="AN81" s="60"/>
-      <c r="AO81" s="60"/>
-      <c r="AP81" s="60"/>
-      <c r="AQ81" s="60"/>
-      <c r="AR81" s="82"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="59"/>
+      <c r="AB81" s="59"/>
+      <c r="AC81" s="59"/>
+      <c r="AD81" s="59"/>
+      <c r="AE81" s="59"/>
+      <c r="AF81" s="59"/>
+      <c r="AG81" s="59"/>
+      <c r="AH81" s="59"/>
+      <c r="AI81" s="59"/>
+      <c r="AJ81" s="59"/>
+      <c r="AK81" s="59"/>
+      <c r="AL81" s="59"/>
+      <c r="AM81" s="59"/>
+      <c r="AN81" s="59"/>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="59"/>
+      <c r="AR81" s="81"/>
     </row>
     <row r="82" spans="4:44">
-      <c r="D82" s="81"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="O82" s="60"/>
-      <c r="Q82" s="129" t="s">
-        <v>71</v>
+      <c r="D82" s="80"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="O82" s="59"/>
+      <c r="Q82" s="126" t="s">
+        <v>68</v>
       </c>
       <c r="R82" s="17"/>
       <c r="S82" s="17"/>
@@ -6847,80 +6937,80 @@
       <c r="AD82" s="17"/>
       <c r="AE82" s="17"/>
       <c r="AF82" s="18"/>
-      <c r="AG82" s="60"/>
-      <c r="AH82" s="60"/>
-      <c r="AI82" s="60"/>
-      <c r="AJ82" s="60"/>
-      <c r="AK82" s="60"/>
-      <c r="AL82" s="60"/>
-      <c r="AM82" s="60"/>
-      <c r="AN82" s="60"/>
-      <c r="AO82" s="60"/>
-      <c r="AP82" s="60"/>
-      <c r="AQ82" s="60"/>
-      <c r="AR82" s="82"/>
+      <c r="AG82" s="59"/>
+      <c r="AH82" s="59"/>
+      <c r="AI82" s="59"/>
+      <c r="AJ82" s="59"/>
+      <c r="AK82" s="59"/>
+      <c r="AL82" s="59"/>
+      <c r="AM82" s="59"/>
+      <c r="AN82" s="59"/>
+      <c r="AO82" s="59"/>
+      <c r="AP82" s="59"/>
+      <c r="AQ82" s="59"/>
+      <c r="AR82" s="81"/>
     </row>
     <row r="83" spans="4:44">
-      <c r="D83" s="81"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="60"/>
-      <c r="U83" s="60"/>
-      <c r="V83" s="60"/>
-      <c r="W83" s="60"/>
-      <c r="X83" s="60"/>
-      <c r="Y83" s="60"/>
-      <c r="Z83" s="60"/>
-      <c r="AA83" s="60"/>
-      <c r="AB83" s="60"/>
-      <c r="AC83" s="60"/>
-      <c r="AD83" s="60"/>
-      <c r="AE83" s="60"/>
-      <c r="AF83" s="60"/>
-      <c r="AG83" s="60"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="60"/>
-      <c r="AJ83" s="60"/>
-      <c r="AK83" s="60"/>
-      <c r="AL83" s="60"/>
-      <c r="AM83" s="60"/>
-      <c r="AN83" s="60"/>
-      <c r="AO83" s="60"/>
-      <c r="AP83" s="60"/>
-      <c r="AQ83" s="60"/>
-      <c r="AR83" s="82"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="59"/>
+      <c r="V83" s="59"/>
+      <c r="W83" s="59"/>
+      <c r="X83" s="59"/>
+      <c r="Y83" s="59"/>
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="59"/>
+      <c r="AB83" s="59"/>
+      <c r="AC83" s="59"/>
+      <c r="AD83" s="59"/>
+      <c r="AE83" s="59"/>
+      <c r="AF83" s="59"/>
+      <c r="AG83" s="59"/>
+      <c r="AH83" s="59"/>
+      <c r="AI83" s="59"/>
+      <c r="AJ83" s="59"/>
+      <c r="AK83" s="59"/>
+      <c r="AL83" s="59"/>
+      <c r="AM83" s="59"/>
+      <c r="AN83" s="59"/>
+      <c r="AO83" s="59"/>
+      <c r="AP83" s="59"/>
+      <c r="AQ83" s="59"/>
+      <c r="AR83" s="81"/>
     </row>
     <row r="84" spans="4:44">
-      <c r="D84" s="81"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="O84" s="60"/>
-      <c r="P84" s="60"/>
-      <c r="Q84" s="129" t="s">
-        <v>72</v>
+      <c r="D84" s="80"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="126" t="s">
+        <v>69</v>
       </c>
       <c r="R84" s="17"/>
       <c r="S84" s="17"/>
@@ -6937,502 +7027,502 @@
       <c r="AD84" s="17"/>
       <c r="AE84" s="17"/>
       <c r="AF84" s="18"/>
-      <c r="AG84" s="60"/>
-      <c r="AH84" s="60"/>
-      <c r="AI84" s="60"/>
-      <c r="AJ84" s="60"/>
-      <c r="AK84" s="60"/>
-      <c r="AL84" s="60"/>
-      <c r="AM84" s="60"/>
-      <c r="AN84" s="60"/>
-      <c r="AO84" s="60"/>
-      <c r="AP84" s="60"/>
-      <c r="AQ84" s="60"/>
-      <c r="AR84" s="82"/>
+      <c r="AG84" s="59"/>
+      <c r="AH84" s="59"/>
+      <c r="AI84" s="59"/>
+      <c r="AJ84" s="59"/>
+      <c r="AK84" s="59"/>
+      <c r="AL84" s="59"/>
+      <c r="AM84" s="59"/>
+      <c r="AN84" s="59"/>
+      <c r="AO84" s="59"/>
+      <c r="AP84" s="59"/>
+      <c r="AQ84" s="59"/>
+      <c r="AR84" s="81"/>
     </row>
     <row r="85" spans="4:44">
-      <c r="D85" s="81"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="60"/>
-      <c r="P85" s="60"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="60"/>
-      <c r="T85" s="60"/>
-      <c r="U85" s="60"/>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="60"/>
-      <c r="Z85" s="60"/>
-      <c r="AA85" s="60"/>
-      <c r="AB85" s="60"/>
-      <c r="AC85" s="60"/>
-      <c r="AD85" s="60"/>
-      <c r="AE85" s="60"/>
-      <c r="AF85" s="60"/>
-      <c r="AG85" s="60"/>
-      <c r="AH85" s="60"/>
-      <c r="AI85" s="60"/>
-      <c r="AJ85" s="60"/>
-      <c r="AK85" s="60"/>
-      <c r="AL85" s="60"/>
-      <c r="AM85" s="60"/>
-      <c r="AN85" s="60"/>
-      <c r="AO85" s="60"/>
-      <c r="AP85" s="60"/>
-      <c r="AQ85" s="60"/>
-      <c r="AR85" s="82"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
+      <c r="X85" s="59"/>
+      <c r="Y85" s="59"/>
+      <c r="Z85" s="59"/>
+      <c r="AA85" s="59"/>
+      <c r="AB85" s="59"/>
+      <c r="AC85" s="59"/>
+      <c r="AD85" s="59"/>
+      <c r="AE85" s="59"/>
+      <c r="AF85" s="59"/>
+      <c r="AG85" s="59"/>
+      <c r="AH85" s="59"/>
+      <c r="AI85" s="59"/>
+      <c r="AJ85" s="59"/>
+      <c r="AK85" s="59"/>
+      <c r="AL85" s="59"/>
+      <c r="AM85" s="59"/>
+      <c r="AN85" s="59"/>
+      <c r="AO85" s="59"/>
+      <c r="AP85" s="59"/>
+      <c r="AQ85" s="59"/>
+      <c r="AR85" s="81"/>
     </row>
     <row r="86" spans="4:44">
-      <c r="D86" s="81"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="60"/>
-      <c r="U86" s="60"/>
-      <c r="V86" s="60"/>
-      <c r="W86" s="60"/>
-      <c r="X86" s="60"/>
-      <c r="Y86" s="60"/>
-      <c r="Z86" s="60"/>
-      <c r="AA86" s="60"/>
-      <c r="AB86" s="60"/>
-      <c r="AC86" s="60"/>
-      <c r="AD86" s="60"/>
-      <c r="AE86" s="60"/>
-      <c r="AF86" s="60"/>
-      <c r="AG86" s="60"/>
-      <c r="AH86" s="60"/>
-      <c r="AI86" s="60"/>
-      <c r="AJ86" s="60"/>
-      <c r="AK86" s="60"/>
-      <c r="AL86" s="60"/>
-      <c r="AM86" s="60"/>
-      <c r="AN86" s="60"/>
-      <c r="AO86" s="60"/>
-      <c r="AP86" s="60"/>
-      <c r="AQ86" s="60"/>
-      <c r="AR86" s="82"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="59"/>
+      <c r="AB86" s="59"/>
+      <c r="AC86" s="59"/>
+      <c r="AD86" s="59"/>
+      <c r="AE86" s="59"/>
+      <c r="AF86" s="59"/>
+      <c r="AG86" s="59"/>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="59"/>
+      <c r="AJ86" s="59"/>
+      <c r="AK86" s="59"/>
+      <c r="AL86" s="59"/>
+      <c r="AM86" s="59"/>
+      <c r="AN86" s="59"/>
+      <c r="AO86" s="59"/>
+      <c r="AP86" s="59"/>
+      <c r="AQ86" s="59"/>
+      <c r="AR86" s="81"/>
     </row>
     <row r="87" spans="4:44" ht="18.600000000000001" thickBot="1">
-      <c r="D87" s="81"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="O87" s="133"/>
-      <c r="P87" s="133"/>
-      <c r="Q87" s="134"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="60"/>
-      <c r="U87" s="60"/>
-      <c r="V87" s="60"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="60"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC87" s="133"/>
-      <c r="AD87" s="133"/>
-      <c r="AE87" s="133"/>
-      <c r="AF87" s="134"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
-      <c r="AL87" s="60"/>
-      <c r="AM87" s="60"/>
-      <c r="AN87" s="60"/>
-      <c r="AO87" s="60"/>
-      <c r="AP87" s="60"/>
-      <c r="AQ87" s="60"/>
-      <c r="AR87" s="82"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="O87" s="130"/>
+      <c r="P87" s="130"/>
+      <c r="Q87" s="131"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="59"/>
+      <c r="AB87" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC87" s="130"/>
+      <c r="AD87" s="130"/>
+      <c r="AE87" s="130"/>
+      <c r="AF87" s="131"/>
+      <c r="AG87" s="59"/>
+      <c r="AH87" s="59"/>
+      <c r="AI87" s="59"/>
+      <c r="AJ87" s="59"/>
+      <c r="AK87" s="59"/>
+      <c r="AL87" s="59"/>
+      <c r="AM87" s="59"/>
+      <c r="AN87" s="59"/>
+      <c r="AO87" s="59"/>
+      <c r="AP87" s="59"/>
+      <c r="AQ87" s="59"/>
+      <c r="AR87" s="81"/>
     </row>
     <row r="88" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D88" s="81"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="60"/>
-      <c r="T88" s="60"/>
-      <c r="U88" s="60"/>
-      <c r="V88" s="60"/>
-      <c r="W88" s="60"/>
-      <c r="X88" s="60"/>
-      <c r="Y88" s="60"/>
-      <c r="Z88" s="60"/>
-      <c r="AA88" s="60"/>
-      <c r="AB88" s="60"/>
-      <c r="AC88" s="60"/>
-      <c r="AD88" s="60"/>
-      <c r="AE88" s="60"/>
-      <c r="AF88" s="60"/>
-      <c r="AG88" s="60"/>
-      <c r="AH88" s="60"/>
-      <c r="AI88" s="60"/>
-      <c r="AJ88" s="60"/>
-      <c r="AK88" s="60"/>
-      <c r="AL88" s="60"/>
-      <c r="AM88" s="60"/>
-      <c r="AN88" s="60"/>
-      <c r="AO88" s="60"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="60"/>
-      <c r="AR88" s="82"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="59"/>
+      <c r="AC88" s="59"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="59"/>
+      <c r="AQ88" s="59"/>
+      <c r="AR88" s="81"/>
     </row>
     <row r="89" spans="4:44" ht="18.600000000000001" thickBot="1">
-      <c r="D89" s="81"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="138"/>
-      <c r="O89" s="139"/>
-      <c r="P89" s="140"/>
-      <c r="Q89" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="R89" s="140"/>
-      <c r="S89" s="140"/>
-      <c r="T89" s="140"/>
-      <c r="U89" s="140"/>
-      <c r="V89" s="140"/>
-      <c r="W89" s="140"/>
-      <c r="X89" s="140"/>
-      <c r="Y89" s="140"/>
-      <c r="Z89" s="140"/>
-      <c r="AA89" s="140"/>
-      <c r="AB89" s="140"/>
-      <c r="AC89" s="140"/>
-      <c r="AD89" s="140"/>
-      <c r="AE89" s="140"/>
-      <c r="AF89" s="141"/>
-      <c r="AG89" s="60"/>
-      <c r="AH89" s="60"/>
-      <c r="AI89" s="60"/>
-      <c r="AJ89" s="60"/>
-      <c r="AK89" s="60"/>
-      <c r="AL89" s="60"/>
-      <c r="AM89" s="60"/>
-      <c r="AN89" s="60"/>
-      <c r="AO89" s="60"/>
-      <c r="AP89" s="60"/>
-      <c r="AQ89" s="60"/>
-      <c r="AR89" s="82"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="135"/>
+      <c r="O89" s="136"/>
+      <c r="P89" s="137"/>
+      <c r="Q89" s="136" t="s">
+        <v>65</v>
+      </c>
+      <c r="R89" s="137"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
+      <c r="W89" s="137"/>
+      <c r="X89" s="137"/>
+      <c r="Y89" s="137"/>
+      <c r="Z89" s="137"/>
+      <c r="AA89" s="137"/>
+      <c r="AB89" s="137"/>
+      <c r="AC89" s="137"/>
+      <c r="AD89" s="137"/>
+      <c r="AE89" s="137"/>
+      <c r="AF89" s="138"/>
+      <c r="AG89" s="59"/>
+      <c r="AH89" s="59"/>
+      <c r="AI89" s="59"/>
+      <c r="AJ89" s="59"/>
+      <c r="AK89" s="59"/>
+      <c r="AL89" s="59"/>
+      <c r="AM89" s="59"/>
+      <c r="AN89" s="59"/>
+      <c r="AO89" s="59"/>
+      <c r="AP89" s="59"/>
+      <c r="AQ89" s="59"/>
+      <c r="AR89" s="81"/>
     </row>
     <row r="90" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D90" s="81"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="60"/>
-      <c r="T90" s="60"/>
-      <c r="U90" s="60"/>
-      <c r="V90" s="60"/>
-      <c r="W90" s="60"/>
-      <c r="X90" s="60"/>
-      <c r="Y90" s="60"/>
-      <c r="Z90" s="60"/>
-      <c r="AA90" s="60"/>
-      <c r="AB90" s="60"/>
-      <c r="AC90" s="60"/>
-      <c r="AD90" s="60"/>
-      <c r="AE90" s="60"/>
-      <c r="AF90" s="60"/>
-      <c r="AG90" s="60"/>
-      <c r="AH90" s="60"/>
-      <c r="AI90" s="60"/>
-      <c r="AJ90" s="60"/>
-      <c r="AK90" s="60"/>
-      <c r="AL90" s="60"/>
-      <c r="AM90" s="60"/>
-      <c r="AN90" s="60"/>
-      <c r="AO90" s="60"/>
-      <c r="AP90" s="60"/>
-      <c r="AQ90" s="60"/>
-      <c r="AR90" s="82"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
+      <c r="U90" s="59"/>
+      <c r="V90" s="59"/>
+      <c r="W90" s="59"/>
+      <c r="X90" s="59"/>
+      <c r="Y90" s="59"/>
+      <c r="Z90" s="59"/>
+      <c r="AA90" s="59"/>
+      <c r="AB90" s="59"/>
+      <c r="AC90" s="59"/>
+      <c r="AD90" s="59"/>
+      <c r="AE90" s="59"/>
+      <c r="AF90" s="59"/>
+      <c r="AG90" s="59"/>
+      <c r="AH90" s="59"/>
+      <c r="AI90" s="59"/>
+      <c r="AJ90" s="59"/>
+      <c r="AK90" s="59"/>
+      <c r="AL90" s="59"/>
+      <c r="AM90" s="59"/>
+      <c r="AN90" s="59"/>
+      <c r="AO90" s="59"/>
+      <c r="AP90" s="59"/>
+      <c r="AQ90" s="59"/>
+      <c r="AR90" s="81"/>
     </row>
     <row r="91" spans="4:44" ht="18.600000000000001" thickBot="1">
-      <c r="D91" s="81"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="137"/>
-      <c r="O91" s="142"/>
-      <c r="P91" s="143"/>
-      <c r="Q91" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="R91" s="143"/>
-      <c r="S91" s="143"/>
-      <c r="T91" s="143"/>
-      <c r="U91" s="143"/>
-      <c r="V91" s="143"/>
-      <c r="W91" s="143"/>
-      <c r="X91" s="143"/>
-      <c r="Y91" s="143"/>
-      <c r="Z91" s="143"/>
-      <c r="AA91" s="143"/>
-      <c r="AB91" s="143"/>
-      <c r="AC91" s="143"/>
-      <c r="AD91" s="143"/>
-      <c r="AE91" s="143"/>
-      <c r="AF91" s="145"/>
-      <c r="AG91" s="60"/>
-      <c r="AH91" s="60"/>
-      <c r="AI91" s="60"/>
-      <c r="AJ91" s="60"/>
-      <c r="AK91" s="60"/>
-      <c r="AL91" s="60"/>
-      <c r="AM91" s="60"/>
-      <c r="AN91" s="60"/>
-      <c r="AO91" s="60"/>
-      <c r="AP91" s="60"/>
-      <c r="AQ91" s="60"/>
-      <c r="AR91" s="82"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="134"/>
+      <c r="O91" s="139"/>
+      <c r="P91" s="140"/>
+      <c r="Q91" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="R91" s="140"/>
+      <c r="S91" s="140"/>
+      <c r="T91" s="140"/>
+      <c r="U91" s="140"/>
+      <c r="V91" s="140"/>
+      <c r="W91" s="140"/>
+      <c r="X91" s="140"/>
+      <c r="Y91" s="140"/>
+      <c r="Z91" s="140"/>
+      <c r="AA91" s="140"/>
+      <c r="AB91" s="140"/>
+      <c r="AC91" s="140"/>
+      <c r="AD91" s="140"/>
+      <c r="AE91" s="140"/>
+      <c r="AF91" s="142"/>
+      <c r="AG91" s="59"/>
+      <c r="AH91" s="59"/>
+      <c r="AI91" s="59"/>
+      <c r="AJ91" s="59"/>
+      <c r="AK91" s="59"/>
+      <c r="AL91" s="59"/>
+      <c r="AM91" s="59"/>
+      <c r="AN91" s="59"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
+      <c r="AQ91" s="59"/>
+      <c r="AR91" s="81"/>
     </row>
     <row r="92" spans="4:44" ht="14.4" thickTop="1">
-      <c r="D92" s="81"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="60"/>
-      <c r="T92" s="60"/>
-      <c r="U92" s="60"/>
-      <c r="V92" s="60"/>
-      <c r="W92" s="60"/>
-      <c r="X92" s="60"/>
-      <c r="Y92" s="60"/>
-      <c r="Z92" s="60"/>
-      <c r="AA92" s="60"/>
-      <c r="AB92" s="60"/>
-      <c r="AC92" s="60"/>
-      <c r="AD92" s="60"/>
-      <c r="AE92" s="60"/>
-      <c r="AF92" s="60"/>
-      <c r="AG92" s="60"/>
-      <c r="AH92" s="60"/>
-      <c r="AI92" s="60"/>
-      <c r="AJ92" s="60"/>
-      <c r="AK92" s="60"/>
-      <c r="AL92" s="60"/>
-      <c r="AM92" s="60"/>
-      <c r="AN92" s="60"/>
-      <c r="AO92" s="60"/>
-      <c r="AP92" s="60"/>
-      <c r="AQ92" s="60"/>
-      <c r="AR92" s="82"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="59"/>
+      <c r="V92" s="59"/>
+      <c r="W92" s="59"/>
+      <c r="X92" s="59"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="59"/>
+      <c r="AA92" s="59"/>
+      <c r="AB92" s="59"/>
+      <c r="AC92" s="59"/>
+      <c r="AD92" s="59"/>
+      <c r="AE92" s="59"/>
+      <c r="AF92" s="59"/>
+      <c r="AG92" s="59"/>
+      <c r="AH92" s="59"/>
+      <c r="AI92" s="59"/>
+      <c r="AJ92" s="59"/>
+      <c r="AK92" s="59"/>
+      <c r="AL92" s="59"/>
+      <c r="AM92" s="59"/>
+      <c r="AN92" s="59"/>
+      <c r="AO92" s="59"/>
+      <c r="AP92" s="59"/>
+      <c r="AQ92" s="59"/>
+      <c r="AR92" s="81"/>
     </row>
     <row r="93" spans="4:44">
-      <c r="D93" s="81"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="60"/>
-      <c r="T93" s="60"/>
-      <c r="U93" s="60"/>
-      <c r="V93" s="60"/>
-      <c r="W93" s="60"/>
-      <c r="X93" s="60"/>
-      <c r="Y93" s="60"/>
-      <c r="Z93" s="60"/>
-      <c r="AA93" s="60"/>
-      <c r="AB93" s="60"/>
-      <c r="AC93" s="60"/>
-      <c r="AD93" s="60"/>
-      <c r="AE93" s="60"/>
-      <c r="AF93" s="60"/>
-      <c r="AG93" s="60"/>
-      <c r="AH93" s="60"/>
-      <c r="AI93" s="60"/>
-      <c r="AJ93" s="60"/>
-      <c r="AK93" s="60"/>
-      <c r="AL93" s="60"/>
-      <c r="AM93" s="60"/>
-      <c r="AN93" s="60"/>
-      <c r="AO93" s="60"/>
-      <c r="AP93" s="60"/>
-      <c r="AQ93" s="60"/>
-      <c r="AR93" s="82"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="59"/>
+      <c r="S93" s="59"/>
+      <c r="T93" s="59"/>
+      <c r="U93" s="59"/>
+      <c r="V93" s="59"/>
+      <c r="W93" s="59"/>
+      <c r="X93" s="59"/>
+      <c r="Y93" s="59"/>
+      <c r="Z93" s="59"/>
+      <c r="AA93" s="59"/>
+      <c r="AB93" s="59"/>
+      <c r="AC93" s="59"/>
+      <c r="AD93" s="59"/>
+      <c r="AE93" s="59"/>
+      <c r="AF93" s="59"/>
+      <c r="AG93" s="59"/>
+      <c r="AH93" s="59"/>
+      <c r="AI93" s="59"/>
+      <c r="AJ93" s="59"/>
+      <c r="AK93" s="59"/>
+      <c r="AL93" s="59"/>
+      <c r="AM93" s="59"/>
+      <c r="AN93" s="59"/>
+      <c r="AO93" s="59"/>
+      <c r="AP93" s="59"/>
+      <c r="AQ93" s="59"/>
+      <c r="AR93" s="81"/>
     </row>
     <row r="94" spans="4:44">
-      <c r="D94" s="81"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="60"/>
-      <c r="N94" s="60"/>
-      <c r="O94" s="60"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="60"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="60"/>
-      <c r="T94" s="60"/>
-      <c r="U94" s="60"/>
-      <c r="V94" s="60"/>
-      <c r="W94" s="60"/>
-      <c r="X94" s="60"/>
-      <c r="Y94" s="60"/>
-      <c r="Z94" s="60"/>
-      <c r="AA94" s="60"/>
-      <c r="AB94" s="60"/>
-      <c r="AC94" s="60"/>
-      <c r="AD94" s="60"/>
-      <c r="AE94" s="60"/>
-      <c r="AF94" s="60"/>
-      <c r="AG94" s="60"/>
-      <c r="AH94" s="60"/>
-      <c r="AI94" s="60"/>
-      <c r="AJ94" s="60"/>
-      <c r="AK94" s="60"/>
-      <c r="AL94" s="60"/>
-      <c r="AM94" s="60"/>
-      <c r="AN94" s="60"/>
-      <c r="AO94" s="60"/>
-      <c r="AP94" s="60"/>
-      <c r="AQ94" s="60"/>
-      <c r="AR94" s="82"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="59"/>
+      <c r="V94" s="59"/>
+      <c r="W94" s="59"/>
+      <c r="X94" s="59"/>
+      <c r="Y94" s="59"/>
+      <c r="Z94" s="59"/>
+      <c r="AA94" s="59"/>
+      <c r="AB94" s="59"/>
+      <c r="AC94" s="59"/>
+      <c r="AD94" s="59"/>
+      <c r="AE94" s="59"/>
+      <c r="AF94" s="59"/>
+      <c r="AG94" s="59"/>
+      <c r="AH94" s="59"/>
+      <c r="AI94" s="59"/>
+      <c r="AJ94" s="59"/>
+      <c r="AK94" s="59"/>
+      <c r="AL94" s="59"/>
+      <c r="AM94" s="59"/>
+      <c r="AN94" s="59"/>
+      <c r="AO94" s="59"/>
+      <c r="AP94" s="59"/>
+      <c r="AQ94" s="59"/>
+      <c r="AR94" s="81"/>
     </row>
     <row r="95" spans="4:44">
-      <c r="D95" s="81"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="60"/>
-      <c r="N95" s="60"/>
-      <c r="O95" s="60"/>
-      <c r="P95" s="60"/>
-      <c r="Q95" s="60"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="60"/>
-      <c r="T95" s="60"/>
-      <c r="U95" s="60"/>
-      <c r="V95" s="60"/>
-      <c r="W95" s="60"/>
-      <c r="X95" s="60"/>
-      <c r="Y95" s="60"/>
-      <c r="Z95" s="60"/>
-      <c r="AA95" s="60"/>
-      <c r="AB95" s="60"/>
-      <c r="AC95" s="60"/>
-      <c r="AD95" s="60"/>
-      <c r="AE95" s="60"/>
-      <c r="AF95" s="60"/>
-      <c r="AG95" s="60"/>
-      <c r="AH95" s="60"/>
-      <c r="AI95" s="60"/>
-      <c r="AJ95" s="60"/>
-      <c r="AK95" s="60"/>
-      <c r="AL95" s="60"/>
-      <c r="AM95" s="60"/>
-      <c r="AN95" s="60"/>
-      <c r="AO95" s="60"/>
-      <c r="AP95" s="60"/>
-      <c r="AQ95" s="60"/>
-      <c r="AR95" s="82"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="59"/>
+      <c r="U95" s="59"/>
+      <c r="V95" s="59"/>
+      <c r="W95" s="59"/>
+      <c r="X95" s="59"/>
+      <c r="Y95" s="59"/>
+      <c r="Z95" s="59"/>
+      <c r="AA95" s="59"/>
+      <c r="AB95" s="59"/>
+      <c r="AC95" s="59"/>
+      <c r="AD95" s="59"/>
+      <c r="AE95" s="59"/>
+      <c r="AF95" s="59"/>
+      <c r="AG95" s="59"/>
+      <c r="AH95" s="59"/>
+      <c r="AI95" s="59"/>
+      <c r="AJ95" s="59"/>
+      <c r="AK95" s="59"/>
+      <c r="AL95" s="59"/>
+      <c r="AM95" s="59"/>
+      <c r="AN95" s="59"/>
+      <c r="AO95" s="59"/>
+      <c r="AP95" s="59"/>
+      <c r="AQ95" s="59"/>
+      <c r="AR95" s="81"/>
     </row>
     <row r="96" spans="4:44">
-      <c r="D96" s="93"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="42"/>
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
@@ -7472,136 +7562,136 @@
       <c r="AO96" s="42"/>
       <c r="AP96" s="42"/>
       <c r="AQ96" s="42"/>
-      <c r="AR96" s="67"/>
+      <c r="AR96" s="66"/>
     </row>
     <row r="97" spans="4:44">
-      <c r="D97" s="81"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="60"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="60"/>
-      <c r="P97" s="60"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="60"/>
-      <c r="T97" s="60"/>
-      <c r="U97" s="60"/>
-      <c r="V97" s="60"/>
-      <c r="W97" s="60"/>
-      <c r="X97" s="60"/>
-      <c r="Y97" s="60"/>
-      <c r="Z97" s="60"/>
-      <c r="AA97" s="60"/>
-      <c r="AB97" s="60"/>
-      <c r="AC97" s="60"/>
-      <c r="AD97" s="60"/>
-      <c r="AE97" s="60"/>
-      <c r="AF97" s="60"/>
-      <c r="AG97" s="60"/>
-      <c r="AH97" s="60"/>
-      <c r="AI97" s="60"/>
-      <c r="AJ97" s="60"/>
-      <c r="AK97" s="60"/>
-      <c r="AL97" s="60"/>
-      <c r="AM97" s="60"/>
-      <c r="AN97" s="60"/>
-      <c r="AO97" s="60"/>
-      <c r="AP97" s="60"/>
-      <c r="AQ97" s="60"/>
-      <c r="AR97" s="82"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="59"/>
+      <c r="S97" s="59"/>
+      <c r="T97" s="59"/>
+      <c r="U97" s="59"/>
+      <c r="V97" s="59"/>
+      <c r="W97" s="59"/>
+      <c r="X97" s="59"/>
+      <c r="Y97" s="59"/>
+      <c r="Z97" s="59"/>
+      <c r="AA97" s="59"/>
+      <c r="AB97" s="59"/>
+      <c r="AC97" s="59"/>
+      <c r="AD97" s="59"/>
+      <c r="AE97" s="59"/>
+      <c r="AF97" s="59"/>
+      <c r="AG97" s="59"/>
+      <c r="AH97" s="59"/>
+      <c r="AI97" s="59"/>
+      <c r="AJ97" s="59"/>
+      <c r="AK97" s="59"/>
+      <c r="AL97" s="59"/>
+      <c r="AM97" s="59"/>
+      <c r="AN97" s="59"/>
+      <c r="AO97" s="59"/>
+      <c r="AP97" s="59"/>
+      <c r="AQ97" s="59"/>
+      <c r="AR97" s="81"/>
     </row>
     <row r="98" spans="4:44">
-      <c r="D98" s="81"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="60"/>
-      <c r="N98" s="60"/>
-      <c r="O98" s="60"/>
-      <c r="P98" s="60"/>
-      <c r="Q98" s="60"/>
-      <c r="R98" s="60"/>
-      <c r="S98" s="60"/>
-      <c r="T98" s="60"/>
-      <c r="U98" s="60"/>
-      <c r="V98" s="60"/>
-      <c r="W98" s="60"/>
-      <c r="X98" s="60"/>
-      <c r="Y98" s="60"/>
-      <c r="Z98" s="60"/>
-      <c r="AA98" s="60"/>
-      <c r="AB98" s="60"/>
-      <c r="AC98" s="60"/>
-      <c r="AD98" s="60"/>
-      <c r="AE98" s="60"/>
-      <c r="AF98" s="60"/>
-      <c r="AG98" s="60"/>
-      <c r="AH98" s="60"/>
-      <c r="AI98" s="60"/>
-      <c r="AJ98" s="60"/>
-      <c r="AK98" s="60"/>
-      <c r="AL98" s="60"/>
-      <c r="AM98" s="60"/>
-      <c r="AN98" s="60"/>
-      <c r="AO98" s="60"/>
-      <c r="AP98" s="60"/>
-      <c r="AQ98" s="60"/>
-      <c r="AR98" s="82"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="59"/>
+      <c r="T98" s="59"/>
+      <c r="U98" s="59"/>
+      <c r="V98" s="59"/>
+      <c r="W98" s="59"/>
+      <c r="X98" s="59"/>
+      <c r="Y98" s="59"/>
+      <c r="Z98" s="59"/>
+      <c r="AA98" s="59"/>
+      <c r="AB98" s="59"/>
+      <c r="AC98" s="59"/>
+      <c r="AD98" s="59"/>
+      <c r="AE98" s="59"/>
+      <c r="AF98" s="59"/>
+      <c r="AG98" s="59"/>
+      <c r="AH98" s="59"/>
+      <c r="AI98" s="59"/>
+      <c r="AJ98" s="59"/>
+      <c r="AK98" s="59"/>
+      <c r="AL98" s="59"/>
+      <c r="AM98" s="59"/>
+      <c r="AN98" s="59"/>
+      <c r="AO98" s="59"/>
+      <c r="AP98" s="59"/>
+      <c r="AQ98" s="59"/>
+      <c r="AR98" s="81"/>
     </row>
     <row r="99" spans="4:44" ht="14.4" thickBot="1">
-      <c r="D99" s="83"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="84"/>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84"/>
-      <c r="M99" s="84"/>
-      <c r="N99" s="84"/>
-      <c r="O99" s="84"/>
-      <c r="P99" s="84"/>
-      <c r="Q99" s="84"/>
-      <c r="R99" s="84"/>
-      <c r="S99" s="84"/>
-      <c r="T99" s="84"/>
-      <c r="U99" s="84"/>
-      <c r="V99" s="84"/>
-      <c r="W99" s="84"/>
-      <c r="X99" s="84"/>
-      <c r="Y99" s="84"/>
-      <c r="Z99" s="84"/>
-      <c r="AA99" s="84"/>
-      <c r="AB99" s="84"/>
-      <c r="AC99" s="84"/>
-      <c r="AD99" s="84"/>
-      <c r="AE99" s="84"/>
-      <c r="AF99" s="84"/>
-      <c r="AG99" s="84"/>
-      <c r="AH99" s="84"/>
-      <c r="AI99" s="84"/>
-      <c r="AJ99" s="84"/>
-      <c r="AK99" s="84"/>
-      <c r="AL99" s="84"/>
-      <c r="AM99" s="84"/>
-      <c r="AN99" s="84"/>
-      <c r="AO99" s="84"/>
-      <c r="AP99" s="84"/>
-      <c r="AQ99" s="84"/>
-      <c r="AR99" s="85"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="83"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="83"/>
+      <c r="N99" s="83"/>
+      <c r="O99" s="83"/>
+      <c r="P99" s="83"/>
+      <c r="Q99" s="83"/>
+      <c r="R99" s="83"/>
+      <c r="S99" s="83"/>
+      <c r="T99" s="83"/>
+      <c r="U99" s="83"/>
+      <c r="V99" s="83"/>
+      <c r="W99" s="83"/>
+      <c r="X99" s="83"/>
+      <c r="Y99" s="83"/>
+      <c r="Z99" s="83"/>
+      <c r="AA99" s="83"/>
+      <c r="AB99" s="83"/>
+      <c r="AC99" s="83"/>
+      <c r="AD99" s="83"/>
+      <c r="AE99" s="83"/>
+      <c r="AF99" s="83"/>
+      <c r="AG99" s="83"/>
+      <c r="AH99" s="83"/>
+      <c r="AI99" s="83"/>
+      <c r="AJ99" s="83"/>
+      <c r="AK99" s="83"/>
+      <c r="AL99" s="83"/>
+      <c r="AM99" s="83"/>
+      <c r="AN99" s="83"/>
+      <c r="AO99" s="83"/>
+      <c r="AP99" s="83"/>
+      <c r="AQ99" s="83"/>
+      <c r="AR99" s="84"/>
     </row>
     <row r="100" spans="4:44" ht="14.4" thickTop="1"/>
   </sheetData>
@@ -7654,220 +7744,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="192" t="s">
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="192" t="s">
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="195"/>
+      <c r="AK1" s="195"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="195"/>
+      <c r="AO1" s="195"/>
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="195"/>
+      <c r="AS1" s="195"/>
+      <c r="AT1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="A2" s="197"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="193"/>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="193"/>
-      <c r="AM1" s="193"/>
-      <c r="AN1" s="193"/>
-      <c r="AO1" s="193"/>
-      <c r="AP1" s="193"/>
-      <c r="AQ1" s="193"/>
-      <c r="AR1" s="193"/>
-      <c r="AS1" s="193"/>
-      <c r="AT1" s="193"/>
-      <c r="AU1" s="193"/>
-      <c r="AV1" s="193"/>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="195"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="186" t="s">
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="A3" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="186"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="186"/>
-      <c r="AN2" s="186"/>
-      <c r="AO2" s="186"/>
-      <c r="AP2" s="186"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="186"/>
-      <c r="AS2" s="186"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-    </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="198" t="s">
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="201" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="199" t="s">
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="198" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="200" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="201"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="201"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203" t="s">
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="205"/>
-      <c r="AK3" s="185"/>
-      <c r="AL3" s="186"/>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="187"/>
-      <c r="AO3" s="191" t="s">
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="187"/>
+      <c r="AL3" s="188"/>
+      <c r="AM3" s="188"/>
+      <c r="AN3" s="189"/>
+      <c r="AO3" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="186"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="186"/>
-      <c r="AS3" s="186"/>
+      <c r="AP3" s="188"/>
+      <c r="AQ3" s="188"/>
+      <c r="AR3" s="188"/>
+      <c r="AS3" s="188"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="198"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="201"/>
-      <c r="AA4" s="201"/>
-      <c r="AB4" s="201"/>
-      <c r="AC4" s="201"/>
-      <c r="AD4" s="201"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="206" t="s">
+      <c r="A4" s="200"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203"/>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="188"/>
-      <c r="AL4" s="189"/>
-      <c r="AM4" s="189"/>
-      <c r="AN4" s="190"/>
-      <c r="AO4" s="189"/>
-      <c r="AP4" s="189"/>
-      <c r="AQ4" s="189"/>
-      <c r="AR4" s="189"/>
-      <c r="AS4" s="191"/>
+      <c r="AG4" s="209"/>
+      <c r="AH4" s="209"/>
+      <c r="AI4" s="209"/>
+      <c r="AJ4" s="210"/>
+      <c r="AK4" s="190"/>
+      <c r="AL4" s="191"/>
+      <c r="AM4" s="191"/>
+      <c r="AN4" s="192"/>
+      <c r="AO4" s="191"/>
+      <c r="AP4" s="191"/>
+      <c r="AQ4" s="191"/>
+      <c r="AR4" s="191"/>
+      <c r="AS4" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7902,183 +7992,183 @@
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="216" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="218" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
+      <c r="AH1" s="227"/>
+      <c r="AI1" s="227"/>
+      <c r="AJ1" s="228"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" customHeight="1">
+      <c r="A2" s="218"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="224" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="226"/>
-    </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="153"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="227" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="228" t="s">
+      <c r="A3" s="229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="240"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="242"/>
       <c r="W3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="246"/>
       <c r="AD3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="AE3" s="29"/>
       <c r="AF3" s="30"/>
-      <c r="AG3" s="245"/>
-      <c r="AH3" s="246"/>
-      <c r="AI3" s="246"/>
-      <c r="AJ3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="248"/>
+      <c r="AJ3" s="249"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="229"/>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="235"/>
-      <c r="O4" s="235"/>
-      <c r="P4" s="235"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="235"/>
-      <c r="S4" s="235"/>
-      <c r="T4" s="235"/>
-      <c r="U4" s="235"/>
-      <c r="V4" s="242"/>
+      <c r="A4" s="231"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="244"/>
       <c r="W4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="26"/>
       <c r="Y4" s="26"/>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="210"/>
+      <c r="Z4" s="211"/>
+      <c r="AA4" s="211"/>
+      <c r="AB4" s="211"/>
+      <c r="AC4" s="212"/>
       <c r="AD4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AE4" s="31"/>
       <c r="AF4" s="32"/>
-      <c r="AG4" s="211"/>
-      <c r="AH4" s="212"/>
-      <c r="AI4" s="212"/>
-      <c r="AJ4" s="213"/>
+      <c r="AG4" s="213"/>
+      <c r="AH4" s="214"/>
+      <c r="AI4" s="214"/>
+      <c r="AJ4" s="215"/>
     </row>
     <row r="5" spans="1:47">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -8197,11 +8287,11 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="39"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
@@ -8223,7 +8313,7 @@
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
-      <c r="AF8" s="52"/>
+      <c r="AF8" s="51"/>
       <c r="AG8" s="44"/>
       <c r="AH8" s="47"/>
       <c r="AI8" s="39"/>
@@ -8319,7 +8409,7 @@
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
@@ -8358,22 +8448,22 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
       <c r="AG12" s="39"/>
@@ -8486,34 +8576,34 @@
       <c r="D15" s="43"/>
       <c r="E15" s="45"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="57"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="56"/>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="34"/>
     </row>
@@ -8524,34 +8614,34 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="59"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="58"/>
       <c r="AI16" s="39"/>
       <c r="AJ16" s="34"/>
     </row>
@@ -8562,34 +8652,34 @@
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
       <c r="AI17" s="39"/>
       <c r="AJ17" s="34"/>
     </row>
@@ -8600,34 +8690,34 @@
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
       <c r="AI18" s="39"/>
       <c r="AJ18" s="39"/>
     </row>
@@ -8638,34 +8728,34 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
       <c r="AI19" s="39"/>
       <c r="AJ19" s="39"/>
     </row>
@@ -8676,34 +8766,34 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
       <c r="AI20" s="39"/>
       <c r="AJ20" s="39"/>
     </row>
@@ -8714,34 +8804,34 @@
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
       <c r="AI21" s="39"/>
       <c r="AJ21" s="39"/>
     </row>
@@ -8752,34 +8842,34 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
       <c r="AI22" s="39"/>
       <c r="AJ22" s="39"/>
     </row>
@@ -8790,34 +8880,34 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
       <c r="AI23" s="39"/>
       <c r="AJ23" s="39"/>
     </row>
@@ -8828,34 +8918,34 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
       <c r="AI24" s="39"/>
       <c r="AJ24" s="39"/>
     </row>
@@ -8866,34 +8956,34 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
       <c r="AI25" s="39"/>
       <c r="AJ25" s="39"/>
     </row>

--- a/doc/design/layout/EnglishSound_Design.xlsx
+++ b/doc/design/layout/EnglishSound_Design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Github\word-of-the-day\doc\design\layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007BAD67-9435-49DA-AD49-B3574766CB64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8655E-8CE2-4E2C-B405-61EA94934FC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <r>
       <t>*A - Add</t>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>3. Sign In and Sign up form</t>
+  </si>
+  <si>
+    <t>20/12/2018</t>
+  </si>
+  <si>
+    <t>Quan.N.C.T</t>
   </si>
 </sst>
 </file>
@@ -2338,303 +2344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="32" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="33" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="15" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="34" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="37" fillId="0" borderId="45" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="37" fillId="0" borderId="53" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="46" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="32" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="50" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="37" fillId="0" borderId="44" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="37" fillId="0" borderId="52" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2671,52 +2380,349 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="30" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="32" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="33" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="28" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="30" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="15" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="34" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="22" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="45" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="53" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="46" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="32" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="50" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="44" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="52" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3640,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.8"/>
@@ -3668,232 +3674,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12.15" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="126" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="130" t="s">
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="131"/>
-      <c r="AV1" s="132"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="185"/>
+      <c r="AL1" s="185"/>
+      <c r="AM1" s="185"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="185"/>
+      <c r="AP1" s="185"/>
+      <c r="AQ1" s="185"/>
+      <c r="AR1" s="185"/>
+      <c r="AS1" s="185"/>
+      <c r="AT1" s="185"/>
+      <c r="AU1" s="185"/>
+      <c r="AV1" s="186"/>
     </row>
     <row r="2" spans="1:52" ht="14.1" customHeight="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="133" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="135"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="189"/>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="142" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="148" t="s">
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="142" t="s">
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="150" t="s">
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="151" t="s">
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="204"/>
+      <c r="AK3" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="150" t="s">
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="153" t="s">
+      <c r="AP3" s="204"/>
+      <c r="AQ3" s="204"/>
+      <c r="AR3" s="204"/>
+      <c r="AS3" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="153"/>
-      <c r="AV3" s="154"/>
+      <c r="AT3" s="206"/>
+      <c r="AU3" s="206"/>
+      <c r="AV3" s="207"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="139"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="146"/>
-      <c r="Z4" s="146"/>
-      <c r="AA4" s="146"/>
-      <c r="AB4" s="146"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="155" t="s">
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="152"/>
-      <c r="AN4" s="152"/>
-      <c r="AO4" s="155" t="s">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="205" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" s="172"/>
+      <c r="AM4" s="172"/>
+      <c r="AN4" s="172"/>
+      <c r="AO4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="155"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="157"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="175"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="6"/>
@@ -4353,7 +4363,7 @@
       <c r="AS13" s="70"/>
       <c r="AT13" s="70"/>
       <c r="AU13" s="70"/>
-      <c r="AV13" s="270"/>
+      <c r="AV13" s="159"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="64"/>
@@ -4503,10 +4513,10 @@
       <c r="AO16" s="94"/>
       <c r="AP16" s="94"/>
       <c r="AQ16" s="94"/>
-      <c r="AR16" s="239"/>
+      <c r="AR16" s="140"/>
       <c r="AS16" s="94"/>
       <c r="AT16" s="94"/>
-      <c r="AU16" s="240"/>
+      <c r="AU16" s="141"/>
       <c r="AV16" s="94"/>
       <c r="AW16" s="94"/>
       <c r="AX16" s="94"/>
@@ -4630,10 +4640,10 @@
       <c r="AP18" s="99"/>
       <c r="AQ18" s="99"/>
       <c r="AR18" s="99"/>
-      <c r="AS18" s="241"/>
+      <c r="AS18" s="142"/>
       <c r="AT18" s="99"/>
       <c r="AU18" s="99"/>
-      <c r="AV18" s="241"/>
+      <c r="AV18" s="142"/>
       <c r="AW18" s="99"/>
       <c r="AX18" s="99"/>
       <c r="AY18" s="99"/>
@@ -4813,37 +4823,37 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="128" t="s">
+      <c r="L22" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="129"/>
-      <c r="AK22" s="129"/>
-      <c r="AL22" s="129"/>
-      <c r="AM22" s="129"/>
-      <c r="AN22" s="129"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="183"/>
+      <c r="AJ22" s="183"/>
+      <c r="AK22" s="183"/>
+      <c r="AL22" s="183"/>
+      <c r="AM22" s="183"/>
+      <c r="AN22" s="183"/>
       <c r="AO22" s="57"/>
       <c r="AP22" s="57"/>
       <c r="AQ22" s="57"/>
@@ -4869,35 +4879,35 @@
       <c r="I23" s="57"/>
       <c r="J23" s="72"/>
       <c r="K23" s="57"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="129"/>
-      <c r="AJ23" s="129"/>
-      <c r="AK23" s="129"/>
-      <c r="AL23" s="129"/>
-      <c r="AM23" s="129"/>
-      <c r="AN23" s="129"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="183"/>
+      <c r="AJ23" s="183"/>
+      <c r="AK23" s="183"/>
+      <c r="AL23" s="183"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="183"/>
       <c r="AO23" s="57"/>
       <c r="AP23" s="57"/>
       <c r="AQ23" s="57"/>
@@ -4923,35 +4933,35 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="129"/>
-      <c r="AJ24" s="129"/>
-      <c r="AK24" s="129"/>
-      <c r="AL24" s="129"/>
-      <c r="AM24" s="129"/>
-      <c r="AN24" s="129"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="183"/>
+      <c r="AJ24" s="183"/>
+      <c r="AK24" s="183"/>
+      <c r="AL24" s="183"/>
+      <c r="AM24" s="183"/>
+      <c r="AN24" s="183"/>
       <c r="AO24" s="57"/>
       <c r="AP24" s="57"/>
       <c r="AQ24" s="57"/>
@@ -5031,7 +5041,7 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
-      <c r="L26" s="230" t="s">
+      <c r="L26" s="131" t="s">
         <v>44</v>
       </c>
       <c r="M26" s="57"/>
@@ -5086,10 +5096,10 @@
       <c r="F27" s="57"/>
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>
-      <c r="I27" s="246" t="s">
+      <c r="I27" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="221"/>
+      <c r="J27" s="122"/>
       <c r="K27" s="119"/>
       <c r="L27" s="119"/>
       <c r="M27" s="119"/>
@@ -5122,14 +5132,14 @@
       <c r="AN27" s="119"/>
       <c r="AO27" s="120"/>
       <c r="AP27" s="57"/>
-      <c r="AQ27" s="222"/>
-      <c r="AR27" s="223"/>
-      <c r="AS27" s="224" t="s">
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="124"/>
+      <c r="AS27" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AT27" s="223"/>
-      <c r="AU27" s="223"/>
-      <c r="AV27" s="225"/>
+      <c r="AT27" s="124"/>
+      <c r="AU27" s="124"/>
+      <c r="AV27" s="126"/>
       <c r="AW27" s="57"/>
       <c r="AX27" s="57"/>
       <c r="AY27" s="57"/>
@@ -6554,18 +6564,18 @@
       <c r="N54" s="57"/>
       <c r="O54" s="57"/>
       <c r="P54" s="57"/>
-      <c r="Q54" s="227"/>
-      <c r="R54" s="227"/>
-      <c r="S54" s="227"/>
-      <c r="T54" s="227"/>
-      <c r="U54" s="227"/>
-      <c r="V54" s="227"/>
-      <c r="W54" s="227"/>
-      <c r="X54" s="227"/>
-      <c r="Y54" s="227"/>
-      <c r="Z54" s="227"/>
-      <c r="AA54" s="227"/>
-      <c r="AB54" s="227"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="128"/>
       <c r="AC54" s="73"/>
       <c r="AD54" s="57"/>
       <c r="AE54" s="57"/>
@@ -6585,11 +6595,11 @@
       <c r="AS54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="13.8" customHeight="1">
-      <c r="C55" s="232" t="s">
+      <c r="C55" s="133" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="57"/>
-      <c r="E55" s="226" t="s">
+      <c r="E55" s="127" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="57"/>
@@ -6603,18 +6613,18 @@
       <c r="N55" s="57"/>
       <c r="O55" s="57"/>
       <c r="P55" s="57"/>
-      <c r="Q55" s="227"/>
-      <c r="R55" s="227"/>
-      <c r="S55" s="227"/>
-      <c r="T55" s="227"/>
-      <c r="U55" s="227"/>
-      <c r="V55" s="227"/>
-      <c r="W55" s="227"/>
-      <c r="X55" s="227"/>
-      <c r="Y55" s="227"/>
-      <c r="Z55" s="227"/>
-      <c r="AA55" s="227"/>
-      <c r="AB55" s="227"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
       <c r="AC55" s="73"/>
       <c r="AD55" s="57"/>
       <c r="AE55" s="57"/>
@@ -6636,7 +6646,7 @@
     <row r="56" spans="1:52" ht="18">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
-      <c r="C56" s="231" t="s">
+      <c r="C56" s="132" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="57"/>
@@ -6694,7 +6704,7 @@
     <row r="57" spans="1:52" ht="18">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
-      <c r="C57" s="231" t="s">
+      <c r="C57" s="132" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="57"/>
@@ -6753,25 +6763,25 @@
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="231" t="s">
+      <c r="D58" s="132" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="57"/>
-      <c r="F58" s="233" t="s">
+      <c r="F58" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="234"/>
-      <c r="J58" s="234"/>
-      <c r="K58" s="234"/>
-      <c r="L58" s="234"/>
-      <c r="M58" s="234"/>
-      <c r="N58" s="235"/>
-      <c r="O58" s="234"/>
-      <c r="P58" s="234"/>
-      <c r="Q58" s="234"/>
-      <c r="R58" s="234"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="135"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
       <c r="S58" s="77"/>
       <c r="T58" s="57"/>
       <c r="U58" s="57"/>
@@ -6811,7 +6821,7 @@
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
-      <c r="D59" s="231" t="s">
+      <c r="D59" s="132" t="s">
         <v>55</v>
       </c>
       <c r="E59" s="57"/>
@@ -6869,7 +6879,7 @@
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
-      <c r="D60" s="231" t="s">
+      <c r="D60" s="132" t="s">
         <v>56</v>
       </c>
       <c r="E60" s="57"/>
@@ -7572,56 +7582,56 @@
       <c r="AZ72" s="57"/>
     </row>
     <row r="73" spans="1:52">
-      <c r="A73" s="267" t="s">
+      <c r="A73" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="268"/>
-      <c r="C73" s="268"/>
-      <c r="D73" s="268"/>
-      <c r="E73" s="268"/>
-      <c r="F73" s="268"/>
-      <c r="G73" s="268"/>
-      <c r="H73" s="268"/>
-      <c r="I73" s="268"/>
-      <c r="J73" s="268"/>
-      <c r="K73" s="268"/>
-      <c r="L73" s="268"/>
-      <c r="M73" s="268"/>
-      <c r="N73" s="268"/>
-      <c r="O73" s="268"/>
-      <c r="P73" s="268"/>
-      <c r="Q73" s="268"/>
-      <c r="R73" s="268"/>
-      <c r="S73" s="268"/>
-      <c r="T73" s="268"/>
-      <c r="U73" s="268"/>
-      <c r="V73" s="268"/>
-      <c r="W73" s="268"/>
-      <c r="X73" s="268"/>
-      <c r="Y73" s="268"/>
-      <c r="Z73" s="268"/>
-      <c r="AA73" s="268"/>
-      <c r="AB73" s="268"/>
-      <c r="AC73" s="268"/>
-      <c r="AD73" s="268"/>
-      <c r="AE73" s="268"/>
-      <c r="AF73" s="268"/>
-      <c r="AG73" s="268"/>
-      <c r="AH73" s="268"/>
-      <c r="AI73" s="268"/>
-      <c r="AJ73" s="268"/>
-      <c r="AK73" s="268"/>
-      <c r="AL73" s="268"/>
-      <c r="AM73" s="268"/>
-      <c r="AN73" s="268"/>
-      <c r="AO73" s="268"/>
-      <c r="AP73" s="268"/>
-      <c r="AQ73" s="268"/>
-      <c r="AR73" s="268"/>
-      <c r="AS73" s="268"/>
-      <c r="AT73" s="268"/>
-      <c r="AU73" s="268"/>
-      <c r="AV73" s="269"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="157"/>
+      <c r="R73" s="157"/>
+      <c r="S73" s="157"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="157"/>
+      <c r="X73" s="157"/>
+      <c r="Y73" s="157"/>
+      <c r="Z73" s="157"/>
+      <c r="AA73" s="157"/>
+      <c r="AB73" s="157"/>
+      <c r="AC73" s="157"/>
+      <c r="AD73" s="157"/>
+      <c r="AE73" s="157"/>
+      <c r="AF73" s="157"/>
+      <c r="AG73" s="157"/>
+      <c r="AH73" s="157"/>
+      <c r="AI73" s="157"/>
+      <c r="AJ73" s="157"/>
+      <c r="AK73" s="157"/>
+      <c r="AL73" s="157"/>
+      <c r="AM73" s="157"/>
+      <c r="AN73" s="157"/>
+      <c r="AO73" s="157"/>
+      <c r="AP73" s="157"/>
+      <c r="AQ73" s="157"/>
+      <c r="AR73" s="157"/>
+      <c r="AS73" s="157"/>
+      <c r="AT73" s="157"/>
+      <c r="AU73" s="157"/>
+      <c r="AV73" s="158"/>
       <c r="AW73" s="57"/>
       <c r="AX73" s="57"/>
       <c r="AY73" s="57"/>
@@ -7694,31 +7704,31 @@
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
-      <c r="M75" s="236"/>
-      <c r="N75" s="237"/>
-      <c r="O75" s="237"/>
-      <c r="P75" s="237"/>
-      <c r="Q75" s="237"/>
-      <c r="R75" s="237"/>
-      <c r="S75" s="237"/>
-      <c r="T75" s="237"/>
-      <c r="U75" s="237"/>
-      <c r="V75" s="237"/>
-      <c r="W75" s="237"/>
-      <c r="X75" s="237"/>
-      <c r="Y75" s="237"/>
-      <c r="Z75" s="237"/>
-      <c r="AA75" s="237"/>
-      <c r="AB75" s="237"/>
-      <c r="AC75" s="237"/>
-      <c r="AD75" s="237"/>
-      <c r="AE75" s="237"/>
-      <c r="AF75" s="237"/>
-      <c r="AG75" s="237"/>
-      <c r="AH75" s="237"/>
-      <c r="AI75" s="237"/>
-      <c r="AJ75" s="237"/>
-      <c r="AK75" s="238"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="138"/>
+      <c r="O75" s="138"/>
+      <c r="P75" s="138"/>
+      <c r="Q75" s="138"/>
+      <c r="R75" s="138"/>
+      <c r="S75" s="138"/>
+      <c r="T75" s="138"/>
+      <c r="U75" s="138"/>
+      <c r="V75" s="138"/>
+      <c r="W75" s="138"/>
+      <c r="X75" s="138"/>
+      <c r="Y75" s="138"/>
+      <c r="Z75" s="138"/>
+      <c r="AA75" s="138"/>
+      <c r="AB75" s="138"/>
+      <c r="AC75" s="138"/>
+      <c r="AD75" s="138"/>
+      <c r="AE75" s="138"/>
+      <c r="AF75" s="138"/>
+      <c r="AG75" s="138"/>
+      <c r="AH75" s="138"/>
+      <c r="AI75" s="138"/>
+      <c r="AJ75" s="138"/>
+      <c r="AK75" s="139"/>
       <c r="AL75" s="57"/>
       <c r="AM75" s="57"/>
       <c r="AN75" s="57"/>
@@ -7755,18 +7765,18 @@
       <c r="Q76" s="57"/>
       <c r="R76" s="57"/>
       <c r="S76" s="57"/>
-      <c r="T76" s="251" t="s">
+      <c r="T76" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="U76" s="251"/>
-      <c r="V76" s="251"/>
-      <c r="W76" s="251"/>
-      <c r="X76" s="251"/>
-      <c r="Y76" s="251"/>
-      <c r="Z76" s="251"/>
-      <c r="AA76" s="251"/>
-      <c r="AB76" s="251"/>
-      <c r="AC76" s="251"/>
+      <c r="U76" s="166"/>
+      <c r="V76" s="166"/>
+      <c r="W76" s="166"/>
+      <c r="X76" s="166"/>
+      <c r="Y76" s="166"/>
+      <c r="Z76" s="166"/>
+      <c r="AA76" s="166"/>
+      <c r="AB76" s="166"/>
+      <c r="AC76" s="166"/>
       <c r="AD76" s="57"/>
       <c r="AE76" s="57"/>
       <c r="AF76" s="57"/>
@@ -7811,16 +7821,16 @@
       <c r="Q77" s="57"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="251"/>
-      <c r="U77" s="251"/>
-      <c r="V77" s="251"/>
-      <c r="W77" s="251"/>
-      <c r="X77" s="251"/>
-      <c r="Y77" s="251"/>
-      <c r="Z77" s="251"/>
-      <c r="AA77" s="251"/>
-      <c r="AB77" s="251"/>
-      <c r="AC77" s="251"/>
+      <c r="T77" s="166"/>
+      <c r="U77" s="166"/>
+      <c r="V77" s="166"/>
+      <c r="W77" s="166"/>
+      <c r="X77" s="166"/>
+      <c r="Y77" s="166"/>
+      <c r="Z77" s="166"/>
+      <c r="AA77" s="166"/>
+      <c r="AB77" s="166"/>
+      <c r="AC77" s="166"/>
       <c r="AD77" s="57"/>
       <c r="AE77" s="57"/>
       <c r="AF77" s="57"/>
@@ -7862,19 +7872,19 @@
       <c r="N78" s="57"/>
       <c r="O78" s="57"/>
       <c r="P78" s="57"/>
-      <c r="Q78" s="228"/>
-      <c r="R78" s="229"/>
-      <c r="S78" s="229"/>
-      <c r="T78" s="251"/>
-      <c r="U78" s="251"/>
-      <c r="V78" s="251"/>
-      <c r="W78" s="251"/>
-      <c r="X78" s="251"/>
-      <c r="Y78" s="251"/>
-      <c r="Z78" s="251"/>
-      <c r="AA78" s="251"/>
-      <c r="AB78" s="251"/>
-      <c r="AC78" s="251"/>
+      <c r="Q78" s="129"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="130"/>
+      <c r="T78" s="166"/>
+      <c r="U78" s="166"/>
+      <c r="V78" s="166"/>
+      <c r="W78" s="166"/>
+      <c r="X78" s="166"/>
+      <c r="Y78" s="166"/>
+      <c r="Z78" s="166"/>
+      <c r="AA78" s="166"/>
+      <c r="AB78" s="166"/>
+      <c r="AC78" s="166"/>
       <c r="AD78" s="57"/>
       <c r="AE78" s="57"/>
       <c r="AF78" s="57"/>
@@ -7916,18 +7926,18 @@
       <c r="N79" s="57"/>
       <c r="O79" s="57"/>
       <c r="P79" s="57"/>
-      <c r="Q79" s="229"/>
-      <c r="R79" s="229"/>
-      <c r="S79" s="229"/>
-      <c r="T79" s="229"/>
-      <c r="U79" s="229"/>
-      <c r="V79" s="229"/>
-      <c r="W79" s="229"/>
-      <c r="X79" s="229"/>
-      <c r="Y79" s="229"/>
-      <c r="Z79" s="229"/>
-      <c r="AA79" s="229"/>
-      <c r="AB79" s="229"/>
+      <c r="Q79" s="130"/>
+      <c r="R79" s="130"/>
+      <c r="S79" s="130"/>
+      <c r="T79" s="130"/>
+      <c r="U79" s="130"/>
+      <c r="V79" s="130"/>
+      <c r="W79" s="130"/>
+      <c r="X79" s="130"/>
+      <c r="Y79" s="130"/>
+      <c r="Z79" s="130"/>
+      <c r="AA79" s="130"/>
+      <c r="AB79" s="130"/>
       <c r="AC79" s="57"/>
       <c r="AD79" s="57"/>
       <c r="AE79" s="57"/>
@@ -7968,7 +7978,7 @@
       <c r="L80" s="57"/>
       <c r="M80" s="88"/>
       <c r="N80" s="57"/>
-      <c r="O80" s="252" t="s">
+      <c r="O80" s="152" t="s">
         <v>61</v>
       </c>
       <c r="P80" s="57"/>
@@ -8078,11 +8088,11 @@
       <c r="L82" s="57"/>
       <c r="M82" s="88"/>
       <c r="N82" s="74"/>
-      <c r="O82" s="245" t="s">
+      <c r="O82" s="146" t="s">
         <v>64</v>
       </c>
       <c r="P82" s="71"/>
-      <c r="Q82" s="243"/>
+      <c r="Q82" s="144"/>
       <c r="R82" s="71"/>
       <c r="S82" s="71"/>
       <c r="T82" s="71"/>
@@ -8099,7 +8109,7 @@
       <c r="AE82" s="71"/>
       <c r="AF82" s="71"/>
       <c r="AG82" s="71"/>
-      <c r="AH82" s="244"/>
+      <c r="AH82" s="145"/>
       <c r="AI82" s="57"/>
       <c r="AJ82" s="57"/>
       <c r="AK82" s="89"/>
@@ -8242,7 +8252,7 @@
       <c r="L85" s="57"/>
       <c r="M85" s="88"/>
       <c r="N85" s="57"/>
-      <c r="O85" s="252" t="s">
+      <c r="O85" s="152" t="s">
         <v>66</v>
       </c>
       <c r="P85" s="57"/>
@@ -8352,7 +8362,7 @@
       <c r="L87" s="57"/>
       <c r="M87" s="88"/>
       <c r="N87" s="80"/>
-      <c r="O87" s="248" t="s">
+      <c r="O87" s="149" t="s">
         <v>65</v>
       </c>
       <c r="P87" s="119"/>
@@ -8367,7 +8377,7 @@
       <c r="Y87" s="119"/>
       <c r="Z87" s="119"/>
       <c r="AA87" s="119"/>
-      <c r="AB87" s="247"/>
+      <c r="AB87" s="148"/>
       <c r="AC87" s="119"/>
       <c r="AD87" s="119"/>
       <c r="AE87" s="119"/>
@@ -8430,7 +8440,7 @@
       <c r="AH88" s="82"/>
       <c r="AI88" s="82"/>
       <c r="AJ88" s="82"/>
-      <c r="AK88" s="242"/>
+      <c r="AK88" s="143"/>
       <c r="AL88" s="82"/>
       <c r="AM88" s="57"/>
       <c r="AN88" s="57"/>
@@ -8484,7 +8494,7 @@
       <c r="AH89" s="82"/>
       <c r="AI89" s="82"/>
       <c r="AJ89" s="82"/>
-      <c r="AK89" s="242"/>
+      <c r="AK89" s="143"/>
       <c r="AL89" s="82"/>
       <c r="AM89" s="57"/>
       <c r="AN89" s="57"/>
@@ -8538,7 +8548,7 @@
       <c r="AH90" s="82"/>
       <c r="AI90" s="82"/>
       <c r="AJ90" s="82"/>
-      <c r="AK90" s="242"/>
+      <c r="AK90" s="143"/>
       <c r="AL90" s="82"/>
       <c r="AM90" s="57"/>
       <c r="AN90" s="57"/>
@@ -8575,17 +8585,17 @@
       <c r="Q91" s="85"/>
       <c r="R91" s="83"/>
       <c r="S91" s="83"/>
-      <c r="T91" s="259" t="s">
+      <c r="T91" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="U91" s="262"/>
-      <c r="V91" s="262"/>
-      <c r="W91" s="262"/>
-      <c r="X91" s="262"/>
-      <c r="Y91" s="262"/>
-      <c r="Z91" s="262"/>
-      <c r="AA91" s="262"/>
-      <c r="AB91" s="263"/>
+      <c r="U91" s="161"/>
+      <c r="V91" s="161"/>
+      <c r="W91" s="161"/>
+      <c r="X91" s="161"/>
+      <c r="Y91" s="161"/>
+      <c r="Z91" s="161"/>
+      <c r="AA91" s="161"/>
+      <c r="AB91" s="162"/>
       <c r="AC91" s="83"/>
       <c r="AD91" s="83"/>
       <c r="AE91" s="83"/>
@@ -8594,7 +8604,7 @@
       <c r="AH91" s="82"/>
       <c r="AI91" s="82"/>
       <c r="AJ91" s="82"/>
-      <c r="AK91" s="242"/>
+      <c r="AK91" s="143"/>
       <c r="AL91" s="82"/>
       <c r="AM91" s="57"/>
       <c r="AN91" s="57"/>
@@ -8631,15 +8641,15 @@
       <c r="Q92" s="82"/>
       <c r="R92" s="82"/>
       <c r="S92" s="82"/>
-      <c r="T92" s="264"/>
-      <c r="U92" s="265"/>
-      <c r="V92" s="265"/>
-      <c r="W92" s="265"/>
-      <c r="X92" s="265"/>
-      <c r="Y92" s="265"/>
-      <c r="Z92" s="265"/>
-      <c r="AA92" s="265"/>
-      <c r="AB92" s="266"/>
+      <c r="T92" s="163"/>
+      <c r="U92" s="164"/>
+      <c r="V92" s="164"/>
+      <c r="W92" s="164"/>
+      <c r="X92" s="164"/>
+      <c r="Y92" s="164"/>
+      <c r="Z92" s="164"/>
+      <c r="AA92" s="164"/>
+      <c r="AB92" s="165"/>
       <c r="AC92" s="82"/>
       <c r="AD92" s="82"/>
       <c r="AE92" s="82"/>
@@ -8648,7 +8658,7 @@
       <c r="AH92" s="82"/>
       <c r="AI92" s="82"/>
       <c r="AJ92" s="82"/>
-      <c r="AK92" s="242"/>
+      <c r="AK92" s="143"/>
       <c r="AL92" s="82"/>
       <c r="AM92" s="57"/>
       <c r="AN92" s="57"/>
@@ -8682,25 +8692,25 @@
       <c r="N93" s="82"/>
       <c r="O93" s="82"/>
       <c r="P93" s="82"/>
-      <c r="R93" s="260"/>
-      <c r="S93" s="260"/>
-      <c r="U93" s="261"/>
-      <c r="V93" s="261"/>
-      <c r="W93" s="261"/>
-      <c r="X93" s="261"/>
-      <c r="Y93" s="261"/>
-      <c r="Z93" s="261"/>
-      <c r="AA93" s="261"/>
-      <c r="AB93" s="261"/>
-      <c r="AC93" s="260"/>
-      <c r="AD93" s="260"/>
+      <c r="R93" s="154"/>
+      <c r="S93" s="154"/>
+      <c r="U93" s="155"/>
+      <c r="V93" s="155"/>
+      <c r="W93" s="155"/>
+      <c r="X93" s="155"/>
+      <c r="Y93" s="155"/>
+      <c r="Z93" s="155"/>
+      <c r="AA93" s="155"/>
+      <c r="AB93" s="155"/>
+      <c r="AC93" s="154"/>
+      <c r="AD93" s="154"/>
       <c r="AE93" s="82"/>
       <c r="AF93" s="82"/>
       <c r="AG93" s="82"/>
       <c r="AH93" s="82"/>
       <c r="AI93" s="82"/>
       <c r="AJ93" s="82"/>
-      <c r="AK93" s="242"/>
+      <c r="AK93" s="143"/>
       <c r="AL93" s="82"/>
       <c r="AM93" s="57"/>
       <c r="AN93" s="57"/>
@@ -8734,29 +8744,29 @@
       <c r="N94" s="82"/>
       <c r="O94" s="82"/>
       <c r="P94" s="82"/>
-      <c r="Q94" s="260"/>
-      <c r="R94" s="260"/>
-      <c r="S94" s="260"/>
-      <c r="T94" s="250" t="s">
+      <c r="Q94" s="154"/>
+      <c r="R94" s="154"/>
+      <c r="S94" s="154"/>
+      <c r="T94" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="U94" s="260"/>
-      <c r="V94" s="260"/>
-      <c r="W94" s="260"/>
-      <c r="X94" s="260"/>
-      <c r="Y94" s="260"/>
-      <c r="Z94" s="260"/>
-      <c r="AA94" s="260"/>
-      <c r="AB94" s="260"/>
-      <c r="AC94" s="260"/>
-      <c r="AD94" s="260"/>
+      <c r="U94" s="154"/>
+      <c r="V94" s="154"/>
+      <c r="W94" s="154"/>
+      <c r="X94" s="154"/>
+      <c r="Y94" s="154"/>
+      <c r="Z94" s="154"/>
+      <c r="AA94" s="154"/>
+      <c r="AB94" s="154"/>
+      <c r="AC94" s="154"/>
+      <c r="AD94" s="154"/>
       <c r="AE94" s="82"/>
       <c r="AF94" s="82"/>
       <c r="AG94" s="82"/>
       <c r="AH94" s="82"/>
       <c r="AI94" s="82"/>
       <c r="AJ94" s="82"/>
-      <c r="AK94" s="242"/>
+      <c r="AK94" s="143"/>
       <c r="AL94" s="82"/>
       <c r="AM94" s="57"/>
       <c r="AN94" s="57"/>
@@ -8809,7 +8819,7 @@
       <c r="AH95" s="82"/>
       <c r="AI95" s="82"/>
       <c r="AJ95" s="82"/>
-      <c r="AK95" s="242"/>
+      <c r="AK95" s="143"/>
       <c r="AL95" s="82"/>
       <c r="AM95" s="57"/>
       <c r="AN95" s="57"/>
@@ -8863,7 +8873,7 @@
       <c r="AH96" s="82"/>
       <c r="AI96" s="82"/>
       <c r="AJ96" s="82"/>
-      <c r="AK96" s="242"/>
+      <c r="AK96" s="143"/>
       <c r="AL96" s="82"/>
       <c r="AM96" s="57"/>
       <c r="AN96" s="57"/>
@@ -8893,31 +8903,31 @@
       <c r="J97" s="57"/>
       <c r="K97" s="57"/>
       <c r="L97" s="57"/>
-      <c r="M97" s="237"/>
-      <c r="N97" s="249"/>
-      <c r="O97" s="249"/>
-      <c r="P97" s="249"/>
-      <c r="Q97" s="249"/>
-      <c r="R97" s="249"/>
-      <c r="S97" s="249"/>
-      <c r="T97" s="249"/>
-      <c r="U97" s="249"/>
-      <c r="V97" s="249"/>
-      <c r="W97" s="249"/>
-      <c r="X97" s="249"/>
-      <c r="Y97" s="249"/>
-      <c r="Z97" s="249"/>
-      <c r="AA97" s="249"/>
-      <c r="AB97" s="249"/>
-      <c r="AC97" s="249"/>
-      <c r="AD97" s="249"/>
-      <c r="AE97" s="249"/>
-      <c r="AF97" s="249"/>
-      <c r="AG97" s="249"/>
-      <c r="AH97" s="249"/>
-      <c r="AI97" s="249"/>
-      <c r="AJ97" s="249"/>
-      <c r="AK97" s="249"/>
+      <c r="M97" s="138"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
+      <c r="T97" s="150"/>
+      <c r="U97" s="150"/>
+      <c r="V97" s="150"/>
+      <c r="W97" s="150"/>
+      <c r="X97" s="150"/>
+      <c r="Y97" s="150"/>
+      <c r="Z97" s="150"/>
+      <c r="AA97" s="150"/>
+      <c r="AB97" s="150"/>
+      <c r="AC97" s="150"/>
+      <c r="AD97" s="150"/>
+      <c r="AE97" s="150"/>
+      <c r="AF97" s="150"/>
+      <c r="AG97" s="150"/>
+      <c r="AH97" s="150"/>
+      <c r="AI97" s="150"/>
+      <c r="AJ97" s="150"/>
+      <c r="AK97" s="150"/>
       <c r="AL97" s="82"/>
       <c r="AM97" s="57"/>
       <c r="AN97" s="57"/>
@@ -9001,31 +9011,31 @@
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="57"/>
-      <c r="M99" s="236"/>
-      <c r="N99" s="237"/>
-      <c r="O99" s="237"/>
-      <c r="P99" s="237"/>
-      <c r="Q99" s="237"/>
-      <c r="R99" s="237"/>
-      <c r="S99" s="237"/>
-      <c r="T99" s="237"/>
-      <c r="U99" s="237"/>
-      <c r="V99" s="237"/>
-      <c r="W99" s="237"/>
-      <c r="X99" s="237"/>
-      <c r="Y99" s="237"/>
-      <c r="Z99" s="237"/>
-      <c r="AA99" s="237"/>
-      <c r="AB99" s="237"/>
-      <c r="AC99" s="237"/>
-      <c r="AD99" s="237"/>
-      <c r="AE99" s="237"/>
-      <c r="AF99" s="237"/>
-      <c r="AG99" s="237"/>
-      <c r="AH99" s="237"/>
-      <c r="AI99" s="237"/>
-      <c r="AJ99" s="237"/>
-      <c r="AK99" s="238"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="138"/>
+      <c r="O99" s="138"/>
+      <c r="P99" s="138"/>
+      <c r="Q99" s="138"/>
+      <c r="R99" s="138"/>
+      <c r="S99" s="138"/>
+      <c r="T99" s="138"/>
+      <c r="U99" s="138"/>
+      <c r="V99" s="138"/>
+      <c r="W99" s="138"/>
+      <c r="X99" s="138"/>
+      <c r="Y99" s="138"/>
+      <c r="Z99" s="138"/>
+      <c r="AA99" s="138"/>
+      <c r="AB99" s="138"/>
+      <c r="AC99" s="138"/>
+      <c r="AD99" s="138"/>
+      <c r="AE99" s="138"/>
+      <c r="AF99" s="138"/>
+      <c r="AG99" s="138"/>
+      <c r="AH99" s="138"/>
+      <c r="AI99" s="138"/>
+      <c r="AJ99" s="138"/>
+      <c r="AK99" s="139"/>
       <c r="AL99" s="57"/>
       <c r="AM99" s="57"/>
       <c r="AN99" s="57"/>
@@ -9061,19 +9071,19 @@
       <c r="P100" s="57"/>
       <c r="Q100" s="57"/>
       <c r="R100" s="57"/>
-      <c r="T100" s="251" t="s">
+      <c r="T100" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="U100" s="251"/>
-      <c r="V100" s="251"/>
-      <c r="W100" s="251"/>
-      <c r="X100" s="251"/>
-      <c r="Y100" s="251"/>
-      <c r="Z100" s="251"/>
-      <c r="AA100" s="251"/>
-      <c r="AB100" s="251"/>
-      <c r="AC100" s="251"/>
-      <c r="AD100" s="253"/>
+      <c r="U100" s="166"/>
+      <c r="V100" s="166"/>
+      <c r="W100" s="166"/>
+      <c r="X100" s="166"/>
+      <c r="Y100" s="166"/>
+      <c r="Z100" s="166"/>
+      <c r="AA100" s="166"/>
+      <c r="AB100" s="166"/>
+      <c r="AC100" s="166"/>
+      <c r="AD100" s="153"/>
       <c r="AE100" s="57"/>
       <c r="AF100" s="57"/>
       <c r="AG100" s="57"/>
@@ -9116,18 +9126,18 @@
       <c r="P101" s="57"/>
       <c r="Q101" s="57"/>
       <c r="R101" s="57"/>
-      <c r="S101" s="253"/>
-      <c r="T101" s="251"/>
-      <c r="U101" s="251"/>
-      <c r="V101" s="251"/>
-      <c r="W101" s="251"/>
-      <c r="X101" s="251"/>
-      <c r="Y101" s="251"/>
-      <c r="Z101" s="251"/>
-      <c r="AA101" s="251"/>
-      <c r="AB101" s="251"/>
-      <c r="AC101" s="251"/>
-      <c r="AD101" s="253"/>
+      <c r="S101" s="153"/>
+      <c r="T101" s="166"/>
+      <c r="U101" s="166"/>
+      <c r="V101" s="166"/>
+      <c r="W101" s="166"/>
+      <c r="X101" s="166"/>
+      <c r="Y101" s="166"/>
+      <c r="Z101" s="166"/>
+      <c r="AA101" s="166"/>
+      <c r="AB101" s="166"/>
+      <c r="AC101" s="166"/>
+      <c r="AD101" s="153"/>
       <c r="AE101" s="57"/>
       <c r="AF101" s="57"/>
       <c r="AG101" s="57"/>
@@ -9170,18 +9180,18 @@
       <c r="P102" s="57"/>
       <c r="Q102" s="57"/>
       <c r="R102" s="57"/>
-      <c r="S102" s="253"/>
-      <c r="T102" s="251"/>
-      <c r="U102" s="251"/>
-      <c r="V102" s="251"/>
-      <c r="W102" s="251"/>
-      <c r="X102" s="251"/>
-      <c r="Y102" s="251"/>
-      <c r="Z102" s="251"/>
-      <c r="AA102" s="251"/>
-      <c r="AB102" s="251"/>
-      <c r="AC102" s="251"/>
-      <c r="AD102" s="253"/>
+      <c r="S102" s="153"/>
+      <c r="T102" s="166"/>
+      <c r="U102" s="166"/>
+      <c r="V102" s="166"/>
+      <c r="W102" s="166"/>
+      <c r="X102" s="166"/>
+      <c r="Y102" s="166"/>
+      <c r="Z102" s="166"/>
+      <c r="AA102" s="166"/>
+      <c r="AB102" s="166"/>
+      <c r="AC102" s="166"/>
+      <c r="AD102" s="153"/>
       <c r="AE102" s="57"/>
       <c r="AF102" s="57"/>
       <c r="AG102" s="57"/>
@@ -9328,7 +9338,7 @@
       <c r="L105" s="57"/>
       <c r="M105" s="88"/>
       <c r="N105" s="57"/>
-      <c r="O105" s="252" t="s">
+      <c r="O105" s="152" t="s">
         <v>68</v>
       </c>
       <c r="P105" s="57"/>
@@ -9438,7 +9448,7 @@
       <c r="L107" s="57"/>
       <c r="M107" s="88"/>
       <c r="N107" s="57"/>
-      <c r="O107" s="248" t="s">
+      <c r="O107" s="149" t="s">
         <v>69</v>
       </c>
       <c r="P107" s="119"/>
@@ -9548,7 +9558,7 @@
       <c r="L109" s="57"/>
       <c r="M109" s="88"/>
       <c r="N109" s="57"/>
-      <c r="O109" s="252" t="s">
+      <c r="O109" s="152" t="s">
         <v>71</v>
       </c>
       <c r="P109" s="57"/>
@@ -9658,7 +9668,7 @@
       <c r="L111" s="57"/>
       <c r="M111" s="88"/>
       <c r="N111" s="57"/>
-      <c r="O111" s="248" t="s">
+      <c r="O111" s="149" t="s">
         <v>70</v>
       </c>
       <c r="P111" s="119"/>
@@ -9768,7 +9778,7 @@
       <c r="L113" s="57"/>
       <c r="M113" s="88"/>
       <c r="N113" s="57"/>
-      <c r="O113" s="252" t="s">
+      <c r="O113" s="152" t="s">
         <v>72</v>
       </c>
       <c r="P113" s="57"/>
@@ -9878,7 +9888,7 @@
       <c r="L115" s="57"/>
       <c r="M115" s="88"/>
       <c r="N115" s="57"/>
-      <c r="O115" s="248" t="s">
+      <c r="O115" s="149" t="s">
         <v>73</v>
       </c>
       <c r="P115" s="119"/>
@@ -9988,7 +9998,7 @@
       <c r="L117" s="57"/>
       <c r="M117" s="88"/>
       <c r="N117" s="57"/>
-      <c r="O117" s="252" t="s">
+      <c r="O117" s="152" t="s">
         <v>60</v>
       </c>
       <c r="P117" s="57"/>
@@ -10098,7 +10108,7 @@
       <c r="L119" s="57"/>
       <c r="M119" s="88"/>
       <c r="N119" s="57"/>
-      <c r="O119" s="248" t="s">
+      <c r="O119" s="149" t="s">
         <v>74</v>
       </c>
       <c r="P119" s="119"/>
@@ -10208,7 +10218,7 @@
       <c r="L121" s="57"/>
       <c r="M121" s="88"/>
       <c r="N121" s="57"/>
-      <c r="O121" s="252" t="s">
+      <c r="O121" s="152" t="s">
         <v>75</v>
       </c>
       <c r="P121" s="57"/>
@@ -10318,7 +10328,7 @@
       <c r="L123" s="57"/>
       <c r="M123" s="88"/>
       <c r="N123" s="57"/>
-      <c r="O123" s="248" t="s">
+      <c r="O123" s="149" t="s">
         <v>76</v>
       </c>
       <c r="P123" s="119"/>
@@ -10487,17 +10497,17 @@
       <c r="Q126" s="57"/>
       <c r="R126" s="57"/>
       <c r="S126" s="57"/>
-      <c r="T126" s="259" t="s">
+      <c r="T126" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="U126" s="254"/>
-      <c r="V126" s="254"/>
-      <c r="W126" s="254"/>
-      <c r="X126" s="254"/>
-      <c r="Y126" s="254"/>
-      <c r="Z126" s="254"/>
-      <c r="AA126" s="254"/>
-      <c r="AB126" s="255"/>
+      <c r="U126" s="167"/>
+      <c r="V126" s="167"/>
+      <c r="W126" s="167"/>
+      <c r="X126" s="167"/>
+      <c r="Y126" s="167"/>
+      <c r="Z126" s="167"/>
+      <c r="AA126" s="167"/>
+      <c r="AB126" s="168"/>
       <c r="AC126" s="57"/>
       <c r="AD126" s="57"/>
       <c r="AE126" s="57"/>
@@ -10543,15 +10553,15 @@
       <c r="Q127" s="57"/>
       <c r="R127" s="57"/>
       <c r="S127" s="57"/>
-      <c r="T127" s="256"/>
-      <c r="U127" s="257"/>
-      <c r="V127" s="257"/>
-      <c r="W127" s="257"/>
-      <c r="X127" s="257"/>
-      <c r="Y127" s="257"/>
-      <c r="Z127" s="257"/>
-      <c r="AA127" s="257"/>
-      <c r="AB127" s="258"/>
+      <c r="T127" s="169"/>
+      <c r="U127" s="170"/>
+      <c r="V127" s="170"/>
+      <c r="W127" s="170"/>
+      <c r="X127" s="170"/>
+      <c r="Y127" s="170"/>
+      <c r="Z127" s="170"/>
+      <c r="AA127" s="170"/>
+      <c r="AB127" s="171"/>
       <c r="AC127" s="57"/>
       <c r="AD127" s="57"/>
       <c r="AE127" s="57"/>
@@ -10796,11 +10806,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="T91:AB92"/>
-    <mergeCell ref="T100:AC102"/>
-    <mergeCell ref="T126:AB127"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="T76:AC78"/>
     <mergeCell ref="A1:C2"/>
@@ -10817,6 +10822,11 @@
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="T91:AB92"/>
+    <mergeCell ref="T100:AC102"/>
+    <mergeCell ref="T126:AB127"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" scale="51" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10845,220 +10855,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="165" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="165" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="166"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="166"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="166"/>
-      <c r="AV1" s="166"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="216"/>
+      <c r="AT1" s="216"/>
+      <c r="AU1" s="216"/>
+      <c r="AV1" s="216"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="159" t="s">
+      <c r="A2" s="218"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="219"/>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="159"/>
-      <c r="AU2" s="159"/>
-      <c r="AV2" s="159"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="209"/>
+      <c r="AN2" s="209"/>
+      <c r="AO2" s="209"/>
+      <c r="AP2" s="209"/>
+      <c r="AQ2" s="209"/>
+      <c r="AR2" s="209"/>
+      <c r="AS2" s="209"/>
+      <c r="AT2" s="209"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="209"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="171" t="s">
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="173" t="s">
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176" t="s">
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="224"/>
+      <c r="AC3" s="224"/>
+      <c r="AD3" s="224"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="164" t="s">
+      <c r="AG3" s="227"/>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="227"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="208"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="210"/>
+      <c r="AO3" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="159"/>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="159"/>
+      <c r="AP3" s="209"/>
+      <c r="AQ3" s="209"/>
+      <c r="AR3" s="209"/>
+      <c r="AS3" s="209"/>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="179" t="s">
+      <c r="A4" s="221"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="225"/>
+      <c r="AF4" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="181"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="164"/>
+      <c r="AG4" s="230"/>
+      <c r="AH4" s="230"/>
+      <c r="AI4" s="230"/>
+      <c r="AJ4" s="231"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="212"/>
+      <c r="AM4" s="212"/>
+      <c r="AN4" s="213"/>
+      <c r="AO4" s="212"/>
+      <c r="AP4" s="212"/>
+      <c r="AQ4" s="212"/>
+      <c r="AR4" s="212"/>
+      <c r="AS4" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -11093,176 +11103,176 @@
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="191" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="197" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="199"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="133" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="189"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="201" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="213"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="255"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="263"/>
       <c r="W3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="216"/>
-      <c r="AC3" s="217"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="267"/>
       <c r="AD3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="AE3" s="27"/>
       <c r="AF3" s="28"/>
-      <c r="AG3" s="218"/>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="219"/>
-      <c r="AJ3" s="220"/>
+      <c r="AG3" s="268"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="269"/>
+      <c r="AJ3" s="270"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="215"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="258"/>
+      <c r="U4" s="258"/>
+      <c r="V4" s="265"/>
       <c r="W4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
-      <c r="Z4" s="182"/>
-      <c r="AA4" s="182"/>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="183"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
       <c r="AD4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AE4" s="29"/>
       <c r="AF4" s="30"/>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="186"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" s="47">

--- a/doc/design/layout/EnglishSound_Design.xlsx
+++ b/doc/design/layout/EnglishSound_Design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Github\word-of-the-day\doc\design\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8655E-8CE2-4E2C-B405-61EA94934FC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956A572-3F2F-4260-8D54-1315321992F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Hộp_thoại_tìm_và_nạp_khách_hàng_có_sẵn">#REF!</definedName>
     <definedName name="Màn_hình_thêm_thiết_bị__thiết_bị_này_do_đối_tác_bên_ngoài_cung_cấp">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Layout_Menu!$A$1:$BA$131</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Layout_Menu!$A$1:$BA$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Record of change'!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Template!$A$1:$AJ$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Layout_Menu!$1:$4</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <r>
       <t>*A - Add</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>The first version</t>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>Sign in</t>
-  </si>
-  <si>
-    <t>10/12/2018</t>
   </si>
   <si>
     <t>Dictionary</t>
@@ -328,10 +322,37 @@
     <t>3. Sign In and Sign up form</t>
   </si>
   <si>
-    <t>20/12/2018</t>
+    <t>Quan.N.C.T</t>
   </si>
   <si>
-    <t>Quan.N.C.T</t>
+    <t>4. Upload Page</t>
+  </si>
+  <si>
+    <t>WORD:</t>
+  </si>
+  <si>
+    <t>Enter word…</t>
+  </si>
+  <si>
+    <t>EXPLAIN:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter word description link or directory </t>
+  </si>
+  <si>
+    <t>AUDIO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter audio link or directory </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>25/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the upload page </t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2192,7 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,52 +2411,13 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="30" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="29" borderId="26" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2528,10 +2510,49 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="38" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="24" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,6 +2744,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2808,8 +2834,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF0000CC"/>
       <color rgb="FF000099"/>
       <color rgb="FFFF33CC"/>
@@ -3224,6 +3250,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141A4F09-8B08-46CB-990D-7950F426CCCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="177800" y="25476200"/>
+          <a:ext cx="440267" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3618,17 +3705,17 @@
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="76" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3644,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ131"/>
+  <dimension ref="A1:AZ164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+      <selection activeCell="D1" sqref="D1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.8"/>
@@ -3674,236 +3761,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12.15" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>25</v>
+      <c r="A1" s="163" t="s">
+        <v>24</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="180" t="s">
-        <v>34</v>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="167" t="s">
+        <v>33</v>
       </c>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="184" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="171" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="173"/>
+    </row>
+    <row r="2" spans="1:52" ht="14.1" customHeight="1">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="185"/>
-      <c r="AJ1" s="185"/>
-      <c r="AK1" s="185"/>
-      <c r="AL1" s="185"/>
-      <c r="AM1" s="185"/>
-      <c r="AN1" s="185"/>
-      <c r="AO1" s="185"/>
-      <c r="AP1" s="185"/>
-      <c r="AQ1" s="185"/>
-      <c r="AR1" s="185"/>
-      <c r="AS1" s="185"/>
-      <c r="AT1" s="185"/>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="186"/>
-    </row>
-    <row r="2" spans="1:52" ht="14.1" customHeight="1">
-      <c r="A2" s="178"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="187" t="s">
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="176"/>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="188"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="188"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="188"/>
-      <c r="AT2" s="188"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="189"/>
-    </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="190" t="s">
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="191"/>
+      <c r="AJ3" s="191"/>
+      <c r="AK3" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL3" s="193"/>
+      <c r="AM3" s="193"/>
+      <c r="AN3" s="193"/>
+      <c r="AO3" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="191"/>
+      <c r="AQ3" s="191"/>
+      <c r="AR3" s="191"/>
+      <c r="AS3" s="194" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="194"/>
+      <c r="AU3" s="194"/>
+      <c r="AV3" s="195"/>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="187"/>
+      <c r="AE4" s="188"/>
+      <c r="AF4" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="196" t="s">
-        <v>19</v>
+      <c r="AG4" s="196"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="192" t="s">
+        <v>88</v>
       </c>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="196" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="204" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="204"/>
-      <c r="AK3" s="205" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="172"/>
-      <c r="AO3" s="204" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="204"/>
-      <c r="AQ3" s="204"/>
-      <c r="AR3" s="204"/>
-      <c r="AS3" s="206" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT3" s="206"/>
-      <c r="AU3" s="206"/>
-      <c r="AV3" s="207"/>
-    </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="200"/>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="173" t="s">
+      <c r="AL4" s="193"/>
+      <c r="AM4" s="193"/>
+      <c r="AN4" s="193"/>
+      <c r="AO4" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="173"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="173"/>
-      <c r="AK4" s="205" t="s">
-        <v>81</v>
+      <c r="AP4" s="196"/>
+      <c r="AQ4" s="196"/>
+      <c r="AR4" s="196"/>
+      <c r="AS4" s="160" t="s">
+        <v>79</v>
       </c>
-      <c r="AL4" s="172"/>
-      <c r="AM4" s="172"/>
-      <c r="AN4" s="172"/>
-      <c r="AO4" s="173" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP4" s="173"/>
-      <c r="AQ4" s="173"/>
-      <c r="AR4" s="173"/>
-      <c r="AS4" s="174" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT4" s="174"/>
-      <c r="AU4" s="174"/>
-      <c r="AV4" s="175"/>
+      <c r="AT4" s="160"/>
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="161"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="6"/>
@@ -3957,7 +4044,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -4060,7 +4147,7 @@
     <row r="8" spans="1:52">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4112,7 +4199,7 @@
     <row r="9" spans="1:52">
       <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4164,7 +4251,7 @@
     <row r="10" spans="1:52">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="12"/>
@@ -4315,7 +4402,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -4368,7 +4455,7 @@
     <row r="14" spans="1:52">
       <c r="A14" s="64"/>
       <c r="B14" s="65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -4421,7 +4508,7 @@
       <c r="A15" s="59"/>
       <c r="B15" s="60"/>
       <c r="C15" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
@@ -4529,7 +4616,7 @@
       <c r="C17" s="99"/>
       <c r="D17" s="100"/>
       <c r="E17" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="101"/>
@@ -4538,34 +4625,34 @@
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
       <c r="L17" s="116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M17" s="100"/>
       <c r="N17" s="100"/>
       <c r="O17" s="99"/>
       <c r="P17" s="99"/>
       <c r="Q17" s="116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="99"/>
       <c r="S17" s="99"/>
       <c r="T17" s="99"/>
       <c r="U17" s="99"/>
       <c r="V17" s="116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W17" s="99"/>
       <c r="X17" s="99"/>
       <c r="Y17" s="99"/>
       <c r="Z17" s="116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA17" s="99"/>
       <c r="AB17" s="99"/>
       <c r="AC17" s="99"/>
       <c r="AD17" s="114"/>
       <c r="AE17" s="116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF17" s="99"/>
       <c r="AG17" s="99"/>
@@ -4574,21 +4661,21 @@
       <c r="AJ17" s="114"/>
       <c r="AK17" s="99"/>
       <c r="AL17" s="116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM17" s="102"/>
       <c r="AN17" s="99"/>
       <c r="AO17" s="99"/>
       <c r="AP17" s="99"/>
       <c r="AQ17" s="115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR17" s="99"/>
       <c r="AS17" s="99"/>
       <c r="AT17" s="99"/>
       <c r="AU17" s="99"/>
       <c r="AV17" s="116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AW17" s="113"/>
       <c r="AX17" s="99"/>
@@ -4823,37 +4910,37 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="182" t="s">
-        <v>43</v>
+      <c r="L22" s="169" t="s">
+        <v>41</v>
       </c>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="183"/>
-      <c r="AJ22" s="183"/>
-      <c r="AK22" s="183"/>
-      <c r="AL22" s="183"/>
-      <c r="AM22" s="183"/>
-      <c r="AN22" s="183"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="170"/>
+      <c r="S22" s="170"/>
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
+      <c r="Y22" s="170"/>
+      <c r="Z22" s="170"/>
+      <c r="AA22" s="170"/>
+      <c r="AB22" s="170"/>
+      <c r="AC22" s="170"/>
+      <c r="AD22" s="170"/>
+      <c r="AE22" s="170"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="170"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="170"/>
+      <c r="AJ22" s="170"/>
+      <c r="AK22" s="170"/>
+      <c r="AL22" s="170"/>
+      <c r="AM22" s="170"/>
+      <c r="AN22" s="170"/>
       <c r="AO22" s="57"/>
       <c r="AP22" s="57"/>
       <c r="AQ22" s="57"/>
@@ -4879,35 +4966,35 @@
       <c r="I23" s="57"/>
       <c r="J23" s="72"/>
       <c r="K23" s="57"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="183"/>
-      <c r="AJ23" s="183"/>
-      <c r="AK23" s="183"/>
-      <c r="AL23" s="183"/>
-      <c r="AM23" s="183"/>
-      <c r="AN23" s="183"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="170"/>
+      <c r="AC23" s="170"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="170"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="170"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="170"/>
+      <c r="AJ23" s="170"/>
+      <c r="AK23" s="170"/>
+      <c r="AL23" s="170"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="170"/>
       <c r="AO23" s="57"/>
       <c r="AP23" s="57"/>
       <c r="AQ23" s="57"/>
@@ -4933,35 +5020,35 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="183"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="183"/>
-      <c r="AJ24" s="183"/>
-      <c r="AK24" s="183"/>
-      <c r="AL24" s="183"/>
-      <c r="AM24" s="183"/>
-      <c r="AN24" s="183"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="170"/>
+      <c r="AC24" s="170"/>
+      <c r="AD24" s="170"/>
+      <c r="AE24" s="170"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
+      <c r="AI24" s="170"/>
+      <c r="AJ24" s="170"/>
+      <c r="AK24" s="170"/>
+      <c r="AL24" s="170"/>
+      <c r="AM24" s="170"/>
+      <c r="AN24" s="170"/>
       <c r="AO24" s="57"/>
       <c r="AP24" s="57"/>
       <c r="AQ24" s="57"/>
@@ -5042,7 +5129,7 @@
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
       <c r="L26" s="131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="57"/>
@@ -5078,7 +5165,7 @@
       <c r="AR26" s="57"/>
       <c r="AS26" s="57"/>
       <c r="AT26" s="79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU26" s="57"/>
       <c r="AV26" s="57"/>
@@ -5097,7 +5184,7 @@
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>
       <c r="I27" s="147" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J27" s="122"/>
       <c r="K27" s="119"/>
@@ -5135,7 +5222,7 @@
       <c r="AQ27" s="123"/>
       <c r="AR27" s="124"/>
       <c r="AS27" s="125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT27" s="124"/>
       <c r="AU27" s="124"/>
@@ -6231,7 +6318,7 @@
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="57"/>
@@ -6596,11 +6683,11 @@
     </row>
     <row r="55" spans="1:52" ht="13.8" customHeight="1">
       <c r="C55" s="133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
@@ -6647,11 +6734,11 @@
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="57"/>
       <c r="E56" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
@@ -6705,11 +6792,11 @@
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="132" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" s="57"/>
       <c r="E57" s="81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
@@ -6764,11 +6851,11 @@
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
       <c r="D58" s="132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58" s="57"/>
       <c r="F58" s="134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G58" s="135"/>
       <c r="H58" s="135"/>
@@ -6822,11 +6909,11 @@
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
       <c r="D59" s="132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E59" s="57"/>
       <c r="F59" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
@@ -6880,11 +6967,11 @@
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
       <c r="D60" s="132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
@@ -7583,7 +7670,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="156" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="157"/>
       <c r="C73" s="157"/>
@@ -7765,18 +7852,18 @@
       <c r="Q76" s="57"/>
       <c r="R76" s="57"/>
       <c r="S76" s="57"/>
-      <c r="T76" s="166" t="s">
-        <v>59</v>
+      <c r="T76" s="162" t="s">
+        <v>57</v>
       </c>
-      <c r="U76" s="166"/>
-      <c r="V76" s="166"/>
-      <c r="W76" s="166"/>
-      <c r="X76" s="166"/>
-      <c r="Y76" s="166"/>
-      <c r="Z76" s="166"/>
-      <c r="AA76" s="166"/>
-      <c r="AB76" s="166"/>
-      <c r="AC76" s="166"/>
+      <c r="U76" s="162"/>
+      <c r="V76" s="162"/>
+      <c r="W76" s="162"/>
+      <c r="X76" s="162"/>
+      <c r="Y76" s="162"/>
+      <c r="Z76" s="162"/>
+      <c r="AA76" s="162"/>
+      <c r="AB76" s="162"/>
+      <c r="AC76" s="162"/>
       <c r="AD76" s="57"/>
       <c r="AE76" s="57"/>
       <c r="AF76" s="57"/>
@@ -7821,16 +7908,16 @@
       <c r="Q77" s="57"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="166"/>
-      <c r="U77" s="166"/>
-      <c r="V77" s="166"/>
-      <c r="W77" s="166"/>
-      <c r="X77" s="166"/>
-      <c r="Y77" s="166"/>
-      <c r="Z77" s="166"/>
-      <c r="AA77" s="166"/>
-      <c r="AB77" s="166"/>
-      <c r="AC77" s="166"/>
+      <c r="T77" s="162"/>
+      <c r="U77" s="162"/>
+      <c r="V77" s="162"/>
+      <c r="W77" s="162"/>
+      <c r="X77" s="162"/>
+      <c r="Y77" s="162"/>
+      <c r="Z77" s="162"/>
+      <c r="AA77" s="162"/>
+      <c r="AB77" s="162"/>
+      <c r="AC77" s="162"/>
       <c r="AD77" s="57"/>
       <c r="AE77" s="57"/>
       <c r="AF77" s="57"/>
@@ -7875,16 +7962,16 @@
       <c r="Q78" s="129"/>
       <c r="R78" s="130"/>
       <c r="S78" s="130"/>
-      <c r="T78" s="166"/>
-      <c r="U78" s="166"/>
-      <c r="V78" s="166"/>
-      <c r="W78" s="166"/>
-      <c r="X78" s="166"/>
-      <c r="Y78" s="166"/>
-      <c r="Z78" s="166"/>
-      <c r="AA78" s="166"/>
-      <c r="AB78" s="166"/>
-      <c r="AC78" s="166"/>
+      <c r="T78" s="162"/>
+      <c r="U78" s="162"/>
+      <c r="V78" s="162"/>
+      <c r="W78" s="162"/>
+      <c r="X78" s="162"/>
+      <c r="Y78" s="162"/>
+      <c r="Z78" s="162"/>
+      <c r="AA78" s="162"/>
+      <c r="AB78" s="162"/>
+      <c r="AC78" s="162"/>
       <c r="AD78" s="57"/>
       <c r="AE78" s="57"/>
       <c r="AF78" s="57"/>
@@ -7979,7 +8066,7 @@
       <c r="M80" s="88"/>
       <c r="N80" s="57"/>
       <c r="O80" s="152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P80" s="57"/>
       <c r="Q80" s="57"/>
@@ -8089,7 +8176,7 @@
       <c r="M82" s="88"/>
       <c r="N82" s="74"/>
       <c r="O82" s="146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P82" s="71"/>
       <c r="Q82" s="144"/>
@@ -8253,7 +8340,7 @@
       <c r="M85" s="88"/>
       <c r="N85" s="57"/>
       <c r="O85" s="152" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P85" s="57"/>
       <c r="Q85" s="57"/>
@@ -8363,7 +8450,7 @@
       <c r="M87" s="88"/>
       <c r="N87" s="80"/>
       <c r="O87" s="149" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P87" s="119"/>
       <c r="Q87" s="119"/>
@@ -8585,17 +8672,17 @@
       <c r="Q91" s="85"/>
       <c r="R91" s="83"/>
       <c r="S91" s="83"/>
-      <c r="T91" s="160" t="s">
-        <v>59</v>
+      <c r="T91" s="197" t="s">
+        <v>57</v>
       </c>
-      <c r="U91" s="161"/>
-      <c r="V91" s="161"/>
-      <c r="W91" s="161"/>
-      <c r="X91" s="161"/>
-      <c r="Y91" s="161"/>
-      <c r="Z91" s="161"/>
-      <c r="AA91" s="161"/>
-      <c r="AB91" s="162"/>
+      <c r="U91" s="198"/>
+      <c r="V91" s="198"/>
+      <c r="W91" s="198"/>
+      <c r="X91" s="198"/>
+      <c r="Y91" s="198"/>
+      <c r="Z91" s="198"/>
+      <c r="AA91" s="198"/>
+      <c r="AB91" s="199"/>
       <c r="AC91" s="83"/>
       <c r="AD91" s="83"/>
       <c r="AE91" s="83"/>
@@ -8641,15 +8728,15 @@
       <c r="Q92" s="82"/>
       <c r="R92" s="82"/>
       <c r="S92" s="82"/>
-      <c r="T92" s="163"/>
-      <c r="U92" s="164"/>
-      <c r="V92" s="164"/>
-      <c r="W92" s="164"/>
-      <c r="X92" s="164"/>
-      <c r="Y92" s="164"/>
-      <c r="Z92" s="164"/>
-      <c r="AA92" s="164"/>
-      <c r="AB92" s="165"/>
+      <c r="T92" s="200"/>
+      <c r="U92" s="201"/>
+      <c r="V92" s="201"/>
+      <c r="W92" s="201"/>
+      <c r="X92" s="201"/>
+      <c r="Y92" s="201"/>
+      <c r="Z92" s="201"/>
+      <c r="AA92" s="201"/>
+      <c r="AB92" s="202"/>
       <c r="AC92" s="82"/>
       <c r="AD92" s="82"/>
       <c r="AE92" s="82"/>
@@ -8748,7 +8835,7 @@
       <c r="R94" s="154"/>
       <c r="S94" s="154"/>
       <c r="T94" s="151" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U94" s="154"/>
       <c r="V94" s="154"/>
@@ -9071,18 +9158,18 @@
       <c r="P100" s="57"/>
       <c r="Q100" s="57"/>
       <c r="R100" s="57"/>
-      <c r="T100" s="166" t="s">
-        <v>67</v>
+      <c r="T100" s="162" t="s">
+        <v>65</v>
       </c>
-      <c r="U100" s="166"/>
-      <c r="V100" s="166"/>
-      <c r="W100" s="166"/>
-      <c r="X100" s="166"/>
-      <c r="Y100" s="166"/>
-      <c r="Z100" s="166"/>
-      <c r="AA100" s="166"/>
-      <c r="AB100" s="166"/>
-      <c r="AC100" s="166"/>
+      <c r="U100" s="162"/>
+      <c r="V100" s="162"/>
+      <c r="W100" s="162"/>
+      <c r="X100" s="162"/>
+      <c r="Y100" s="162"/>
+      <c r="Z100" s="162"/>
+      <c r="AA100" s="162"/>
+      <c r="AB100" s="162"/>
+      <c r="AC100" s="162"/>
       <c r="AD100" s="153"/>
       <c r="AE100" s="57"/>
       <c r="AF100" s="57"/>
@@ -9127,16 +9214,16 @@
       <c r="Q101" s="57"/>
       <c r="R101" s="57"/>
       <c r="S101" s="153"/>
-      <c r="T101" s="166"/>
-      <c r="U101" s="166"/>
-      <c r="V101" s="166"/>
-      <c r="W101" s="166"/>
-      <c r="X101" s="166"/>
-      <c r="Y101" s="166"/>
-      <c r="Z101" s="166"/>
-      <c r="AA101" s="166"/>
-      <c r="AB101" s="166"/>
-      <c r="AC101" s="166"/>
+      <c r="T101" s="162"/>
+      <c r="U101" s="162"/>
+      <c r="V101" s="162"/>
+      <c r="W101" s="162"/>
+      <c r="X101" s="162"/>
+      <c r="Y101" s="162"/>
+      <c r="Z101" s="162"/>
+      <c r="AA101" s="162"/>
+      <c r="AB101" s="162"/>
+      <c r="AC101" s="162"/>
       <c r="AD101" s="153"/>
       <c r="AE101" s="57"/>
       <c r="AF101" s="57"/>
@@ -9181,16 +9268,16 @@
       <c r="Q102" s="57"/>
       <c r="R102" s="57"/>
       <c r="S102" s="153"/>
-      <c r="T102" s="166"/>
-      <c r="U102" s="166"/>
-      <c r="V102" s="166"/>
-      <c r="W102" s="166"/>
-      <c r="X102" s="166"/>
-      <c r="Y102" s="166"/>
-      <c r="Z102" s="166"/>
-      <c r="AA102" s="166"/>
-      <c r="AB102" s="166"/>
-      <c r="AC102" s="166"/>
+      <c r="T102" s="162"/>
+      <c r="U102" s="162"/>
+      <c r="V102" s="162"/>
+      <c r="W102" s="162"/>
+      <c r="X102" s="162"/>
+      <c r="Y102" s="162"/>
+      <c r="Z102" s="162"/>
+      <c r="AA102" s="162"/>
+      <c r="AB102" s="162"/>
+      <c r="AC102" s="162"/>
       <c r="AD102" s="153"/>
       <c r="AE102" s="57"/>
       <c r="AF102" s="57"/>
@@ -9339,7 +9426,7 @@
       <c r="M105" s="88"/>
       <c r="N105" s="57"/>
       <c r="O105" s="152" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P105" s="57"/>
       <c r="Q105" s="57"/>
@@ -9449,7 +9536,7 @@
       <c r="M107" s="88"/>
       <c r="N107" s="57"/>
       <c r="O107" s="149" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P107" s="119"/>
       <c r="Q107" s="119"/>
@@ -9559,7 +9646,7 @@
       <c r="M109" s="88"/>
       <c r="N109" s="57"/>
       <c r="O109" s="152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P109" s="57"/>
       <c r="Q109" s="57"/>
@@ -9669,7 +9756,7 @@
       <c r="M111" s="88"/>
       <c r="N111" s="57"/>
       <c r="O111" s="149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P111" s="119"/>
       <c r="Q111" s="119"/>
@@ -9779,7 +9866,7 @@
       <c r="M113" s="88"/>
       <c r="N113" s="57"/>
       <c r="O113" s="152" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P113" s="57"/>
       <c r="Q113" s="57"/>
@@ -9889,7 +9976,7 @@
       <c r="M115" s="88"/>
       <c r="N115" s="57"/>
       <c r="O115" s="149" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P115" s="119"/>
       <c r="Q115" s="119"/>
@@ -9999,7 +10086,7 @@
       <c r="M117" s="88"/>
       <c r="N117" s="57"/>
       <c r="O117" s="152" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P117" s="57"/>
       <c r="Q117" s="57"/>
@@ -10109,7 +10196,7 @@
       <c r="M119" s="88"/>
       <c r="N119" s="57"/>
       <c r="O119" s="149" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P119" s="119"/>
       <c r="Q119" s="119"/>
@@ -10219,7 +10306,7 @@
       <c r="M121" s="88"/>
       <c r="N121" s="57"/>
       <c r="O121" s="152" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P121" s="57"/>
       <c r="Q121" s="57"/>
@@ -10329,7 +10416,7 @@
       <c r="M123" s="88"/>
       <c r="N123" s="57"/>
       <c r="O123" s="149" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P123" s="119"/>
       <c r="Q123" s="119"/>
@@ -10497,17 +10584,17 @@
       <c r="Q126" s="57"/>
       <c r="R126" s="57"/>
       <c r="S126" s="57"/>
-      <c r="T126" s="160" t="s">
-        <v>67</v>
+      <c r="T126" s="197" t="s">
+        <v>65</v>
       </c>
-      <c r="U126" s="167"/>
-      <c r="V126" s="167"/>
-      <c r="W126" s="167"/>
-      <c r="X126" s="167"/>
-      <c r="Y126" s="167"/>
-      <c r="Z126" s="167"/>
-      <c r="AA126" s="167"/>
-      <c r="AB126" s="168"/>
+      <c r="U126" s="203"/>
+      <c r="V126" s="203"/>
+      <c r="W126" s="203"/>
+      <c r="X126" s="203"/>
+      <c r="Y126" s="203"/>
+      <c r="Z126" s="203"/>
+      <c r="AA126" s="203"/>
+      <c r="AB126" s="204"/>
       <c r="AC126" s="57"/>
       <c r="AD126" s="57"/>
       <c r="AE126" s="57"/>
@@ -10553,15 +10640,15 @@
       <c r="Q127" s="57"/>
       <c r="R127" s="57"/>
       <c r="S127" s="57"/>
-      <c r="T127" s="169"/>
-      <c r="U127" s="170"/>
-      <c r="V127" s="170"/>
-      <c r="W127" s="170"/>
-      <c r="X127" s="170"/>
-      <c r="Y127" s="170"/>
-      <c r="Z127" s="170"/>
-      <c r="AA127" s="170"/>
-      <c r="AB127" s="171"/>
+      <c r="T127" s="205"/>
+      <c r="U127" s="206"/>
+      <c r="V127" s="206"/>
+      <c r="W127" s="206"/>
+      <c r="X127" s="206"/>
+      <c r="Y127" s="206"/>
+      <c r="Z127" s="206"/>
+      <c r="AA127" s="206"/>
+      <c r="AB127" s="207"/>
       <c r="AC127" s="57"/>
       <c r="AD127" s="57"/>
       <c r="AE127" s="57"/>
@@ -10803,9 +10890,1555 @@
       <c r="AY131" s="57"/>
       <c r="AZ131" s="57"/>
     </row>
+    <row r="133" spans="1:52">
+      <c r="A133" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="157"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="157"/>
+      <c r="E133" s="157"/>
+      <c r="F133" s="157"/>
+      <c r="G133" s="157"/>
+      <c r="H133" s="157"/>
+      <c r="I133" s="157"/>
+      <c r="J133" s="157"/>
+      <c r="K133" s="157"/>
+      <c r="L133" s="157"/>
+      <c r="M133" s="157"/>
+      <c r="N133" s="157"/>
+      <c r="O133" s="157"/>
+      <c r="P133" s="157"/>
+      <c r="Q133" s="157"/>
+      <c r="R133" s="157"/>
+      <c r="S133" s="157"/>
+      <c r="T133" s="157"/>
+      <c r="U133" s="157"/>
+      <c r="V133" s="157"/>
+      <c r="W133" s="157"/>
+      <c r="X133" s="157"/>
+      <c r="Y133" s="157"/>
+      <c r="Z133" s="157"/>
+      <c r="AA133" s="157"/>
+      <c r="AB133" s="157"/>
+      <c r="AC133" s="157"/>
+      <c r="AD133" s="157"/>
+      <c r="AE133" s="157"/>
+      <c r="AF133" s="157"/>
+      <c r="AG133" s="157"/>
+      <c r="AH133" s="157"/>
+      <c r="AI133" s="157"/>
+      <c r="AJ133" s="157"/>
+      <c r="AK133" s="157"/>
+      <c r="AL133" s="157"/>
+      <c r="AM133" s="157"/>
+      <c r="AN133" s="157"/>
+      <c r="AO133" s="157"/>
+      <c r="AP133" s="157"/>
+      <c r="AQ133" s="157"/>
+      <c r="AR133" s="157"/>
+      <c r="AS133" s="157"/>
+      <c r="AT133" s="157"/>
+      <c r="AU133" s="157"/>
+      <c r="AV133" s="158"/>
+    </row>
+    <row r="134" spans="1:52" ht="14.4" thickBot="1"/>
+    <row r="135" spans="1:52">
+      <c r="B135" s="93"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="94"/>
+      <c r="J135" s="94"/>
+      <c r="K135" s="94"/>
+      <c r="L135" s="94"/>
+      <c r="M135" s="94"/>
+      <c r="N135" s="94"/>
+      <c r="O135" s="94"/>
+      <c r="P135" s="94"/>
+      <c r="Q135" s="94"/>
+      <c r="R135" s="94"/>
+      <c r="S135" s="94"/>
+      <c r="T135" s="94"/>
+      <c r="U135" s="94"/>
+      <c r="V135" s="94"/>
+      <c r="W135" s="94"/>
+      <c r="X135" s="94"/>
+      <c r="Y135" s="94"/>
+      <c r="Z135" s="94"/>
+      <c r="AA135" s="94"/>
+      <c r="AB135" s="94"/>
+      <c r="AC135" s="94"/>
+      <c r="AD135" s="94"/>
+      <c r="AE135" s="94"/>
+      <c r="AF135" s="94"/>
+      <c r="AG135" s="94"/>
+      <c r="AH135" s="94"/>
+      <c r="AI135" s="94"/>
+      <c r="AJ135" s="94"/>
+      <c r="AK135" s="94"/>
+      <c r="AL135" s="94"/>
+      <c r="AM135" s="94"/>
+      <c r="AN135" s="94"/>
+      <c r="AO135" s="94"/>
+      <c r="AP135" s="94"/>
+      <c r="AQ135" s="94"/>
+      <c r="AR135" s="94"/>
+      <c r="AS135" s="94"/>
+      <c r="AT135" s="94"/>
+      <c r="AU135" s="94"/>
+      <c r="AV135" s="97"/>
+    </row>
+    <row r="136" spans="1:52" ht="24.6">
+      <c r="B136" s="98"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="99"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
+      <c r="N136" s="99"/>
+      <c r="O136" s="99"/>
+      <c r="P136" s="99"/>
+      <c r="Q136" s="99"/>
+      <c r="R136" s="99"/>
+      <c r="S136" s="99"/>
+      <c r="T136" s="99"/>
+      <c r="U136" s="99"/>
+      <c r="V136" s="99"/>
+      <c r="W136" s="99"/>
+      <c r="X136" s="99"/>
+      <c r="Y136" s="99"/>
+      <c r="Z136" s="99"/>
+      <c r="AA136" s="99"/>
+      <c r="AB136" s="99"/>
+      <c r="AC136" s="99"/>
+      <c r="AD136" s="99"/>
+      <c r="AE136" s="99"/>
+      <c r="AF136" s="99"/>
+      <c r="AG136" s="99"/>
+      <c r="AH136" s="99"/>
+      <c r="AI136" s="99"/>
+      <c r="AJ136" s="99"/>
+      <c r="AK136" s="99"/>
+      <c r="AL136" s="99"/>
+      <c r="AM136" s="99"/>
+      <c r="AN136" s="99"/>
+      <c r="AO136" s="99"/>
+      <c r="AP136" s="99"/>
+      <c r="AQ136" s="99"/>
+      <c r="AR136" s="99"/>
+      <c r="AS136" s="99"/>
+      <c r="AT136" s="99"/>
+      <c r="AU136" s="99"/>
+      <c r="AV136" s="103"/>
+    </row>
+    <row r="137" spans="1:52" ht="14.4" thickBot="1">
+      <c r="B137" s="104"/>
+      <c r="C137" s="105"/>
+      <c r="D137" s="105"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="105"/>
+      <c r="G137" s="105"/>
+      <c r="H137" s="105"/>
+      <c r="I137" s="105"/>
+      <c r="J137" s="105"/>
+      <c r="K137" s="105"/>
+      <c r="L137" s="105"/>
+      <c r="M137" s="105"/>
+      <c r="N137" s="105"/>
+      <c r="O137" s="105"/>
+      <c r="P137" s="105"/>
+      <c r="Q137" s="105"/>
+      <c r="R137" s="105"/>
+      <c r="S137" s="105"/>
+      <c r="T137" s="105"/>
+      <c r="U137" s="105"/>
+      <c r="V137" s="105"/>
+      <c r="W137" s="105"/>
+      <c r="X137" s="105"/>
+      <c r="Y137" s="105"/>
+      <c r="Z137" s="105"/>
+      <c r="AA137" s="105"/>
+      <c r="AB137" s="105"/>
+      <c r="AC137" s="105"/>
+      <c r="AD137" s="105"/>
+      <c r="AE137" s="105"/>
+      <c r="AF137" s="105"/>
+      <c r="AG137" s="105"/>
+      <c r="AH137" s="105"/>
+      <c r="AI137" s="105"/>
+      <c r="AJ137" s="105"/>
+      <c r="AK137" s="105"/>
+      <c r="AL137" s="105"/>
+      <c r="AM137" s="105"/>
+      <c r="AN137" s="105"/>
+      <c r="AO137" s="105"/>
+      <c r="AP137" s="105"/>
+      <c r="AQ137" s="105"/>
+      <c r="AR137" s="105"/>
+      <c r="AS137" s="105"/>
+      <c r="AT137" s="105"/>
+      <c r="AU137" s="105"/>
+      <c r="AV137" s="271"/>
+    </row>
+    <row r="138" spans="1:52">
+      <c r="B138" s="88"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="57"/>
+      <c r="K138" s="57"/>
+      <c r="L138" s="57"/>
+      <c r="M138" s="57"/>
+      <c r="N138" s="57"/>
+      <c r="O138" s="57"/>
+      <c r="P138" s="57"/>
+      <c r="Q138" s="57"/>
+      <c r="R138" s="57"/>
+      <c r="S138" s="57"/>
+      <c r="T138" s="57"/>
+      <c r="U138" s="57"/>
+      <c r="V138" s="57"/>
+      <c r="W138" s="57"/>
+      <c r="X138" s="57"/>
+      <c r="Y138" s="57"/>
+      <c r="Z138" s="57"/>
+      <c r="AA138" s="57"/>
+      <c r="AB138" s="57"/>
+      <c r="AC138" s="57"/>
+      <c r="AD138" s="57"/>
+      <c r="AE138" s="57"/>
+      <c r="AF138" s="57"/>
+      <c r="AG138" s="57"/>
+      <c r="AH138" s="57"/>
+      <c r="AI138" s="57"/>
+      <c r="AJ138" s="57"/>
+      <c r="AK138" s="57"/>
+      <c r="AL138" s="57"/>
+      <c r="AM138" s="57"/>
+      <c r="AN138" s="57"/>
+      <c r="AO138" s="57"/>
+      <c r="AP138" s="57"/>
+      <c r="AQ138" s="57"/>
+      <c r="AR138" s="57"/>
+      <c r="AS138" s="57"/>
+      <c r="AT138" s="57"/>
+      <c r="AU138" s="57"/>
+      <c r="AV138" s="89"/>
+    </row>
+    <row r="139" spans="1:52">
+      <c r="B139" s="88"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="57"/>
+      <c r="L139" s="57"/>
+      <c r="M139" s="57"/>
+      <c r="N139" s="57"/>
+      <c r="O139" s="57"/>
+      <c r="P139" s="57"/>
+      <c r="Q139" s="57"/>
+      <c r="R139" s="57"/>
+      <c r="S139" s="57"/>
+      <c r="T139" s="57"/>
+      <c r="U139" s="57"/>
+      <c r="V139" s="57"/>
+      <c r="W139" s="57"/>
+      <c r="X139" s="57"/>
+      <c r="Y139" s="57"/>
+      <c r="Z139" s="57"/>
+      <c r="AA139" s="57"/>
+      <c r="AB139" s="57"/>
+      <c r="AC139" s="57"/>
+      <c r="AD139" s="57"/>
+      <c r="AE139" s="57"/>
+      <c r="AF139" s="57"/>
+      <c r="AG139" s="57"/>
+      <c r="AH139" s="57"/>
+      <c r="AI139" s="57"/>
+      <c r="AJ139" s="57"/>
+      <c r="AK139" s="57"/>
+      <c r="AL139" s="57"/>
+      <c r="AM139" s="57"/>
+      <c r="AN139" s="57"/>
+      <c r="AO139" s="57"/>
+      <c r="AP139" s="57"/>
+      <c r="AQ139" s="57"/>
+      <c r="AR139" s="57"/>
+      <c r="AS139" s="57"/>
+      <c r="AT139" s="57"/>
+      <c r="AU139" s="57"/>
+      <c r="AV139" s="89"/>
+    </row>
+    <row r="140" spans="1:52">
+      <c r="B140" s="88"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="57"/>
+      <c r="L140" s="57"/>
+      <c r="M140" s="57"/>
+      <c r="N140" s="57"/>
+      <c r="O140" s="57"/>
+      <c r="P140" s="57"/>
+      <c r="Q140" s="57"/>
+      <c r="R140" s="57"/>
+      <c r="S140" s="57"/>
+      <c r="T140" s="57"/>
+      <c r="U140" s="57"/>
+      <c r="V140" s="57"/>
+      <c r="W140" s="57"/>
+      <c r="X140" s="57"/>
+      <c r="Y140" s="57"/>
+      <c r="Z140" s="57"/>
+      <c r="AA140" s="57"/>
+      <c r="AB140" s="57"/>
+      <c r="AC140" s="57"/>
+      <c r="AD140" s="57"/>
+      <c r="AE140" s="57"/>
+      <c r="AF140" s="57"/>
+      <c r="AG140" s="57"/>
+      <c r="AH140" s="57"/>
+      <c r="AI140" s="57"/>
+      <c r="AJ140" s="57"/>
+      <c r="AK140" s="57"/>
+      <c r="AL140" s="57"/>
+      <c r="AM140" s="57"/>
+      <c r="AN140" s="57"/>
+      <c r="AO140" s="57"/>
+      <c r="AP140" s="57"/>
+      <c r="AQ140" s="57"/>
+      <c r="AR140" s="57"/>
+      <c r="AS140" s="57"/>
+      <c r="AT140" s="57"/>
+      <c r="AU140" s="57"/>
+      <c r="AV140" s="89"/>
+    </row>
+    <row r="141" spans="1:52">
+      <c r="B141" s="88"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
+      <c r="M141" s="57"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="57"/>
+      <c r="P141" s="57"/>
+      <c r="Q141" s="57"/>
+      <c r="R141" s="57"/>
+      <c r="S141" s="57"/>
+      <c r="T141" s="57"/>
+      <c r="U141" s="57"/>
+      <c r="V141" s="57"/>
+      <c r="W141" s="57"/>
+      <c r="X141" s="57"/>
+      <c r="Y141" s="57"/>
+      <c r="Z141" s="57"/>
+      <c r="AA141" s="57"/>
+      <c r="AB141" s="57"/>
+      <c r="AC141" s="57"/>
+      <c r="AD141" s="57"/>
+      <c r="AE141" s="57"/>
+      <c r="AF141" s="57"/>
+      <c r="AG141" s="57"/>
+      <c r="AH141" s="57"/>
+      <c r="AI141" s="57"/>
+      <c r="AJ141" s="57"/>
+      <c r="AK141" s="57"/>
+      <c r="AL141" s="57"/>
+      <c r="AM141" s="57"/>
+      <c r="AN141" s="57"/>
+      <c r="AO141" s="57"/>
+      <c r="AP141" s="57"/>
+      <c r="AQ141" s="57"/>
+      <c r="AR141" s="57"/>
+      <c r="AS141" s="57"/>
+      <c r="AT141" s="57"/>
+      <c r="AU141" s="57"/>
+      <c r="AV141" s="89"/>
+    </row>
+    <row r="142" spans="1:52">
+      <c r="B142" s="88"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="57"/>
+      <c r="L142" s="57"/>
+      <c r="M142" s="57"/>
+      <c r="N142" s="57"/>
+      <c r="O142" s="57"/>
+      <c r="P142" s="57"/>
+      <c r="Q142" s="57"/>
+      <c r="R142" s="57"/>
+      <c r="S142" s="57"/>
+      <c r="T142" s="57"/>
+      <c r="U142" s="57"/>
+      <c r="V142" s="57"/>
+      <c r="W142" s="57"/>
+      <c r="X142" s="57"/>
+      <c r="Y142" s="57"/>
+      <c r="Z142" s="57"/>
+      <c r="AA142" s="57"/>
+      <c r="AB142" s="57"/>
+      <c r="AC142" s="57"/>
+      <c r="AD142" s="57"/>
+      <c r="AE142" s="57"/>
+      <c r="AF142" s="57"/>
+      <c r="AG142" s="57"/>
+      <c r="AH142" s="57"/>
+      <c r="AI142" s="57"/>
+      <c r="AJ142" s="57"/>
+      <c r="AK142" s="57"/>
+      <c r="AL142" s="57"/>
+      <c r="AM142" s="57"/>
+      <c r="AN142" s="57"/>
+      <c r="AO142" s="57"/>
+      <c r="AP142" s="57"/>
+      <c r="AQ142" s="57"/>
+      <c r="AR142" s="57"/>
+      <c r="AS142" s="57"/>
+      <c r="AT142" s="57"/>
+      <c r="AU142" s="57"/>
+      <c r="AV142" s="89"/>
+    </row>
+    <row r="143" spans="1:52">
+      <c r="B143" s="88"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="G143" s="119"/>
+      <c r="H143" s="119"/>
+      <c r="I143" s="119"/>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
+      <c r="L143" s="119"/>
+      <c r="M143" s="119"/>
+      <c r="N143" s="119"/>
+      <c r="O143" s="119"/>
+      <c r="P143" s="119"/>
+      <c r="Q143" s="119"/>
+      <c r="R143" s="119"/>
+      <c r="S143" s="119"/>
+      <c r="T143" s="119"/>
+      <c r="U143" s="119"/>
+      <c r="V143" s="119"/>
+      <c r="W143" s="119"/>
+      <c r="X143" s="119"/>
+      <c r="Y143" s="119"/>
+      <c r="Z143" s="119"/>
+      <c r="AA143" s="119"/>
+      <c r="AB143" s="119"/>
+      <c r="AC143" s="119"/>
+      <c r="AD143" s="119"/>
+      <c r="AE143" s="119"/>
+      <c r="AF143" s="119"/>
+      <c r="AG143" s="119"/>
+      <c r="AH143" s="119"/>
+      <c r="AI143" s="119"/>
+      <c r="AJ143" s="119"/>
+      <c r="AK143" s="119"/>
+      <c r="AL143" s="119"/>
+      <c r="AM143" s="119"/>
+      <c r="AN143" s="119"/>
+      <c r="AO143" s="119"/>
+      <c r="AP143" s="120"/>
+      <c r="AQ143" s="57"/>
+      <c r="AR143" s="57"/>
+      <c r="AS143" s="57"/>
+      <c r="AT143" s="57"/>
+      <c r="AU143" s="57"/>
+      <c r="AV143" s="89"/>
+    </row>
+    <row r="144" spans="1:52">
+      <c r="B144" s="88"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="57"/>
+      <c r="L144" s="57"/>
+      <c r="M144" s="57"/>
+      <c r="N144" s="57"/>
+      <c r="O144" s="57"/>
+      <c r="P144" s="57"/>
+      <c r="Q144" s="57"/>
+      <c r="R144" s="57"/>
+      <c r="S144" s="57"/>
+      <c r="T144" s="57"/>
+      <c r="U144" s="57"/>
+      <c r="V144" s="57"/>
+      <c r="W144" s="57"/>
+      <c r="X144" s="57"/>
+      <c r="Y144" s="57"/>
+      <c r="Z144" s="57"/>
+      <c r="AA144" s="57"/>
+      <c r="AB144" s="57"/>
+      <c r="AC144" s="57"/>
+      <c r="AD144" s="57"/>
+      <c r="AE144" s="57"/>
+      <c r="AF144" s="57"/>
+      <c r="AG144" s="57"/>
+      <c r="AH144" s="57"/>
+      <c r="AI144" s="57"/>
+      <c r="AJ144" s="57"/>
+      <c r="AK144" s="57"/>
+      <c r="AL144" s="57"/>
+      <c r="AM144" s="57"/>
+      <c r="AN144" s="57"/>
+      <c r="AO144" s="57"/>
+      <c r="AP144" s="57"/>
+      <c r="AQ144" s="57"/>
+      <c r="AR144" s="57"/>
+      <c r="AS144" s="57"/>
+      <c r="AT144" s="57"/>
+      <c r="AU144" s="57"/>
+      <c r="AV144" s="89"/>
+    </row>
+    <row r="145" spans="2:48">
+      <c r="B145" s="88"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="57"/>
+      <c r="L145" s="57"/>
+      <c r="M145" s="57"/>
+      <c r="N145" s="57"/>
+      <c r="O145" s="57"/>
+      <c r="P145" s="57"/>
+      <c r="Q145" s="57"/>
+      <c r="R145" s="57"/>
+      <c r="S145" s="57"/>
+      <c r="T145" s="57"/>
+      <c r="U145" s="57"/>
+      <c r="V145" s="57"/>
+      <c r="W145" s="57"/>
+      <c r="X145" s="57"/>
+      <c r="Y145" s="57"/>
+      <c r="Z145" s="57"/>
+      <c r="AA145" s="57"/>
+      <c r="AB145" s="57"/>
+      <c r="AC145" s="57"/>
+      <c r="AD145" s="57"/>
+      <c r="AE145" s="57"/>
+      <c r="AF145" s="57"/>
+      <c r="AG145" s="57"/>
+      <c r="AH145" s="57"/>
+      <c r="AI145" s="57"/>
+      <c r="AJ145" s="57"/>
+      <c r="AK145" s="57"/>
+      <c r="AL145" s="57"/>
+      <c r="AM145" s="57"/>
+      <c r="AN145" s="57"/>
+      <c r="AO145" s="57"/>
+      <c r="AP145" s="57"/>
+      <c r="AQ145" s="57"/>
+      <c r="AR145" s="57"/>
+      <c r="AS145" s="57"/>
+      <c r="AT145" s="57"/>
+      <c r="AU145" s="57"/>
+      <c r="AV145" s="89"/>
+    </row>
+    <row r="146" spans="2:48">
+      <c r="B146" s="88"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="57"/>
+      <c r="L146" s="57"/>
+      <c r="M146" s="57"/>
+      <c r="N146" s="57"/>
+      <c r="O146" s="57"/>
+      <c r="P146" s="57"/>
+      <c r="Q146" s="57"/>
+      <c r="R146" s="57"/>
+      <c r="S146" s="57"/>
+      <c r="T146" s="57"/>
+      <c r="U146" s="57"/>
+      <c r="V146" s="57"/>
+      <c r="W146" s="57"/>
+      <c r="X146" s="57"/>
+      <c r="Y146" s="57"/>
+      <c r="Z146" s="57"/>
+      <c r="AA146" s="57"/>
+      <c r="AB146" s="57"/>
+      <c r="AC146" s="57"/>
+      <c r="AD146" s="57"/>
+      <c r="AE146" s="57"/>
+      <c r="AF146" s="57"/>
+      <c r="AG146" s="57"/>
+      <c r="AH146" s="57"/>
+      <c r="AI146" s="57"/>
+      <c r="AJ146" s="57"/>
+      <c r="AK146" s="57"/>
+      <c r="AL146" s="57"/>
+      <c r="AM146" s="57"/>
+      <c r="AN146" s="57"/>
+      <c r="AO146" s="57"/>
+      <c r="AP146" s="57"/>
+      <c r="AQ146" s="57"/>
+      <c r="AR146" s="57"/>
+      <c r="AS146" s="57"/>
+      <c r="AT146" s="57"/>
+      <c r="AU146" s="57"/>
+      <c r="AV146" s="89"/>
+    </row>
+    <row r="147" spans="2:48">
+      <c r="B147" s="88"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
+      <c r="M147" s="57"/>
+      <c r="N147" s="57"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="57"/>
+      <c r="Q147" s="57"/>
+      <c r="R147" s="57"/>
+      <c r="S147" s="57"/>
+      <c r="T147" s="57"/>
+      <c r="U147" s="57"/>
+      <c r="V147" s="57"/>
+      <c r="W147" s="57"/>
+      <c r="X147" s="57"/>
+      <c r="Y147" s="57"/>
+      <c r="Z147" s="57"/>
+      <c r="AA147" s="57"/>
+      <c r="AB147" s="57"/>
+      <c r="AC147" s="57"/>
+      <c r="AD147" s="57"/>
+      <c r="AE147" s="57"/>
+      <c r="AF147" s="57"/>
+      <c r="AG147" s="57"/>
+      <c r="AH147" s="57"/>
+      <c r="AI147" s="57"/>
+      <c r="AJ147" s="57"/>
+      <c r="AK147" s="57"/>
+      <c r="AL147" s="57"/>
+      <c r="AM147" s="57"/>
+      <c r="AN147" s="57"/>
+      <c r="AO147" s="57"/>
+      <c r="AP147" s="57"/>
+      <c r="AQ147" s="57"/>
+      <c r="AR147" s="57"/>
+      <c r="AS147" s="57"/>
+      <c r="AT147" s="57"/>
+      <c r="AU147" s="57"/>
+      <c r="AV147" s="89"/>
+    </row>
+    <row r="148" spans="2:48">
+      <c r="B148" s="88"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="G148" s="119"/>
+      <c r="H148" s="119"/>
+      <c r="I148" s="119"/>
+      <c r="J148" s="119"/>
+      <c r="K148" s="119"/>
+      <c r="L148" s="119"/>
+      <c r="M148" s="119"/>
+      <c r="N148" s="119"/>
+      <c r="O148" s="119"/>
+      <c r="P148" s="119"/>
+      <c r="Q148" s="119"/>
+      <c r="R148" s="119"/>
+      <c r="S148" s="119"/>
+      <c r="T148" s="119"/>
+      <c r="U148" s="119"/>
+      <c r="V148" s="119"/>
+      <c r="W148" s="119"/>
+      <c r="X148" s="119"/>
+      <c r="Y148" s="119"/>
+      <c r="Z148" s="119"/>
+      <c r="AA148" s="119"/>
+      <c r="AB148" s="119"/>
+      <c r="AC148" s="119"/>
+      <c r="AD148" s="119"/>
+      <c r="AE148" s="119"/>
+      <c r="AF148" s="119"/>
+      <c r="AG148" s="119"/>
+      <c r="AH148" s="119"/>
+      <c r="AI148" s="119"/>
+      <c r="AJ148" s="119"/>
+      <c r="AK148" s="119"/>
+      <c r="AL148" s="119"/>
+      <c r="AM148" s="119"/>
+      <c r="AN148" s="119"/>
+      <c r="AO148" s="119"/>
+      <c r="AP148" s="120"/>
+      <c r="AQ148" s="57"/>
+      <c r="AR148" s="57"/>
+      <c r="AS148" s="57"/>
+      <c r="AT148" s="57"/>
+      <c r="AU148" s="57"/>
+      <c r="AV148" s="89"/>
+    </row>
+    <row r="149" spans="2:48">
+      <c r="B149" s="88"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="57"/>
+      <c r="L149" s="57"/>
+      <c r="M149" s="57"/>
+      <c r="N149" s="57"/>
+      <c r="O149" s="57"/>
+      <c r="P149" s="57"/>
+      <c r="Q149" s="57"/>
+      <c r="R149" s="57"/>
+      <c r="S149" s="57"/>
+      <c r="T149" s="57"/>
+      <c r="U149" s="57"/>
+      <c r="V149" s="57"/>
+      <c r="W149" s="57"/>
+      <c r="X149" s="57"/>
+      <c r="Y149" s="57"/>
+      <c r="Z149" s="57"/>
+      <c r="AA149" s="57"/>
+      <c r="AB149" s="57"/>
+      <c r="AC149" s="57"/>
+      <c r="AD149" s="57"/>
+      <c r="AE149" s="57"/>
+      <c r="AF149" s="57"/>
+      <c r="AG149" s="57"/>
+      <c r="AH149" s="57"/>
+      <c r="AI149" s="57"/>
+      <c r="AJ149" s="57"/>
+      <c r="AK149" s="57"/>
+      <c r="AL149" s="57"/>
+      <c r="AM149" s="57"/>
+      <c r="AN149" s="57"/>
+      <c r="AO149" s="57"/>
+      <c r="AP149" s="57"/>
+      <c r="AQ149" s="57"/>
+      <c r="AR149" s="57"/>
+      <c r="AS149" s="57"/>
+      <c r="AT149" s="57"/>
+      <c r="AU149" s="57"/>
+      <c r="AV149" s="89"/>
+    </row>
+    <row r="150" spans="2:48">
+      <c r="B150" s="88"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
+      <c r="K150" s="57"/>
+      <c r="L150" s="57"/>
+      <c r="M150" s="57"/>
+      <c r="N150" s="57"/>
+      <c r="O150" s="57"/>
+      <c r="P150" s="57"/>
+      <c r="Q150" s="57"/>
+      <c r="R150" s="57"/>
+      <c r="S150" s="57"/>
+      <c r="T150" s="57"/>
+      <c r="U150" s="57"/>
+      <c r="V150" s="57"/>
+      <c r="W150" s="57"/>
+      <c r="X150" s="57"/>
+      <c r="Y150" s="57"/>
+      <c r="Z150" s="57"/>
+      <c r="AA150" s="57"/>
+      <c r="AB150" s="57"/>
+      <c r="AC150" s="57"/>
+      <c r="AD150" s="57"/>
+      <c r="AE150" s="57"/>
+      <c r="AF150" s="57"/>
+      <c r="AG150" s="57"/>
+      <c r="AH150" s="57"/>
+      <c r="AI150" s="57"/>
+      <c r="AJ150" s="57"/>
+      <c r="AK150" s="57"/>
+      <c r="AL150" s="57"/>
+      <c r="AM150" s="57"/>
+      <c r="AN150" s="57"/>
+      <c r="AO150" s="57"/>
+      <c r="AP150" s="57"/>
+      <c r="AQ150" s="57"/>
+      <c r="AR150" s="57"/>
+      <c r="AS150" s="57"/>
+      <c r="AT150" s="57"/>
+      <c r="AU150" s="57"/>
+      <c r="AV150" s="89"/>
+    </row>
+    <row r="151" spans="2:48">
+      <c r="B151" s="88"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="272" t="s">
+        <v>85</v>
+      </c>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="57"/>
+      <c r="L151" s="57"/>
+      <c r="M151" s="57"/>
+      <c r="N151" s="57"/>
+      <c r="O151" s="57"/>
+      <c r="P151" s="57"/>
+      <c r="Q151" s="57"/>
+      <c r="R151" s="57"/>
+      <c r="S151" s="57"/>
+      <c r="T151" s="57"/>
+      <c r="U151" s="57"/>
+      <c r="V151" s="57"/>
+      <c r="W151" s="57"/>
+      <c r="X151" s="57"/>
+      <c r="Y151" s="57"/>
+      <c r="Z151" s="57"/>
+      <c r="AA151" s="57"/>
+      <c r="AB151" s="57"/>
+      <c r="AC151" s="57"/>
+      <c r="AD151" s="57"/>
+      <c r="AE151" s="57"/>
+      <c r="AF151" s="57"/>
+      <c r="AG151" s="57"/>
+      <c r="AH151" s="57"/>
+      <c r="AI151" s="57"/>
+      <c r="AJ151" s="57"/>
+      <c r="AK151" s="57"/>
+      <c r="AL151" s="57"/>
+      <c r="AM151" s="57"/>
+      <c r="AN151" s="57"/>
+      <c r="AO151" s="57"/>
+      <c r="AP151" s="57"/>
+      <c r="AQ151" s="57"/>
+      <c r="AR151" s="57"/>
+      <c r="AS151" s="57"/>
+      <c r="AT151" s="57"/>
+      <c r="AU151" s="57"/>
+      <c r="AV151" s="89"/>
+    </row>
+    <row r="152" spans="2:48">
+      <c r="B152" s="88"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="57"/>
+      <c r="L152" s="57"/>
+      <c r="M152" s="57"/>
+      <c r="N152" s="57"/>
+      <c r="O152" s="57"/>
+      <c r="P152" s="57"/>
+      <c r="Q152" s="57"/>
+      <c r="R152" s="57"/>
+      <c r="S152" s="57"/>
+      <c r="T152" s="57"/>
+      <c r="U152" s="57"/>
+      <c r="V152" s="57"/>
+      <c r="W152" s="57"/>
+      <c r="X152" s="57"/>
+      <c r="Y152" s="57"/>
+      <c r="Z152" s="57"/>
+      <c r="AA152" s="57"/>
+      <c r="AB152" s="57"/>
+      <c r="AC152" s="57"/>
+      <c r="AD152" s="57"/>
+      <c r="AE152" s="57"/>
+      <c r="AF152" s="57"/>
+      <c r="AG152" s="57"/>
+      <c r="AH152" s="57"/>
+      <c r="AI152" s="57"/>
+      <c r="AJ152" s="57"/>
+      <c r="AK152" s="57"/>
+      <c r="AL152" s="57"/>
+      <c r="AM152" s="57"/>
+      <c r="AN152" s="57"/>
+      <c r="AO152" s="57"/>
+      <c r="AP152" s="57"/>
+      <c r="AQ152" s="57"/>
+      <c r="AR152" s="57"/>
+      <c r="AS152" s="57"/>
+      <c r="AT152" s="57"/>
+      <c r="AU152" s="57"/>
+      <c r="AV152" s="89"/>
+    </row>
+    <row r="153" spans="2:48">
+      <c r="B153" s="88"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G153" s="119"/>
+      <c r="H153" s="119"/>
+      <c r="I153" s="119"/>
+      <c r="J153" s="119"/>
+      <c r="K153" s="119"/>
+      <c r="L153" s="119"/>
+      <c r="M153" s="119"/>
+      <c r="N153" s="119"/>
+      <c r="O153" s="119"/>
+      <c r="P153" s="119"/>
+      <c r="Q153" s="119"/>
+      <c r="R153" s="119"/>
+      <c r="S153" s="119"/>
+      <c r="T153" s="119"/>
+      <c r="U153" s="119"/>
+      <c r="V153" s="119"/>
+      <c r="W153" s="119"/>
+      <c r="X153" s="119"/>
+      <c r="Y153" s="119"/>
+      <c r="Z153" s="119"/>
+      <c r="AA153" s="119"/>
+      <c r="AB153" s="119"/>
+      <c r="AC153" s="119"/>
+      <c r="AD153" s="119"/>
+      <c r="AE153" s="119"/>
+      <c r="AF153" s="119"/>
+      <c r="AG153" s="119"/>
+      <c r="AH153" s="119"/>
+      <c r="AI153" s="119"/>
+      <c r="AJ153" s="119"/>
+      <c r="AK153" s="119"/>
+      <c r="AL153" s="119"/>
+      <c r="AM153" s="119"/>
+      <c r="AN153" s="119"/>
+      <c r="AO153" s="119"/>
+      <c r="AP153" s="120"/>
+      <c r="AQ153" s="57"/>
+      <c r="AR153" s="57"/>
+      <c r="AS153" s="57"/>
+      <c r="AT153" s="57"/>
+      <c r="AU153" s="57"/>
+      <c r="AV153" s="89"/>
+    </row>
+    <row r="154" spans="2:48">
+      <c r="B154" s="88"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="57"/>
+      <c r="L154" s="57"/>
+      <c r="M154" s="57"/>
+      <c r="N154" s="57"/>
+      <c r="O154" s="57"/>
+      <c r="P154" s="57"/>
+      <c r="Q154" s="57"/>
+      <c r="R154" s="57"/>
+      <c r="S154" s="57"/>
+      <c r="T154" s="57"/>
+      <c r="U154" s="57"/>
+      <c r="V154" s="57"/>
+      <c r="W154" s="57"/>
+      <c r="X154" s="57"/>
+      <c r="Y154" s="57"/>
+      <c r="Z154" s="57"/>
+      <c r="AA154" s="57"/>
+      <c r="AB154" s="57"/>
+      <c r="AC154" s="57"/>
+      <c r="AD154" s="57"/>
+      <c r="AE154" s="57"/>
+      <c r="AF154" s="57"/>
+      <c r="AG154" s="57"/>
+      <c r="AH154" s="57"/>
+      <c r="AI154" s="57"/>
+      <c r="AJ154" s="57"/>
+      <c r="AK154" s="57"/>
+      <c r="AL154" s="57"/>
+      <c r="AM154" s="57"/>
+      <c r="AN154" s="57"/>
+      <c r="AO154" s="57"/>
+      <c r="AP154" s="57"/>
+      <c r="AQ154" s="57"/>
+      <c r="AR154" s="57"/>
+      <c r="AS154" s="57"/>
+      <c r="AT154" s="57"/>
+      <c r="AU154" s="57"/>
+      <c r="AV154" s="89"/>
+    </row>
+    <row r="155" spans="2:48">
+      <c r="B155" s="88"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="57"/>
+      <c r="L155" s="57"/>
+      <c r="M155" s="57"/>
+      <c r="N155" s="57"/>
+      <c r="O155" s="57"/>
+      <c r="P155" s="57"/>
+      <c r="Q155" s="57"/>
+      <c r="R155" s="57"/>
+      <c r="S155" s="57"/>
+      <c r="T155" s="57"/>
+      <c r="U155" s="57"/>
+      <c r="V155" s="57"/>
+      <c r="W155" s="57"/>
+      <c r="X155" s="57"/>
+      <c r="Y155" s="57"/>
+      <c r="Z155" s="57"/>
+      <c r="AA155" s="57"/>
+      <c r="AB155" s="57"/>
+      <c r="AC155" s="57"/>
+      <c r="AD155" s="57"/>
+      <c r="AE155" s="57"/>
+      <c r="AF155" s="57"/>
+      <c r="AG155" s="57"/>
+      <c r="AH155" s="57"/>
+      <c r="AI155" s="57"/>
+      <c r="AJ155" s="57"/>
+      <c r="AK155" s="57"/>
+      <c r="AL155" s="57"/>
+      <c r="AM155" s="57"/>
+      <c r="AN155" s="57"/>
+      <c r="AO155" s="57"/>
+      <c r="AP155" s="57"/>
+      <c r="AQ155" s="57"/>
+      <c r="AR155" s="57"/>
+      <c r="AS155" s="57"/>
+      <c r="AT155" s="57"/>
+      <c r="AU155" s="57"/>
+      <c r="AV155" s="89"/>
+    </row>
+    <row r="156" spans="2:48">
+      <c r="B156" s="88"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="57"/>
+      <c r="M156" s="57"/>
+      <c r="N156" s="57"/>
+      <c r="O156" s="57"/>
+      <c r="P156" s="57"/>
+      <c r="Q156" s="57"/>
+      <c r="R156" s="57"/>
+      <c r="S156" s="57"/>
+      <c r="T156" s="57"/>
+      <c r="U156" s="57"/>
+      <c r="V156" s="57"/>
+      <c r="W156" s="57"/>
+      <c r="X156" s="57"/>
+      <c r="Y156" s="57"/>
+      <c r="Z156" s="57"/>
+      <c r="AA156" s="57"/>
+      <c r="AB156" s="57"/>
+      <c r="AC156" s="57"/>
+      <c r="AD156" s="57"/>
+      <c r="AE156" s="57"/>
+      <c r="AF156" s="57"/>
+      <c r="AG156" s="57"/>
+      <c r="AH156" s="57"/>
+      <c r="AI156" s="57"/>
+      <c r="AJ156" s="57"/>
+      <c r="AK156" s="57"/>
+      <c r="AL156" s="57"/>
+      <c r="AM156" s="57"/>
+      <c r="AN156" s="57"/>
+      <c r="AO156" s="57"/>
+      <c r="AP156" s="57"/>
+      <c r="AQ156" s="57"/>
+      <c r="AR156" s="57"/>
+      <c r="AS156" s="57"/>
+      <c r="AT156" s="57"/>
+      <c r="AU156" s="57"/>
+      <c r="AV156" s="89"/>
+    </row>
+    <row r="157" spans="2:48">
+      <c r="B157" s="88"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="57"/>
+      <c r="L157" s="57"/>
+      <c r="M157" s="57"/>
+      <c r="N157" s="57"/>
+      <c r="O157" s="57"/>
+      <c r="P157" s="57"/>
+      <c r="Q157" s="57"/>
+      <c r="R157" s="57"/>
+      <c r="S157" s="57"/>
+      <c r="T157" s="57"/>
+      <c r="U157" s="57"/>
+      <c r="V157" s="57"/>
+      <c r="W157" s="57"/>
+      <c r="X157" s="57"/>
+      <c r="Y157" s="57"/>
+      <c r="Z157" s="57"/>
+      <c r="AA157" s="57"/>
+      <c r="AB157" s="57"/>
+      <c r="AC157" s="57"/>
+      <c r="AD157" s="57"/>
+      <c r="AE157" s="57"/>
+      <c r="AF157" s="57"/>
+      <c r="AG157" s="57"/>
+      <c r="AH157" s="57"/>
+      <c r="AI157" s="57"/>
+      <c r="AJ157" s="57"/>
+      <c r="AK157" s="57"/>
+      <c r="AL157" s="57"/>
+      <c r="AM157" s="57"/>
+      <c r="AN157" s="57"/>
+      <c r="AO157" s="57"/>
+      <c r="AP157" s="57"/>
+      <c r="AQ157" s="57"/>
+      <c r="AR157" s="57"/>
+      <c r="AS157" s="57"/>
+      <c r="AT157" s="57"/>
+      <c r="AU157" s="57"/>
+      <c r="AV157" s="89"/>
+    </row>
+    <row r="158" spans="2:48" ht="14.4" thickBot="1">
+      <c r="B158" s="88"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="57"/>
+      <c r="L158" s="57"/>
+      <c r="M158" s="57"/>
+      <c r="N158" s="57"/>
+      <c r="O158" s="57"/>
+      <c r="P158" s="57"/>
+      <c r="Q158" s="57"/>
+      <c r="R158" s="57"/>
+      <c r="S158" s="57"/>
+      <c r="T158" s="57"/>
+      <c r="U158" s="57"/>
+      <c r="V158" s="57"/>
+      <c r="W158" s="57"/>
+      <c r="X158" s="273" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y158" s="274"/>
+      <c r="Z158" s="275"/>
+      <c r="AA158" s="57"/>
+      <c r="AB158" s="57"/>
+      <c r="AC158" s="57"/>
+      <c r="AD158" s="57"/>
+      <c r="AE158" s="57"/>
+      <c r="AF158" s="57"/>
+      <c r="AG158" s="57"/>
+      <c r="AH158" s="57"/>
+      <c r="AI158" s="57"/>
+      <c r="AJ158" s="57"/>
+      <c r="AK158" s="57"/>
+      <c r="AL158" s="57"/>
+      <c r="AM158" s="57"/>
+      <c r="AN158" s="57"/>
+      <c r="AO158" s="57"/>
+      <c r="AP158" s="57"/>
+      <c r="AQ158" s="57"/>
+      <c r="AR158" s="57"/>
+      <c r="AS158" s="57"/>
+      <c r="AT158" s="57"/>
+      <c r="AU158" s="57"/>
+      <c r="AV158" s="89"/>
+    </row>
+    <row r="159" spans="2:48" ht="14.4" thickTop="1">
+      <c r="B159" s="88"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="57"/>
+      <c r="K159" s="57"/>
+      <c r="L159" s="57"/>
+      <c r="M159" s="57"/>
+      <c r="N159" s="57"/>
+      <c r="O159" s="57"/>
+      <c r="P159" s="57"/>
+      <c r="Q159" s="57"/>
+      <c r="R159" s="57"/>
+      <c r="S159" s="57"/>
+      <c r="T159" s="57"/>
+      <c r="U159" s="57"/>
+      <c r="V159" s="57"/>
+      <c r="W159" s="57"/>
+      <c r="X159" s="57"/>
+      <c r="Y159" s="57"/>
+      <c r="Z159" s="57"/>
+      <c r="AA159" s="57"/>
+      <c r="AB159" s="57"/>
+      <c r="AC159" s="57"/>
+      <c r="AD159" s="57"/>
+      <c r="AE159" s="57"/>
+      <c r="AF159" s="57"/>
+      <c r="AG159" s="57"/>
+      <c r="AH159" s="57"/>
+      <c r="AI159" s="57"/>
+      <c r="AJ159" s="57"/>
+      <c r="AK159" s="57"/>
+      <c r="AL159" s="57"/>
+      <c r="AM159" s="57"/>
+      <c r="AN159" s="57"/>
+      <c r="AO159" s="57"/>
+      <c r="AP159" s="57"/>
+      <c r="AQ159" s="57"/>
+      <c r="AR159" s="57"/>
+      <c r="AS159" s="57"/>
+      <c r="AT159" s="57"/>
+      <c r="AU159" s="57"/>
+      <c r="AV159" s="89"/>
+    </row>
+    <row r="160" spans="2:48">
+      <c r="B160" s="88"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="57"/>
+      <c r="K160" s="57"/>
+      <c r="L160" s="57"/>
+      <c r="M160" s="57"/>
+      <c r="N160" s="57"/>
+      <c r="O160" s="57"/>
+      <c r="P160" s="57"/>
+      <c r="Q160" s="57"/>
+      <c r="R160" s="57"/>
+      <c r="S160" s="57"/>
+      <c r="T160" s="57"/>
+      <c r="U160" s="57"/>
+      <c r="V160" s="57"/>
+      <c r="W160" s="57"/>
+      <c r="X160" s="57"/>
+      <c r="Y160" s="57"/>
+      <c r="Z160" s="57"/>
+      <c r="AA160" s="57"/>
+      <c r="AB160" s="57"/>
+      <c r="AC160" s="57"/>
+      <c r="AD160" s="57"/>
+      <c r="AE160" s="57"/>
+      <c r="AF160" s="57"/>
+      <c r="AG160" s="57"/>
+      <c r="AH160" s="57"/>
+      <c r="AI160" s="57"/>
+      <c r="AJ160" s="57"/>
+      <c r="AK160" s="57"/>
+      <c r="AL160" s="57"/>
+      <c r="AM160" s="57"/>
+      <c r="AN160" s="57"/>
+      <c r="AO160" s="57"/>
+      <c r="AP160" s="57"/>
+      <c r="AQ160" s="57"/>
+      <c r="AR160" s="57"/>
+      <c r="AS160" s="57"/>
+      <c r="AT160" s="57"/>
+      <c r="AU160" s="57"/>
+      <c r="AV160" s="89"/>
+    </row>
+    <row r="161" spans="2:48">
+      <c r="B161" s="88"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="57"/>
+      <c r="N161" s="57"/>
+      <c r="O161" s="57"/>
+      <c r="P161" s="57"/>
+      <c r="Q161" s="57"/>
+      <c r="R161" s="57"/>
+      <c r="S161" s="57"/>
+      <c r="T161" s="57"/>
+      <c r="U161" s="57"/>
+      <c r="V161" s="57"/>
+      <c r="W161" s="57"/>
+      <c r="X161" s="57"/>
+      <c r="Y161" s="57"/>
+      <c r="Z161" s="57"/>
+      <c r="AA161" s="57"/>
+      <c r="AB161" s="57"/>
+      <c r="AC161" s="57"/>
+      <c r="AD161" s="57"/>
+      <c r="AE161" s="57"/>
+      <c r="AF161" s="57"/>
+      <c r="AG161" s="57"/>
+      <c r="AH161" s="57"/>
+      <c r="AI161" s="57"/>
+      <c r="AJ161" s="57"/>
+      <c r="AK161" s="57"/>
+      <c r="AL161" s="57"/>
+      <c r="AM161" s="57"/>
+      <c r="AN161" s="57"/>
+      <c r="AO161" s="57"/>
+      <c r="AP161" s="57"/>
+      <c r="AQ161" s="57"/>
+      <c r="AR161" s="57"/>
+      <c r="AS161" s="57"/>
+      <c r="AT161" s="57"/>
+      <c r="AU161" s="57"/>
+      <c r="AV161" s="89"/>
+    </row>
+    <row r="162" spans="2:48">
+      <c r="B162" s="88"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="57"/>
+      <c r="L162" s="57"/>
+      <c r="M162" s="57"/>
+      <c r="N162" s="57"/>
+      <c r="O162" s="57"/>
+      <c r="P162" s="57"/>
+      <c r="Q162" s="57"/>
+      <c r="R162" s="57"/>
+      <c r="S162" s="57"/>
+      <c r="T162" s="57"/>
+      <c r="U162" s="57"/>
+      <c r="V162" s="57"/>
+      <c r="W162" s="57"/>
+      <c r="X162" s="57"/>
+      <c r="Y162" s="57"/>
+      <c r="Z162" s="57"/>
+      <c r="AA162" s="57"/>
+      <c r="AB162" s="57"/>
+      <c r="AC162" s="57"/>
+      <c r="AD162" s="57"/>
+      <c r="AE162" s="57"/>
+      <c r="AF162" s="57"/>
+      <c r="AG162" s="57"/>
+      <c r="AH162" s="57"/>
+      <c r="AI162" s="57"/>
+      <c r="AJ162" s="57"/>
+      <c r="AK162" s="57"/>
+      <c r="AL162" s="57"/>
+      <c r="AM162" s="57"/>
+      <c r="AN162" s="57"/>
+      <c r="AO162" s="57"/>
+      <c r="AP162" s="57"/>
+      <c r="AQ162" s="57"/>
+      <c r="AR162" s="57"/>
+      <c r="AS162" s="57"/>
+      <c r="AT162" s="57"/>
+      <c r="AU162" s="57"/>
+      <c r="AV162" s="89"/>
+    </row>
+    <row r="163" spans="2:48">
+      <c r="B163" s="88"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="57"/>
+      <c r="L163" s="57"/>
+      <c r="M163" s="57"/>
+      <c r="N163" s="57"/>
+      <c r="O163" s="57"/>
+      <c r="P163" s="57"/>
+      <c r="Q163" s="57"/>
+      <c r="R163" s="57"/>
+      <c r="S163" s="57"/>
+      <c r="T163" s="57"/>
+      <c r="U163" s="57"/>
+      <c r="V163" s="57"/>
+      <c r="W163" s="57"/>
+      <c r="X163" s="57"/>
+      <c r="Y163" s="57"/>
+      <c r="Z163" s="57"/>
+      <c r="AA163" s="57"/>
+      <c r="AB163" s="57"/>
+      <c r="AC163" s="57"/>
+      <c r="AD163" s="57"/>
+      <c r="AE163" s="57"/>
+      <c r="AF163" s="57"/>
+      <c r="AG163" s="57"/>
+      <c r="AH163" s="57"/>
+      <c r="AI163" s="57"/>
+      <c r="AJ163" s="57"/>
+      <c r="AK163" s="57"/>
+      <c r="AL163" s="57"/>
+      <c r="AM163" s="57"/>
+      <c r="AN163" s="57"/>
+      <c r="AO163" s="57"/>
+      <c r="AP163" s="57"/>
+      <c r="AQ163" s="57"/>
+      <c r="AR163" s="57"/>
+      <c r="AS163" s="57"/>
+      <c r="AT163" s="57"/>
+      <c r="AU163" s="57"/>
+      <c r="AV163" s="89"/>
+    </row>
+    <row r="164" spans="2:48" ht="14.4" thickBot="1">
+      <c r="B164" s="90"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="91"/>
+      <c r="E164" s="91"/>
+      <c r="F164" s="91"/>
+      <c r="G164" s="91"/>
+      <c r="H164" s="91"/>
+      <c r="I164" s="91"/>
+      <c r="J164" s="91"/>
+      <c r="K164" s="91"/>
+      <c r="L164" s="91"/>
+      <c r="M164" s="91"/>
+      <c r="N164" s="91"/>
+      <c r="O164" s="91"/>
+      <c r="P164" s="91"/>
+      <c r="Q164" s="91"/>
+      <c r="R164" s="91"/>
+      <c r="S164" s="91"/>
+      <c r="T164" s="91"/>
+      <c r="U164" s="91"/>
+      <c r="V164" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="W164" s="91"/>
+      <c r="X164" s="91"/>
+      <c r="Y164" s="91"/>
+      <c r="Z164" s="91"/>
+      <c r="AA164" s="91"/>
+      <c r="AB164" s="91"/>
+      <c r="AC164" s="91"/>
+      <c r="AD164" s="91"/>
+      <c r="AE164" s="91"/>
+      <c r="AF164" s="91"/>
+      <c r="AG164" s="91"/>
+      <c r="AH164" s="91"/>
+      <c r="AI164" s="91"/>
+      <c r="AJ164" s="91"/>
+      <c r="AK164" s="91"/>
+      <c r="AL164" s="91"/>
+      <c r="AM164" s="91"/>
+      <c r="AN164" s="91"/>
+      <c r="AO164" s="91"/>
+      <c r="AP164" s="91"/>
+      <c r="AQ164" s="91"/>
+      <c r="AR164" s="91"/>
+      <c r="AS164" s="91"/>
+      <c r="AT164" s="91"/>
+      <c r="AU164" s="91"/>
+      <c r="AV164" s="92"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="T91:AB92"/>
+    <mergeCell ref="T100:AC102"/>
+    <mergeCell ref="T126:AB127"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="T76:AC78"/>
     <mergeCell ref="A1:C2"/>
@@ -10822,11 +12455,6 @@
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="T91:AB92"/>
-    <mergeCell ref="T100:AC102"/>
-    <mergeCell ref="T126:AB127"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" scale="51" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10856,12 +12484,12 @@
   <sheetData>
     <row r="1" spans="1:48">
       <c r="A1" s="215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="216"/>
       <c r="C1" s="217"/>
       <c r="D1" s="215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="216"/>
       <c r="F1" s="216"/>
@@ -10891,7 +12519,7 @@
       <c r="AD1" s="216"/>
       <c r="AE1" s="217"/>
       <c r="AF1" s="215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG1" s="216"/>
       <c r="AH1" s="216"/>
@@ -10943,7 +12571,7 @@
       <c r="AD2" s="219"/>
       <c r="AE2" s="220"/>
       <c r="AF2" s="209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="209"/>
       <c r="AH2" s="209"/>
@@ -10964,14 +12592,14 @@
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="221"/>
       <c r="C3" s="221"/>
       <c r="D3" s="221"/>
       <c r="E3" s="221"/>
       <c r="F3" s="222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="222"/>
       <c r="H3" s="222"/>
@@ -10979,7 +12607,7 @@
       <c r="J3" s="222"/>
       <c r="K3" s="222"/>
       <c r="L3" s="221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="221"/>
       <c r="N3" s="221"/>
@@ -10987,7 +12615,7 @@
       <c r="P3" s="221"/>
       <c r="Q3" s="221"/>
       <c r="R3" s="223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3" s="224"/>
       <c r="T3" s="224"/>
@@ -11003,7 +12631,7 @@
       <c r="AD3" s="224"/>
       <c r="AE3" s="225"/>
       <c r="AF3" s="226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="227"/>
       <c r="AH3" s="227"/>
@@ -11014,7 +12642,7 @@
       <c r="AM3" s="209"/>
       <c r="AN3" s="210"/>
       <c r="AO3" s="214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP3" s="209"/>
       <c r="AQ3" s="209"/>
@@ -11054,7 +12682,7 @@
       <c r="AD4" s="224"/>
       <c r="AE4" s="225"/>
       <c r="AF4" s="229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" s="230"/>
       <c r="AH4" s="230"/>
@@ -11104,13 +12732,13 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
       <c r="A1" s="237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
       <c r="D1" s="238"/>
       <c r="E1" s="241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="242"/>
       <c r="G1" s="242"/>
@@ -11130,7 +12758,7 @@
       <c r="U1" s="242"/>
       <c r="V1" s="243"/>
       <c r="W1" s="247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X1" s="248"/>
       <c r="Y1" s="248"/>
@@ -11169,26 +12797,26 @@
       <c r="T2" s="245"/>
       <c r="U2" s="245"/>
       <c r="V2" s="246"/>
-      <c r="W2" s="187" t="s">
-        <v>23</v>
+      <c r="W2" s="174" t="s">
+        <v>22</v>
       </c>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="189"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="176"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="251"/>
       <c r="C3" s="251"/>
@@ -11198,7 +12826,7 @@
       <c r="G3" s="255"/>
       <c r="H3" s="256"/>
       <c r="I3" s="251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="251"/>
       <c r="K3" s="251"/>
@@ -11214,7 +12842,7 @@
       <c r="U3" s="255"/>
       <c r="V3" s="263"/>
       <c r="W3" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
@@ -11223,7 +12851,7 @@
       <c r="AB3" s="266"/>
       <c r="AC3" s="267"/>
       <c r="AD3" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE3" s="27"/>
       <c r="AF3" s="28"/>
@@ -11256,7 +12884,7 @@
       <c r="U4" s="258"/>
       <c r="V4" s="265"/>
       <c r="W4" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
@@ -11265,7 +12893,7 @@
       <c r="AB4" s="232"/>
       <c r="AC4" s="233"/>
       <c r="AD4" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="29"/>
       <c r="AF4" s="30"/>
@@ -11279,7 +12907,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
